--- a/scripts/script_outputs/combined.xlsx
+++ b/scripts/script_outputs/combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W152"/>
+  <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>AdaptionEffectiveness</t>
+          <t>AdaptationEffectiveness</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -532,21 +532,6 @@
       <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Impacts</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Intervention Type</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>BehaviouralChangeTargeted</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>AdaptationEffectiveness</t>
         </is>
       </c>
     </row>
@@ -606,12 +591,13 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>The "Building Codes and Standards" climate action promotes equity and inclusion in several ways:
-1. **Access to Safe Housing**: By enforcing stringent building codes, the action ensures that all communities, including vulnerable and underserved populations, have access to safe, resilient, and environmentally responsible housing. This helps protect these communities from the adverse effects of climate change.
-2. **Energy Efficiency Benefits**: The promotion of energy-efficient buildings can lead to lower utility costs, which disproportionately benefits low-income households that may struggle with energy expenses. This economic relief contributes to greater financial stability for underserved communities.
-3. **Health and Safety Improvements**: Enhanced building standards can improve indoor air quality and reduce health risks associated with poor construction practices. Vulnerable populations often face higher health risks, and these improvements can lead to better overall health outcomes.
-4. **Community Resilience**: By fostering resilience to climate change through improved building standards, the action helps ensure that underserved communities are better equipped to withstand climate-related events, thereby promoting long-term sustainability and stability.
-5. **Inclusive Development**: The formulation of building codes often involves community input, ensuring that the voices of marginalized groups are considered in the decision-making process. This participatory approach fosters a sense of ownership and inclusion among all community members.
-Overall, the "Building Codes and Standards" action integrates equity and inclusion by prioritizing the needs and well-being of vulnerable communities in the context of sustainable urban development.</t>
+1. **Access to Safe Housing**: By enforcing building codes that prioritize safety and resilience, vulnerable communities benefit from improved housing conditions, reducing their risk of displacement due to climate-related disasters.
+2. **Energy Efficiency**: Stricter energy efficiency standards can lower utility costs for low-income households, making housing more affordable and reducing the financial burden on underserved communities.
+3. **Health Benefits**: Environmentally responsible buildings often incorporate better ventilation and materials, leading to improved indoor air quality, which is particularly beneficial for communities that may face higher health risks.
+4. **Job Creation**: The implementation of new building codes can create job opportunities in construction and retrofitting, providing economic benefits to underserved populations and promoting workforce development.
+5. **Community Engagement**: The process of developing and enforcing building codes often involves community input, ensuring that the voices of vulnerable populations are considered in urban planning and development decisions.
+6. **Resilience to Climate Change**: By enhancing the resilience of buildings in underserved areas, this action helps protect these communities from the disproportionate impacts of climate change, fostering long-term sustainability and stability. 
+Overall, the action integrates equity and inclusion by addressing the specific needs and vulnerabilities of underserved communities while promoting sustainable urban development.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -632,22 +618,19 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>['Collaboration with local governments to develop and enforce building codes', 'Access to up-to-date research on sustainable building practices and materials', 'Training and education for builders and contractors on new standards', 'Public awareness campaigns to inform stakeholders about the benefits of energy-efficient buildings', 'Funding and financial incentives for implementing energy-efficient technologies in construction']</t>
+          <t>['Government commitment to enforce regulations', 'Availability of technical expertise for code development', 'Public awareness and support for sustainable building practices', 'Collaboration with construction industry stakeholders', 'Access to funding for implementation and compliance', 'Integration with existing urban planning and development policies']</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>['Percentage reduction in energy consumption of new buildings', 'Percentage of buildings compliant with updated building codes', 'Reduction in greenhouse gas emissions from the building sector', 'Number of buildings certified under green building standards', 'Percentage increase in the use of sustainable building materials', 'Average resilience score of buildings against climate-related hazards', 'Number of training sessions conducted for builders and architects on new codes', 'Public awareness and engagement levels regarding building codes and standards']</t>
+          <t>['Percentage reduction in energy consumption in new buildings', 'Percentage of buildings compliant with updated building codes', 'Reduction in greenhouse gas emissions from the building sector', 'Number of buildings certified under green building standards', 'Percentage increase in the use of sustainable building materials', 'Average resilience score of buildings against climate-related hazards', 'Number of training sessions conducted for builders and architects on new codes', 'Public awareness and engagement levels regarding building codes and standards']</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from stationary energy', 'Improved energy efficiency in buildings', 'Enhanced access to safe and resilient housing for vulnerable communities', 'Lower utility costs benefiting low-income households', 'Improved indoor air quality and health outcomes', 'Increased community resilience to climate change', 'Inclusive development through community input in building codes']</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+          <t>['Promotes energy efficiency in construction', 'Reduces greenhouse gas emissions', 'Enhances resilience of buildings to climate change', 'Improves housing conditions for vulnerable communities', 'Lowers utility costs for low-income households', 'Creates job opportunities in construction and retrofitting', 'Involves community input in urban planning', 'Improves indoor air quality']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -694,7 +677,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the climate action "Building Codes and Standards, Residential Buildings" aims to achieve is the adoption of energy-efficient construction practices among builders, developers, and homeowners. This includes prioritizing the use of sustainable materials, implementing energy-saving technologies, and adhering to regulations that mandate environmentally responsible building designs. By fostering a culture of compliance with stringent building codes, the intervention seeks to reduce carbon emissions associated with residential construction and promote a shift towards more sustainable urban development.</t>
+          <t>The targeted behavioral change that the climate action "Building Codes and Standards, Residential Buildings" aims to achieve is the adoption of energy-efficient construction practices among builders, developers, and homeowners. This includes a shift towards designing and constructing residential buildings that comply with stringent environmental regulations, thereby reducing energy consumption and carbon emissions. By fostering a culture of sustainability in building practices, the intervention encourages stakeholders to prioritize environmentally responsible choices in the construction and renovation of homes, ultimately contributing to sustainable urban development and resilience to climate change.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -707,11 +690,10 @@
           <t>The climate action of implementing "Building Codes and Standards" for residential buildings promotes equity and inclusion in several ways:
 1. **Access to Safe Housing**: By enforcing building codes that prioritize safety and environmental responsibility, vulnerable communities are ensured access to safe and resilient housing, reducing their risk of displacement due to climate-related events.
 2. **Energy Efficiency Benefits**: Stricter energy efficiency standards can lower utility costs for residents, particularly benefiting low-income households that may struggle with high energy bills, thus promoting economic equity.
-3. **Health Improvements**: Environmentally responsible buildings often incorporate better ventilation and materials that reduce indoor pollutants, leading to improved health outcomes for underserved communities that may be disproportionately affected by poor housing conditions.
-4. **Community Resilience**: By enhancing the resilience of residential buildings to climate change impacts, these codes help protect underserved communities from the adverse effects of climate events, fostering a more equitable recovery and adaptation process.
-5. **Inclusive Development**: The formulation of these codes often involves community input, ensuring that the voices of vulnerable populations are considered in the decision-making process, thus promoting inclusivity in urban development.
-6. **Job Creation**: The implementation of new building standards can create job opportunities in construction and retrofitting, particularly benefiting local workers from underserved communities, thereby supporting economic inclusion. 
-Overall, the action of establishing building codes and standards inherently considers the needs and rights of vulnerable and underserved communities, promoting a more equitable and inclusive approach to climate action.</t>
+3. **Healthier Living Environments**: The focus on environmentally responsible construction can lead to healthier living conditions, reducing exposure to pollutants and improving overall public health, which is particularly beneficial for underserved communities that often face higher health risks.
+4. **Community Resilience**: By enhancing resilience to climate change, these building codes help protect underserved communities from the adverse effects of climate impacts, ensuring they are not disproportionately affected by climate-related disasters.
+5. **Inclusive Development**: The formulation of these codes often involves community input, ensuring that the voices of vulnerable populations are considered in the decision-making process, fostering a sense of ownership and inclusion in urban development initiatives. 
+Overall, the action integrates equity and inclusion by addressing the specific needs and vulnerabilities of underserved communities while promoting sustainable urban development.</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -732,22 +714,19 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>['Collaboration with local governments to develop and enforce building codes', 'Access to updated research and data on energy efficiency and sustainable materials', 'Training and resources for builders and contractors on new standards', 'Public awareness and support for sustainable building practices', 'Integration with existing urban planning and zoning regulations']</t>
+          <t>['Collaboration with local governments to develop and enforce building codes', 'Access to updated research and data on energy efficiency and sustainable materials', 'Training and resources for builders and contractors on new standards', 'Public awareness and support for sustainable building practices', 'Funding and incentives for implementing energy-efficient technologies']</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>['Energy efficiency improvements', 'Reduction in carbon emissions', 'Number of buildings compliant with codes', 'Percentage of new constructions meeting sustainability standards', 'Reduction in energy consumption per square foot', 'Increase in use of renewable energy sources in buildings', 'Cost savings from energy-efficient upgrades', 'Improvement in indoor air quality', 'Resilience metrics against climate-related events', 'Stakeholder engagement and compliance rates']</t>
+          <t>['Energy efficiency improvements', 'Reduction in carbon emissions', 'Number of buildings compliant with codes', 'Percentage of new constructions meeting sustainability standards', 'Reduction in energy consumption per square foot', 'Increase in use of renewable energy sources', 'Cost savings from energy-efficient designs', 'Improvement in indoor air quality', 'Resilience metrics against climate impacts', 'Stakeholder engagement and compliance rates']</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>['Reduction in GHG emissions from residential buildings', 'Improved energy efficiency leading to lower utility costs for residents', 'Enhanced safety and resilience of housing for vulnerable communities', 'Creation of job opportunities in construction and retrofitting', 'Increased community engagement in urban development decisions']</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+          <t>['Reduction in GHG emissions from residential buildings', 'Improved energy efficiency leading to lower utility costs for residents', 'Enhanced resilience of communities to climate change impacts', 'Promotion of safe and healthy living environments', 'Increased equity in housing access for vulnerable populations']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -794,7 +773,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>The targeted behavioral shift that the climate action "Building Codes and Standards, Commercial Buildings" aims to achieve is the adoption of environmentally responsible construction practices among builders, architects, and developers. This includes prioritizing energy efficiency, utilizing sustainable materials, and adhering to stringent building regulations that reduce carbon emissions and enhance resilience to climate change. By enforcing these codes, the intervention seeks to change perceptions about the importance of sustainable building practices, ultimately leading to a widespread commitment to constructing energy-efficient commercial buildings.</t>
+          <t>The targeted behavioral shift that the climate action "Building Codes and Standards, Commercial Buildings" aims to achieve is the adoption of environmentally responsible construction practices among builders, developers, and architects. This includes prioritizing energy efficiency, utilizing sustainable materials, and adhering to stringent building regulations that reduce carbon emissions and enhance resilience to climate change. By enforcing these codes, the intervention seeks to change perceptions about the importance of sustainable building practices, ultimately leading to a widespread commitment to constructing energy-efficient commercial buildings.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -804,13 +783,13 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>The climate action of implementing "Building Codes and Standards, Commercial Buildings" promotes equity and inclusion in several ways:
-1. **Access to Safe and Healthy Environments**: By enforcing regulations for environmentally responsible buildings, the action ensures that all communities, including vulnerable and underserved populations, have access to safe, healthy, and energy-efficient spaces, reducing exposure to harmful pollutants and improving overall well-being.
-2. **Economic Opportunities**: The development and enforcement of building codes can create job opportunities in construction, retrofitting, and maintenance of energy-efficient buildings, particularly benefiting local workers from underserved communities.
-3. **Resilience to Climate Change**: By enhancing the resilience of buildings to climate impacts, the action helps protect vulnerable communities that are often disproportionately affected by climate-related disasters, ensuring they have safer living and working conditions.
+          <t>The climate action of establishing "Building Codes and Standards, Commercial Buildings" promotes equity and inclusion in several ways:
+1. **Access to Safe and Healthy Environments**: By enforcing regulations for environmentally responsible buildings, the action ensures that all communities, including vulnerable and underserved populations, have access to safe, healthy, and energy-efficient spaces, reducing health risks associated with poor building conditions.
+2. **Economic Opportunities**: The implementation of stringent building codes can create job opportunities in the construction and retrofitting sectors, particularly benefiting local workers from underserved communities who may face barriers to employment.
+3. **Resilience to Climate Change**: By enhancing the resilience of buildings to climate impacts, the action helps protect vulnerable communities that are often disproportionately affected by climate-related disasters, ensuring they are better equipped to withstand such events.
 4. **Energy Cost Savings**: Energy-efficient buildings can lead to lower utility bills, which is particularly beneficial for low-income households and businesses, helping to alleviate financial burdens and promote economic equity.
-5. **Community Engagement**: The process of formulating building codes often involves stakeholder engagement, which can include input from underserved communities, ensuring their needs and perspectives are considered in the development of regulations that affect their environments.
-6. **Long-term Sustainability**: By promoting sustainable urban development through these codes, the action supports the long-term viability of neighborhoods that may be at risk of displacement or neglect, fostering inclusive growth and stability.</t>
+5. **Community Engagement**: The formulation of building codes often involves stakeholder engagement, which can include input from underserved communities, ensuring their needs and perspectives are considered in the development of regulations that affect their living and working environments. 
+Overall, this climate action integrates equity and inclusion by prioritizing the needs of vulnerable populations, promoting economic opportunities, and enhancing community resilience.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -831,7 +810,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>['Collaboration with local governments to develop and enforce building codes', 'Access to updated scientific research on energy efficiency and climate resilience', 'Training and resources for builders and contractors on new standards', 'Public awareness and support for sustainable building practices', 'Funding and incentives for compliance with building codes']</t>
+          <t>['Collaboration with local governments to develop and enforce building codes', 'Access to updated research and data on energy efficiency and sustainable practices', 'Training and resources for builders and contractors on new standards', 'Public awareness and support for sustainable building practices', 'Funding and incentives for implementing energy-efficient technologies']</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -841,12 +820,9 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions by 80-100% in stationary energy sector', 'Promotion of energy-efficient construction practices among builders and developers', 'Improvement in water quality through sustainable building practices', 'Creation of job opportunities in construction and maintenance', 'Enhanced resilience of buildings to climate change impacts', 'Lower utility bills for low-income households and businesses', 'Increased access to safe and healthy environments for underserved communities']</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions by 80-100% in stationary energy sector', 'Promotion of energy-efficient and environmentally responsible construction practices', 'Improvement in water quality through sustainable building practices', 'Creation of job opportunities in construction and retrofitting sectors', 'Enhanced resilience of buildings to climate change impacts', 'Lower utility bills for low-income households and businesses', 'Increased access to safe and healthy environments for underserved communities']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -903,13 +879,13 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>The climate action of implementing Building Codes and Standards for Institutional Buildings promotes equity and inclusion in several ways:
-1. **Access to Safe and Healthy Environments**: By enforcing regulations for environmentally responsible buildings, the action ensures that all communities, including vulnerable and underserved populations, have access to safe, healthy, and energy-efficient spaces. This is particularly important for institutions that serve these communities, such as schools and healthcare facilities.
-2. **Resilience to Climate Change**: The focus on enhancing resilience through stringent building codes helps protect underserved communities that are often more vulnerable to the impacts of climate change. By ensuring that buildings can withstand climate-related challenges, the action supports the safety and well-being of these populations.
-3. **Energy Efficiency and Cost Savings**: Promoting energy-efficient buildings can lead to lower utility costs, which disproportionately benefits low-income households. By reducing energy expenses, the action helps alleviate financial burdens on underserved communities, contributing to economic equity.
-4. **Community Engagement in Development**: The formulation of building codes often involves stakeholder engagement, which can include input from marginalized communities. This participatory approach ensures that the needs and concerns of these populations are considered in the development of regulations, fostering a sense of inclusion.
-5. **Job Creation and Economic Opportunities**: The implementation of new building standards can create job opportunities in construction and retrofitting, particularly in underserved areas. This can help stimulate local economies and provide employment for community members who may face barriers to job access.
-Overall, the action of establishing Building Codes and Standards for Institutional Buildings inherently considers equity and inclusion by prioritizing the needs of vulnerable communities, enhancing their resilience, and promoting access to sustainable and healthy environments.</t>
+          <t>The climate action of implementing "Building Codes and Standards" for institutional buildings promotes equity and inclusion in several ways:
+1. **Access to Safe and Healthy Environments**: By enforcing regulations for environmentally responsible buildings, the action ensures that all communities, including vulnerable and underserved populations, have access to safe, healthy, and energy-efficient spaces. This is particularly important for low-income neighborhoods that may otherwise be subjected to substandard housing conditions.
+2. **Job Creation and Economic Opportunities**: The formulation and enforcement of building codes can lead to job creation in construction and related industries. This can provide economic opportunities for underserved communities, helping to reduce disparities in employment and income.
+3. **Resilience to Climate Change**: By enhancing resilience to climate change, the action helps protect vulnerable communities that are often disproportionately affected by climate impacts. Improved building standards can mitigate risks such as flooding and extreme heat, thereby safeguarding the health and well-being of these populations.
+4. **Community Engagement**: The process of developing and enforcing building codes often involves community input, ensuring that the voices of underserved populations are heard and considered. This participatory approach fosters a sense of ownership and inclusion in the decision-making process.
+5. **Long-term Cost Savings**: Energy-efficient buildings can lead to lower utility bills, which is particularly beneficial for low-income households. By promoting energy efficiency through building codes, the action helps alleviate financial burdens on vulnerable communities.
+Overall, the implementation of building codes and standards not only addresses environmental concerns but also actively promotes equity and inclusion by considering the needs and rights of underserved communities.</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -930,22 +906,19 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>['Collaboration with local governments to develop and enforce building codes', 'Access to updated research and data on energy efficiency and sustainable materials', 'Training and resources for builders and contractors on new standards', 'Public awareness and support for sustainable building practices', 'Integration with existing urban planning and development policies']</t>
+          <t>['Collaboration with local governments to develop and enforce building codes', 'Access to updated research and data on energy efficiency and sustainable building practices', 'Training and resources for builders and contractors on new standards', 'Public awareness and support for sustainable building practices', 'Funding and incentives for implementing energy-efficient technologies in buildings']</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>['Energy consumption reduction', 'Carbon emissions reduction', 'Number of buildings compliant with codes', 'Percentage of new buildings meeting sustainability standards', 'Cost savings from energy efficiency improvements', 'Increase in renewable energy usage in buildings', 'Reduction in water usage', 'Improvement in indoor air quality', 'Resilience score against climate impacts', 'Stakeholder engagement and training sessions conducted']</t>
+          <t>['Energy efficiency improvements', 'Reduction in carbon emissions', 'Number of buildings compliant with codes', 'Percentage of new buildings meeting sustainability standards', 'Reduction in energy consumption per square foot', 'Increase in use of renewable energy sources', 'Cost savings from energy efficiency measures', 'Improvement in indoor air quality', 'Resilience metrics against climate impacts', 'Stakeholder engagement and training sessions conducted']</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>['Reduction of GHG emissions by 80-100% in stationary energy sector', 'Promotion of energy-efficient construction practices', 'Improved access to safe and healthy environments for underserved communities', 'Enhanced resilience of buildings to climate change impacts', 'Lower utility costs benefiting low-income households', 'Job creation and economic opportunities in construction', 'Increased community engagement in development processes']</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+          <t>['Reduction of GHG emissions by 80-100% in stationary energy sector', 'Promotion of energy-efficient construction practices', 'Improved access to safe and healthy environments for underserved communities', 'Job creation and economic opportunities in construction', 'Enhanced resilience to climate change for vulnerable populations', 'Community engagement in decision-making processes', 'Long-term cost savings for low-income households through reduced utility bills']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -992,7 +965,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>The targeted behavioral shift that the climate action "Building Codes and Standards, Industrial Buildings" aims to achieve is the adoption of energy-efficient construction practices among builders, architects, and developers. This shift encourages stakeholders in the construction industry to prioritize environmentally responsible building designs and materials, leading to reduced carbon emissions and enhanced resilience to climate change. By enforcing stringent regulations, the intervention seeks to change perceptions about the importance of sustainability in construction, ultimately fostering a culture of energy efficiency and sustainable urban development.</t>
+          <t>The targeted behavioral shift that the climate action "Building Codes and Standards, Industrial Buildings" aims to achieve is the adoption of energy-efficient construction practices and the prioritization of sustainable building designs among architects, builders, and developers. This shift is encouraged through the enforcement of regulations that mandate environmentally responsible building standards, leading to reduced carbon emissions and enhanced resilience to climate change. Ultimately, the goal is to foster a culture of sustainability in urban development, where stakeholders actively choose to comply with and advocate for energy-efficient building practices.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1004,12 +977,12 @@
         <is>
           <t>The climate action of establishing "Building Codes and Standards, Industrial Buildings" promotes equity and inclusion in several ways:
 1. **Access to Safe and Healthy Environments**: By enforcing regulations for environmentally responsible buildings, the action ensures that all communities, including vulnerable and underserved populations, have access to safe, healthy, and energy-efficient living and working environments.
-2. **Economic Opportunities**: The implementation of stringent building codes can create job opportunities in the construction and retrofitting sectors, particularly benefiting low-income individuals and communities that may face barriers to employment.
+2. **Economic Opportunities**: The implementation of stringent building codes can create job opportunities in construction, retrofitting, and maintenance, particularly benefiting low-income individuals and communities that may face barriers to employment.
 3. **Resilience to Climate Change**: By enhancing resilience to climate change, the action helps protect underserved communities that are often disproportionately affected by climate impacts, ensuring they are better equipped to withstand environmental challenges.
-4. **Reduction of Energy Burden**: Promoting energy efficiency through building standards can lower energy costs for residents and businesses in underserved areas, alleviating the financial strain often experienced by these communities.
-5. **Community Engagement**: The formulation of building codes often involves stakeholder engagement, which can include input from vulnerable communities, ensuring their voices and needs are considered in the decision-making process.
-6. **Long-term Sustainability**: By fostering sustainable urban development, the action contributes to the overall well-being of all community members, particularly those in marginalized groups who may benefit from improved infrastructure and services. 
-Overall, this climate action integrates equity and inclusion by addressing the specific needs and challenges faced by vulnerable and underserved communities while promoting broader environmental and economic benefits.</t>
+4. **Reduction of Energy Burden**: Promoting energy efficiency through building standards can lower utility costs for residents and businesses in vulnerable communities, alleviating the financial strain associated with high energy bills.
+5. **Community Engagement**: The formulation of building codes often involves stakeholder engagement, which can include input from underserved communities, ensuring their voices and needs are considered in the development of regulations that affect their environments.
+6. **Long-term Sustainability**: By fostering sustainable urban development, the action contributes to the overall well-being of all community members, particularly those in marginalized groups who may face greater risks from environmental degradation. 
+Overall, this climate action integrates equity and inclusion by prioritizing the needs and rights of vulnerable communities in the pursuit of sustainable development.</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1030,22 +1003,19 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>['Collaboration with local governments to develop and enforce building codes', 'Access to updated research and data on energy efficiency and sustainable materials', 'Training and resources for builders and contractors on new standards', 'Public awareness and support for sustainable building practices', 'Integration with existing urban planning and development policies']</t>
+          <t>['Collaboration with local governments to develop and enforce building codes', 'Access to updated research and data on energy efficiency and sustainable materials', 'Training and resources for builders and contractors on new standards', 'Public awareness and support for sustainable building practices', 'Funding and incentives for compliance with building codes']</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>['Energy efficiency improvements', 'Reduction in carbon emissions', 'Number of buildings compliant with codes', 'Percentage of new buildings meeting sustainability standards', 'Reduction in energy consumption per square foot', 'Increase in use of renewable energy sources', 'Cost savings from energy efficiency measures', 'Improvement in indoor air quality', 'Resilience metrics against climate impacts', 'Stakeholder engagement and compliance rates']</t>
+          <t>['Energy efficiency improvements', 'Reduction in carbon emissions', 'Number of buildings compliant with codes', 'Percentage of new buildings meeting sustainability standards', 'Reduction in energy consumption per square foot', 'Increase in the use of renewable energy sources', 'Cost savings from energy-efficient designs', 'Improvement in indoor air quality', 'Resilience metrics against climate impacts', 'Stakeholder engagement and compliance rates']</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>['Reduction of GHG emissions by 80-100% in stationary energy sector', 'Promotion of energy-efficient construction practices', 'Improved access to safe and healthy environments for underserved communities', 'Creation of job opportunities in construction and retrofitting sectors', 'Enhanced resilience to climate change for vulnerable populations', 'Lower energy costs alleviating financial strain on underserved communities', 'Inclusion of community input in building code formulation']</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+          <t>['Reduction of GHG emissions by 80-100% in stationary energy sector', 'Promotion of energy-efficient construction practices', 'Creation of job opportunities in construction and retrofitting', 'Improved access to safe and healthy environments for underserved communities', 'Lower utility costs for residents in vulnerable communities', 'Enhanced resilience to climate change for marginalized groups', 'Increased stakeholder engagement in building code development']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1092,7 +1062,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Retrofit Measures" climate action aims to achieve is the increased adoption of energy-efficient practices among building owners and occupants. This includes encouraging individuals and organizations to invest in retrofitting existing buildings with sustainable technologies and practices, thereby reducing greenhouse gas emissions and enhancing overall environmental performance. The initiative seeks to shift perceptions around the benefits of energy efficiency—such as cost savings, improved comfort, and environmental responsibility—ultimately leading to a broader societal commitment to sustainability and climate change mitigation.</t>
+          <t>The targeted behavioral change that the "Retrofit Measures" climate action aims to achieve is the increased adoption of energy-efficient practices among building owners and occupants. This includes encouraging individuals and organizations to invest in retrofitting existing buildings with sustainable technologies and practices, thereby reducing greenhouse gas emissions and enhancing overall energy performance. The initiative seeks to shift perceptions around the benefits of energy efficiency—such as cost savings, improved comfort, and environmental responsibility—ultimately leading to a broader societal commitment to sustainability and climate change mitigation.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1102,7 +1072,8 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>The "Retrofit Measures" initiative promotes equity and inclusion by specifically targeting existing buildings in vulnerable or underserved communities, ensuring that these areas benefit from enhanced environmental performance. By focusing on energy efficiency upgrades, the action addresses the disproportionate energy burdens faced by low-income households, thereby reducing their utility costs and improving their living conditions. Additionally, the initiative may create job opportunities in these communities, fostering local economic development and empowering residents through workforce training in sustainable practices. Overall, the action prioritizes the needs of underserved populations, ensuring they have access to the benefits of climate resilience and sustainability.</t>
+          <t>The "Retrofit Measures" initiative promotes equity and inclusion by specifically targeting existing buildings in vulnerable or underserved communities, ensuring that these areas benefit from enhanced environmental performance. By focusing on energy efficiency upgrades, the action addresses the disproportionate energy burdens faced by low-income households, which often experience higher utility costs and poorer living conditions. 
+Additionally, the initiative may create job opportunities in these communities, particularly in the green building sector, thereby fostering economic inclusion. By prioritizing retrofitting in areas that have historically been overlooked, the action helps to reduce emissions while simultaneously improving the quality of life for residents in underserved neighborhoods. This dual focus on environmental sustainability and social equity ensures that the benefits of climate action are shared more broadly, contributing to a more inclusive approach to climate change mitigation.</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1123,7 +1094,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>['Availability of funding for retrofitting projects', 'Access to skilled labor and contractors for implementation', 'Compliance with local building codes and regulations', 'Availability of energy-efficient materials and technologies', 'Support from local government and stakeholders', 'Public awareness and acceptance of retrofitting initiatives']</t>
+          <t>['Availability of funding for retrofitting projects', 'Access to skilled labor and contractors for implementation', 'Compliance with local building codes and regulations', 'Availability of energy-efficient materials and technologies', 'Engagement and support from building owners and occupants', 'Data on current building performance and emissions', 'Collaboration with local government and stakeholders for policy support']</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1133,12 +1104,9 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from stationary energy', 'Increased energy efficiency in existing buildings', 'Cost savings for low-income households', 'Improved living conditions in underserved communities', 'Job creation and workforce training opportunities in local communities', 'Enhanced environmental performance of buildings']</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+          <t>['Reduction of greenhouse gas emissions from stationary energy use', 'Increased energy efficiency in existing buildings', 'Improved living conditions in underserved communities', 'Creation of job opportunities in the green building sector', 'Enhanced environmental performance in vulnerable areas']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1185,7 +1153,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>The targeted behavioral shift that the climate action "Retrofit Measures, Residential buildings" aims to achieve is the increased adoption of energy-efficient upgrades and sustainable practices among homeowners and residents. This includes encouraging individuals to invest in retrofitting their existing homes with energy-efficient technologies, such as improved insulation, energy-efficient windows, and renewable energy systems, thereby reducing greenhouse gas emissions and contributing to overall climate change mitigation efforts. The initiative seeks to change perceptions around the affordability, convenience, and benefits of these upgrades, ultimately leading to a broader cultural shift towards sustainable living and energy conservation in residential settings.</t>
+          <t>The targeted behavioral shift that the climate action "Retrofit Measures, Residential buildings" aims to achieve is the increased adoption of energy-efficient upgrades and sustainable practices among homeowners and residents. This includes encouraging individuals to invest in retrofitting their existing homes with energy-efficient technologies, such as improved insulation, energy-efficient windows, and renewable energy systems, thereby reducing greenhouse gas emissions and contributing to overall climate change mitigation efforts.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1195,9 +1163,9 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>The "Retrofit Measures, Residential buildings" initiative promotes equity and inclusion by specifically targeting existing residential structures, which often house vulnerable or underserved communities. By focusing on upgrading these buildings, the action directly addresses the needs of populations that may lack the resources to improve their living conditions independently. 
-Additionally, enhancing the environmental performance of these buildings contributes to reducing energy costs for residents, which can alleviate financial burdens on low-income households. The initiative also supports job creation in the local community, particularly in sectors that may employ individuals from underserved backgrounds, thereby fostering economic opportunities. 
-Furthermore, by prioritizing energy efficiency and sustainability, the action helps to improve overall living conditions in these neighborhoods, contributing to healthier environments for residents who are often disproportionately affected by climate change and pollution. Overall, the initiative embodies a commitment to uplifting marginalized communities while addressing climate change.</t>
+          <t>The "Retrofit Measures, Residential buildings" initiative promotes equity and inclusion by specifically targeting existing residential structures, which often include homes in vulnerable or underserved communities. By focusing on these areas, the action addresses the needs of populations that may lack the resources to invest in energy efficiency upgrades on their own. 
+Additionally, the initiative likely prioritizes low-income households, ensuring that those who are most affected by climate change and energy costs benefit from improved energy efficiency. This can lead to lower utility bills, enhancing economic stability for these communities. 
+Furthermore, the action may involve community engagement and participation, allowing residents to have a voice in the retrofitting process, thereby fostering a sense of ownership and inclusion. Overall, the initiative not only aims to reduce emissions but also actively seeks to uplift and empower underserved populations through sustainable building practices.</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1223,17 +1191,14 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>['Energy consumption reduction', 'Greenhouse gas emissions reduction', 'Cost savings on energy bills', 'Number of buildings retrofitted', 'Percentage increase in energy efficiency', 'Resident satisfaction with retrofitting', 'Reduction in water usage', 'Increase in renewable energy usage', 'Return on investment (ROI)', 'Compliance with building codes and standards']</t>
+          <t>['Energy consumption reduction', 'Greenhouse gas emissions reduction', 'Cost savings on energy bills', 'Number of buildings retrofitted', 'Percentage of energy-efficient upgrades', 'Improvement in indoor air quality', 'Increase in property value', 'User satisfaction and comfort levels', 'Return on investment (ROI)', 'Compliance with sustainability standards']</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>['Reduction of greenhouse gas emissions by 80-100% in stationary energy sector', 'Increased adoption of energy-efficient upgrades among homeowners', 'Improved living conditions for vulnerable communities', 'Alleviation of financial burdens on low-income households', 'Job creation in local communities', 'Cultural shift towards sustainable living and energy conservation']</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+          <t>['Reduction of greenhouse gas emissions by 80-100% in stationary energy sector', 'Increased adoption of energy-efficient upgrades among homeowners', 'Economic stability for low-income households through lower utility bills', 'Empowerment of underserved communities through community engagement', 'Targeted support for vulnerable populations in residential areas']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1280,7 +1245,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the climate action "Retrofit Measures, Commercial buildings" aims to achieve is the increased adoption of energy-efficient practices and technologies among building owners and managers. This includes a shift towards investing in retrofitting existing commercial buildings to enhance their environmental performance, thereby reducing greenhouse gas emissions. The initiative encourages stakeholders to prioritize sustainability in their operations, leading to a broader cultural shift towards energy efficiency and climate-conscious decision-making in the commercial real estate sector.</t>
+          <t>The targeted behavioral change that the climate action "Retrofit Measures, Commercial buildings" aims to achieve is the increased adoption of energy-efficient practices and technologies among building owners and managers. This includes a shift towards investing in retrofitting existing commercial buildings to enhance their environmental performance, thereby reducing greenhouse gas emissions and promoting sustainability. The initiative encourages stakeholders to prioritize energy efficiency upgrades, leading to a broader cultural shift in the commercial real estate sector towards sustainable building practices.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1290,8 +1255,8 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>The "Retrofit Measures, Commercial buildings" initiative promotes equity and inclusion by targeting existing structures that may be located in underserved communities, ensuring that these areas benefit from improved energy efficiency and reduced emissions. By focusing on retrofitting, the action addresses the specific needs of vulnerable populations who may be disproportionately affected by climate change and poor building conditions. 
-Additionally, the initiative can create job opportunities in the local workforce, particularly for individuals from marginalized communities, thereby fostering economic inclusion. The emphasis on sustainability and energy efficiency also contributes to healthier living environments, which is crucial for the well-being of underserved populations. Overall, this climate action integrates equity and inclusion by prioritizing the needs of vulnerable communities and enhancing their resilience to climate impacts.</t>
+          <t>The "Retrofit Measures, Commercial buildings" initiative promotes equity and inclusion by specifically targeting existing structures that may be located in underserved communities, ensuring that these areas benefit from improved energy efficiency and reduced emissions. By focusing on retrofitting, the action addresses the needs of vulnerable populations who may be disproportionately affected by climate change and poor building conditions. 
+Additionally, the initiative can create job opportunities in the local workforce, particularly for individuals from marginalized backgrounds, thereby fostering economic inclusion. The emphasis on sustainability and energy efficiency also contributes to healthier living and working environments, which is crucial for the well-being of underserved communities. Overall, this climate action recognizes and addresses the unique challenges faced by vulnerable populations, ensuring they are included in the transition to a more sustainable future.</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1312,7 +1277,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>['Availability of funding for retrofitting projects', 'Access to skilled labor and contractors for implementation', 'Compliance with local building codes and regulations', 'Availability of energy-efficient technologies and materials', 'Engagement and cooperation from building owners and tenants', 'Support from local government and policy frameworks', 'Monitoring and evaluation mechanisms to assess performance improvements']</t>
+          <t>['Availability of funding for retrofitting projects', 'Access to skilled labor and contractors for implementation', 'Compliance with local building codes and regulations', 'Availability of energy-efficient technologies and materials', 'Support from building owners and tenants for upgrades', 'Data on current building performance and emissions', 'Collaboration with local government and stakeholders for planning and execution']</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1322,12 +1287,9 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>['Significant reduction in greenhouse gas emissions (80-100%) from commercial buildings', 'Increased adoption of energy-efficient practices among building owners and managers', 'Job creation opportunities for marginalized communities', 'Improved resilience of underserved communities to climate impacts', 'Cultural shift towards sustainability in the commercial real estate sector']</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
+          <t>['Significant reduction in greenhouse gas emissions (80-100%) from commercial buildings', 'Increased adoption of energy-efficient practices among building owners and managers', 'Job creation opportunities for marginalized communities', 'Improved energy efficiency in underserved areas', 'Promotion of sustainability and healthier living environments']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1374,7 +1336,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>The targeted behavioral change encouraged by the "New Building Standards" climate action is for builders, developers, and property owners to adopt energy-efficient construction practices. This shift aims to ensure that new buildings are designed and constructed with sustainability in mind, leading to a reduction in carbon emissions associated with the building sector. By mandating adherence to these standards, the intervention seeks to influence stakeholders to prioritize environmentally responsible practices in their construction activities, ultimately contributing to sustainable urban development and a decrease in greenhouse gas emissions.</t>
+          <t>The targeted behavioral change aimed by the "New Building Standards" climate action is to encourage builders, developers, and property owners to adopt energy-efficient construction practices. This shift is intended to promote the construction of environmentally responsible buildings that minimize carbon emissions, thereby fostering a culture of sustainability in urban development. By mandating adherence to these standards through regulations and laws, the intervention seeks to alter perceptions about the importance of energy efficiency in construction, ultimately leading to a broader acceptance and implementation of sustainable building practices.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1384,7 +1346,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>The "New Building Standards" promote equity and inclusion by ensuring that all new constructions, including those in vulnerable or underserved communities, adhere to energy-efficient practices. This helps to reduce energy costs for residents, making housing more affordable and accessible. Additionally, by prioritizing sustainable urban development, these standards can lead to improved living conditions and public health outcomes in marginalized areas. The guidelines also create opportunities for local employment in green construction practices, benefiting community members and fostering economic inclusion. Overall, the action addresses the needs of underserved populations by promoting environmentally responsible practices that enhance their quality of life.</t>
+          <t>The "New Building Standards" promote equity and inclusion by ensuring that all new constructions, including those in vulnerable or underserved communities, adhere to energy-efficient practices. This helps to reduce energy costs for residents, making housing more affordable and accessible. Additionally, by prioritizing sustainable urban development, these standards can lead to improved living conditions and health outcomes in these communities, which often face disproportionate environmental burdens. Furthermore, the implementation of these standards can create job opportunities in green construction, benefiting local workers and fostering economic empowerment in underserved areas. Overall, the action considers the needs of vulnerable populations by promoting sustainable practices that enhance their quality of life and economic stability.</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1405,7 +1367,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>['Regulatory framework to enforce building standards', 'Availability of sustainable construction materials', 'Training and education for builders and architects on energy-efficient practices', 'Public awareness and support for sustainable urban development', 'Collaboration between government, industry, and community stakeholders']</t>
+          <t>['Regulatory framework to enforce building standards', 'Availability of sustainable construction materials', 'Training and education for builders and architects on energy-efficient practices', 'Monitoring and evaluation systems to assess compliance with standards', 'Public awareness and support for sustainable building practices']</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1415,12 +1377,9 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from the building sector', 'Improvement in air quality due to decreased emissions', 'Enhanced affordability of housing through reduced energy costs', 'Creation of local employment opportunities in green construction', 'Promotion of sustainable urban development in underserved communities']</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+          <t>['Reduction in carbon emissions from new buildings', 'Improvement in air quality', 'Enhanced energy efficiency in construction', 'Promotion of sustainable urban development', 'Increased affordability of housing for residents', 'Creation of job opportunities in green construction', 'Support for vulnerable communities through equitable practices']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1467,7 +1426,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>The targeted behavioral change encouraged by the "New Building Standards, Residential buildings" climate action is to promote the adoption of energy-efficient construction practices among builders, developers, and homeowners. This intervention aims to shift perceptions regarding the importance of sustainable building practices, leading to increased compliance with energy-efficient guidelines and a reduction in carbon emissions associated with new residential buildings. Ultimately, the goal is to foster a culture of sustainability in urban development, where environmentally responsible construction becomes the norm rather than the exception.</t>
+          <t>The targeted behavioral change encouraged by the "New Building Standards, Residential buildings" climate action is to promote the adoption of energy-efficient construction practices among builders, developers, and homeowners. This intervention aims to shift perceptions regarding the importance of sustainable building methods, leading to increased compliance with energy-efficient guidelines and a reduction in carbon emissions associated with new residential buildings. Ultimately, the goal is to foster a culture of environmentally responsible construction that prioritizes sustainability in urban development.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1479,11 +1438,11 @@
         <is>
           <t>The "New Building Standards, Residential buildings" action promotes equity and inclusion in several ways:
 1. **Access to Sustainable Housing**: By establishing guidelines for energy-efficient practices, the action ensures that all new residential buildings, including those in underserved communities, are constructed to be environmentally responsible. This can lead to more affordable utility costs for residents, benefiting low-income households.
-2. **Healthier Living Environments**: The focus on energy efficiency and sustainable construction can improve indoor air quality and reduce health risks associated with poor building conditions, which disproportionately affect vulnerable populations.
-3. **Community Resilience**: By promoting sustainable urban development, the action helps build resilient communities that can better withstand climate impacts, thereby supporting the needs of underserved populations who may be more vulnerable to climate-related challenges.
-4. **Job Creation in Underserved Areas**: Implementing new building standards may create job opportunities in construction and related fields, particularly in low-income neighborhoods, fostering economic inclusion and stability.
-5. **Equitable Access to Resources**: The standards can encourage the use of local materials and labor, which can help stimulate local economies and ensure that the benefits of sustainable development are shared within the community.
-Overall, the action integrates equity and inclusion by ensuring that all communities, particularly those that are vulnerable or underserved, have access to sustainable and healthy living conditions.</t>
+2. **Healthier Living Environments**: The focus on sustainable urban development contributes to healthier living conditions, which is particularly important for vulnerable populations who may be disproportionately affected by poor housing quality and environmental hazards.
+3. **Job Creation in Underserved Areas**: Implementing new building standards can create job opportunities in construction and related fields, particularly in communities that may lack economic resources. This can help uplift local economies and provide employment for residents.
+4. **Community Resilience**: By promoting energy efficiency and sustainable practices, the action enhances the resilience of communities to climate impacts, which is crucial for vulnerable populations that may be more susceptible to climate-related challenges.
+5. **Inclusive Policy Development**: The establishment of building standards often involves stakeholder engagement, which can include input from community members, particularly those from underserved backgrounds, ensuring that their needs and perspectives are considered in the development process. 
+Overall, the action integrates equity and inclusion by ensuring that all communities, especially those that are vulnerable or underserved, benefit from sustainable building practices and improved living conditions.</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1509,17 +1468,14 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>['Energy consumption reduction', 'Carbon emissions reduction', 'Percentage of buildings meeting standards', 'Cost savings from energy efficiency', 'Water usage reduction', 'Sustainable materials usage', 'Occupant satisfaction', 'Compliance rate with building codes', 'Renewable energy integration', 'Reduction in urban heat island effect']</t>
+          <t>['Energy consumption reduction', 'Carbon emissions reduction', 'Percentage of buildings meeting standards', 'Cost savings from energy efficiency', 'Water usage reduction', 'Sustainable materials usage', 'Occupant satisfaction', 'Compliance rate with building standards']</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>['Reduction in carbon emissions from residential buildings', 'Improvement in indoor air quality', 'Increased access to sustainable housing for low-income households', 'Job creation in construction within underserved areas', 'Promotion of community resilience against climate impacts']</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+          <t>['Reduction in carbon emissions from residential buildings', 'Promotion of energy-efficient construction practices', 'Improved air quality', 'Access to sustainable housing for underserved communities', 'Creation of job opportunities in construction', 'Enhanced community resilience to climate impacts', 'Healthier living environments for vulnerable populations', 'Inclusive policy development involving community input']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1566,7 +1522,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>The targeted behavioral change encouraged by the "New Building Standards, Commercial buildings" climate action is to promote the adoption of energy-efficient construction practices among builders, architects, and developers. This intervention aims to shift the behavior of these stakeholders towards prioritizing sustainable design and construction methods, thereby reducing carbon emissions associated with new commercial buildings. By adhering to the new regulations, the goal is to foster a culture of environmental responsibility in the construction industry, leading to a broader acceptance and implementation of sustainable urban development practices.</t>
+          <t>The targeted behavioral change that the "New Building Standards, Commercial buildings" climate action aims to achieve is the adoption of energy-efficient construction practices among builders, architects, and developers. This intervention seeks to shift the behavior of these stakeholders towards prioritizing sustainable design and construction methods, thereby reducing carbon emissions associated with new commercial buildings. By mandating adherence to environmentally responsible guidelines, the action encourages a broader cultural shift within the construction industry towards sustainability, ultimately leading to a significant reduction in greenhouse gas emissions in urban development.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1578,10 +1534,10 @@
         <is>
           <t>The "New Building Standards, Commercial buildings" action promotes equity and inclusion in several ways:
 1. **Access to Sustainable Infrastructure**: By establishing guidelines for energy-efficient practices, the action ensures that all new commercial buildings, including those in underserved communities, are constructed with sustainable features. This can lead to improved access to clean energy and reduced utility costs for local businesses and residents.
-2. **Job Creation and Economic Opportunities**: The implementation of these standards can create job opportunities in construction and related industries, particularly benefiting individuals from vulnerable communities who may face barriers to employment. This can help stimulate local economies and provide pathways to stable employment.
-3. **Health Benefits**: By promoting environmentally responsible construction, the action contributes to improved air quality and reduced pollution, which disproportionately affects underserved communities. This can lead to better health outcomes for residents in these areas.
-4. **Community Resilience**: Sustainable urban development through these building standards can enhance the resilience of vulnerable communities to climate impacts, ensuring that they are better equipped to handle environmental challenges.
-5. **Equitable Access to Resources**: The standards can encourage the inclusion of community input in the planning and development process, ensuring that the needs and voices of underserved populations are considered in the construction of new commercial buildings. 
+2. **Job Creation and Economic Opportunities**: The implementation of new building standards can create job opportunities in construction and related industries, particularly benefiting individuals from vulnerable communities who may face barriers to employment. This can help stimulate local economies and provide pathways to stable employment.
+3. **Health Benefits**: Environmentally responsible construction often includes improved indoor air quality and reduced exposure to harmful pollutants. This is particularly beneficial for underserved communities that may already face health disparities, thereby promoting overall community well-being.
+4. **Community Resilience**: By promoting sustainable urban development, the action helps build resilience in vulnerable communities against climate impacts. This includes better infrastructure that can withstand extreme weather events, thereby protecting these communities from disproportionate harm.
+5. **Equitable Access to Resources**: The standards can encourage the inclusion of community input in the planning and development process, ensuring that the needs and voices of underserved populations are considered in the construction of new commercial buildings.
 Overall, the action integrates equity and inclusion by ensuring that the benefits of sustainable building practices are accessible to all communities, particularly those that are often marginalized.</t>
         </is>
       </c>
@@ -1603,22 +1559,19 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>['Regulatory framework to enforce building standards', 'Availability of sustainable building materials', 'Training and certification programs for builders and architects', 'Access to energy-efficient technologies', 'Public awareness and support for sustainable practices', 'Collaboration between government, industry, and community stakeholders']</t>
+          <t>['Regulatory framework to enforce building standards', 'Availability of sustainable construction materials', 'Training and certification programs for builders and architects', 'Incentives for adopting energy-efficient technologies', 'Public awareness and support for sustainable practices']</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>['Energy consumption reduction', 'Carbon emissions reduction', 'Percentage of buildings meeting standards', 'Cost savings from energy efficiency', 'Water usage reduction', 'Sustainable materials usage', 'Building occupancy rates', 'Compliance rate with new standards']</t>
+          <t>['Energy consumption reduction', 'Carbon emissions reduction', 'Percentage of buildings meeting standards', 'Cost savings from energy efficiency', 'Water usage reduction', 'Sustainable materials usage', 'Building occupancy rates', 'Compliance rate with new standards', 'Reduction in urban heat island effect', 'Improvement in indoor air quality']</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>['Reduction in carbon emissions from new commercial buildings', 'Improvement in air quality due to energy-efficient practices', 'Creation of job opportunities in construction for underserved communities', 'Enhanced resilience of vulnerable communities to climate impacts', 'Access to sustainable infrastructure for local businesses and residents', 'Inclusion of community input in building planning and development']</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from commercial buildings', 'Improvement in air quality due to energy-efficient practices', 'Creation of job opportunities in construction for underserved communities', 'Enhanced access to sustainable infrastructure in marginalized areas', 'Improved indoor air quality leading to better health outcomes', 'Increased community resilience against climate impacts', 'Inclusion of community input in building standards']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1665,7 +1618,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>The targeted behavioral change aimed at by the "New Building Standards, Institutional buildings" climate action is to encourage architects, builders, and institutional decision-makers to prioritize energy-efficient construction practices. This shift involves adopting sustainable building methods and materials that reduce carbon emissions, ultimately leading to a broader acceptance and implementation of environmentally responsible construction standards in urban development. By mandating these practices through regulations and laws, the intervention seeks to foster a culture of sustainability within the construction industry and among stakeholders involved in building design and development.</t>
+          <t>The targeted behavioral change aimed at by the "New Building Standards, Institutional buildings" climate action is to encourage architects, builders, and developers to adopt energy-efficient construction practices. This shift is intended to lead to a broader acceptance and implementation of sustainable building methods, ultimately resulting in a significant reduction in carbon emissions associated with new institutional buildings. By mandating environmentally responsible construction through regulations and laws, the action seeks to foster a culture of sustainability within the construction industry and among stakeholders, promoting long-term commitment to energy efficiency and sustainable urban development.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1676,11 +1629,12 @@
       <c r="M13" t="inlineStr">
         <is>
           <t>The "New Building Standards, Institutional buildings" action promotes equity and inclusion in several ways:
-1. **Access to Sustainable Infrastructure**: By establishing guidelines for environmentally responsible construction, the action ensures that all communities, including vulnerable and underserved populations, benefit from energy-efficient buildings that can lower utility costs and improve living conditions.
-2. **Health and Safety Improvements**: The focus on energy-efficient practices contributes to better indoor air quality and overall health outcomes, particularly for low-income communities that may be disproportionately affected by poor building conditions.
-3. **Job Creation and Economic Opportunities**: Implementing new building standards can create job opportunities in construction and related fields, providing economic benefits to underserved communities and promoting workforce development.
-4. **Community Resilience**: Sustainable urban development through these standards can enhance the resilience of vulnerable communities to climate impacts, ensuring they are better equipped to handle environmental challenges.
-5. **Equitable Resource Allocation**: By prioritizing institutional buildings, the action can ensure that public facilities in underserved areas are built to high standards, providing equitable access to essential services and resources for all community members.</t>
+1. **Access to Healthy Environments**: By ensuring that new institutional buildings are constructed with energy-efficient practices, the action contributes to healthier living and working environments for all community members, particularly benefiting vulnerable populations who may be more susceptible to environmental hazards.
+2. **Job Creation and Economic Opportunities**: The implementation of these building standards can create job opportunities in construction and related fields, particularly for underserved communities. This can help to uplift local economies and provide pathways to stable employment.
+3. **Community Engagement**: The development of new building standards often involves community input, ensuring that the voices of underserved populations are heard and considered in the decision-making process, fostering a sense of ownership and inclusion.
+4. **Long-term Cost Savings**: Energy-efficient buildings can lead to lower utility costs, which is particularly beneficial for low-income families and communities. This financial relief can help reduce economic disparities and improve overall quality of life.
+5. **Resilience to Climate Impacts**: By promoting sustainable urban development, the action helps build resilience in communities that are often the most affected by climate change, ensuring that vulnerable populations are better equipped to handle environmental challenges.
+Overall, the action integrates equity and inclusion by addressing the needs of underserved communities, promoting economic opportunities, and fostering healthier environments.</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1701,22 +1655,19 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>['Regulatory framework to enforce building standards', 'Availability of sustainable construction materials', 'Training and education for builders and architects on energy-efficient practices', 'Monitoring and evaluation systems to assess compliance with standards', 'Public awareness and support for sustainable building practices']</t>
+          <t>['Compliance from construction companies with the new standards', 'Support from government agencies for enforcement and monitoring', 'Availability of training programs for builders and architects on energy-efficient practices', 'Public awareness and acceptance of sustainable building practices', 'Access to funding or incentives for implementing energy-efficient technologies']</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>['Energy consumption reduction', 'Carbon emissions reduction', 'Percentage of buildings meeting new standards', 'Cost savings from energy efficiency', 'Sustainable materials usage', 'Water usage reduction', 'Occupant satisfaction and health metrics', 'Compliance rate with building codes', 'Renewable energy integration', 'Lifecycle assessment of building materials']</t>
+          <t>['Energy consumption reduction', 'Carbon emissions reduction', 'Percentage of buildings meeting new standards', 'Cost savings from energy efficiency', 'Water usage reduction', 'Sustainable materials usage', 'Building occupancy rates', 'Compliance rate with building codes', 'Reduction in urban heat island effect', 'Feedback from building occupants on comfort and sustainability']</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>['Reduction in carbon emissions from energy-efficient buildings', 'Improved indoor air quality leading to better health outcomes', 'Job creation in construction and related fields', 'Enhanced resilience of communities to climate impacts', 'Equitable access to sustainable infrastructure for underserved populations']</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+          <t>['Reduction in carbon emissions from new institutional buildings', 'Improvement in air quality due to energy-efficient practices', 'Creation of job opportunities in construction for underserved communities', 'Enhanced access to healthy environments for vulnerable populations', 'Long-term cost savings on utility bills for low-income families', 'Increased community engagement in building standards development', 'Improved resilience of communities to climate impacts']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1763,7 +1714,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>The targeted behavioral change aimed at by the "New Building Standards, Industrial" climate action is to encourage construction companies, architects, and developers to adopt energy-efficient practices in the design and construction of new buildings. This shift involves prioritizing sustainable materials and technologies that reduce carbon emissions, ultimately leading to a broader acceptance and implementation of environmentally responsible construction methods within the industry.</t>
+          <t>The targeted behavioral change encouraged by the "New Building Standards, Industrial" climate action is the adoption of energy-efficient construction practices among builders, architects, and developers. This intervention aims to shift the behavior of these stakeholders towards prioritizing sustainable design and construction methods that reduce carbon emissions, thereby fostering a culture of environmentally responsible building within the industry. As a result, this could lead to a broader activity shift towards sustainable urban development and a significant reduction in greenhouse gas emissions associated with new construction projects.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1773,7 +1724,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>The "New Building Standards, Industrial" action promotes equity and inclusion by ensuring that all new structures, including those in vulnerable or underserved communities, adhere to energy-efficient practices. This helps to reduce energy costs for residents and businesses in these areas, which often face higher energy burdens. By prioritizing sustainable urban development, the action contributes to healthier living environments, addressing disparities in air quality and access to green spaces that disproportionately affect underserved populations. Additionally, the implementation of these standards can create job opportunities in the construction and green technology sectors, benefiting local communities and fostering economic inclusion. Overall, the action supports equitable access to the benefits of sustainable development, ensuring that vulnerable communities are not left behind in the transition to a greener economy.</t>
+          <t>The "New Building Standards, Industrial" action promotes equity and inclusion by ensuring that all new structures, including those in vulnerable or underserved communities, adhere to energy-efficient practices. This helps to reduce energy costs for residents and businesses in these areas, making sustainable living more accessible. Additionally, by prioritizing environmentally responsible construction, the action supports healthier living conditions, which can disproportionately benefit underserved populations who may face higher exposure to environmental hazards. Furthermore, the implementation of these standards can create job opportunities in green construction, providing economic benefits to local communities that may have been historically marginalized. Overall, the action fosters a more equitable urban development landscape by integrating sustainability into the fabric of all new buildings, thereby uplifting vulnerable communities.</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1794,22 +1745,19 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>['Regulatory framework to enforce building standards', 'Availability of sustainable construction materials', 'Training and certification programs for builders and architects', 'Monitoring and compliance mechanisms for adherence to standards', 'Public awareness and support for sustainable building practices']</t>
+          <t>['Regulatory framework to enforce building standards', 'Availability of sustainable construction materials', 'Training and certification programs for builders and architects', 'Monitoring and compliance mechanisms to ensure adherence to standards', 'Public awareness and support for sustainable building practices']</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>['Reduction in carbon emissions (tons/year)', 'Percentage of new buildings meeting energy efficiency standards', 'Energy consumption per square foot of new buildings', 'Percentage of sustainable materials used in construction', 'Number of buildings certified under green building standards', 'Reduction in energy costs for occupants', 'Increase in renewable energy usage in new buildings', 'Compliance rate with new building standards']</t>
+          <t>['Reduction in carbon emissions (tons/year)', 'Percentage of new buildings meeting energy efficiency standards', 'Energy consumption per square foot of new buildings', 'Percentage of sustainable materials used in construction', 'Number of new buildings certified under green building standards', 'Reduction in energy costs for new buildings', 'Increase in renewable energy usage in new constructions', 'Compliance rate with building standards']</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>['Reduction in carbon emissions from new buildings', 'Improvement in air quality', 'Promotion of energy-efficient construction practices', 'Creation of job opportunities in green sectors', 'Support for equitable access to sustainable development benefits']</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from new construction', 'Improvement in air quality', 'Promotion of energy-efficient practices in the construction industry', 'Creation of job opportunities in green construction', 'Enhanced equity and inclusion in urban development', 'Potential increase in energy cost savings for residents in underserved communities']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1856,7 +1804,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Existing Building Standards" climate action aims to achieve is an increase in the adoption of energy-efficient practices among building owners and occupants. This includes encouraging individuals and organizations to invest in energy-efficient upgrades, such as insulation, energy-efficient appliances, and renewable energy sources, as well as adhering to new regulations that mandate improved environmental performance in existing structures. By fostering a perception of energy efficiency as a standard and beneficial practice, the intervention seeks to shift behaviors towards more sustainable building management and usage, ultimately leading to reduced greenhouse gas emissions and enhanced sustainability within the city.</t>
+          <t>The targeted behavioral change that the "Existing Building Standards" climate action aims to achieve is an increase in the adoption of energy-efficient practices among building owners and occupants. This includes encouraging individuals and organizations to invest in energy-efficient upgrades, such as insulation, energy-efficient appliances, and renewable energy sources, as well as adhering to new regulations that mandate improved environmental performance in existing structures. By fostering a perception that energy efficiency is both beneficial and necessary, the intervention seeks to shift behaviors towards more sustainable building management and usage, ultimately leading to reduced greenhouse gas emissions and enhanced sustainability within the city.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1867,13 +1815,13 @@
       <c r="M15" t="inlineStr">
         <is>
           <t>The "Existing Building Standards" climate action promotes equity and inclusion by focusing on the following aspects:
-1. **Targeting Vulnerable Communities**: By improving the environmental performance of existing buildings, the action can prioritize upgrades in underserved neighborhoods, where residents may be more affected by poor building conditions and higher energy costs.
-2. **Reducing Energy Burden**: Enhancing energy efficiency in buildings helps lower utility bills, which disproportionately benefits low-income households that spend a larger percentage of their income on energy expenses.
-3. **Health Benefits**: Improved building standards can lead to better indoor air quality and overall living conditions, directly benefiting vulnerable populations who may be more susceptible to health issues related to poor housing.
-4. **Job Creation**: The implementation of these standards can create job opportunities in the local community, particularly for individuals from underserved backgrounds, thereby promoting economic equity.
-5. **Community Engagement**: The process of developing and enforcing building standards can involve input from local communities, ensuring that the needs and voices of marginalized groups are considered in decision-making.
-6. **Access to Resources**: The action may include provisions for financial assistance or incentives for low-income homeowners and renters to participate in energy efficiency upgrades, ensuring equitable access to the benefits of the program. 
-Overall, the "Existing Building Standards" initiative inherently considers equity and inclusion by addressing the specific needs of vulnerable communities and promoting sustainable practices that benefit all residents.</t>
+1. **Targeting Vulnerable Communities**: By improving the environmental performance of existing buildings, the action addresses the needs of underserved communities that often reside in older, less efficient structures. These communities typically face higher energy costs and poorer living conditions.
+2. **Energy Efficiency Benefits**: Enhancing energy efficiency in buildings can lead to lower utility bills, which directly benefits low-income households. This financial relief helps to alleviate economic burdens on vulnerable populations.
+3. **Health Improvements**: Upgrading building standards can lead to better indoor air quality and overall living conditions, which is particularly beneficial for marginalized groups who may be more susceptible to health issues related to poor housing conditions.
+4. **Job Creation and Training**: Implementing these standards can create job opportunities in the local community, particularly for individuals from underserved backgrounds. This can include training programs that equip residents with skills needed for green jobs.
+5. **Community Engagement**: The development and implementation of building standards often involve community input, ensuring that the voices of those in vulnerable communities are heard and considered in decision-making processes.
+6. **Resilience to Climate Impacts**: By improving the sustainability of existing buildings, the action helps vulnerable communities become more resilient to climate change impacts, such as extreme weather events, thereby promoting long-term equity.
+Overall, the "Existing Building Standards" initiative inherently considers equity and inclusion by addressing the specific needs and challenges faced by underserved communities, ultimately fostering a more sustainable and equitable urban environment.</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1894,7 +1842,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>['Availability of funding for retrofitting and upgrades', 'Access to skilled labor and contractors for implementation', 'Compliance with local building codes and regulations', 'Availability of technology and materials for energy efficiency improvements', 'Engagement and support from building owners and occupants', 'Data on current building performance and energy usage', 'Collaboration with local government and stakeholders for policy support']</t>
+          <t>['Availability of funding for retrofitting and upgrades', 'Access to skilled labor and contractors for implementation', 'Compliance with local building codes and regulations', 'Availability of technology and materials for energy efficiency improvements', 'Support from local government and stakeholders for policy changes', 'Public awareness and acceptance of building standards and sustainability practices']</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1904,12 +1852,9 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>['Increased energy efficiency in existing buildings', 'Reduction in greenhouse gas emissions', 'Improved indoor air quality', 'Lower energy costs for low-income households', 'Job creation in local communities', 'Enhanced sustainability within the city', 'Prioritization of upgrades in underserved neighborhoods']</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+          <t>['Improved energy efficiency in existing buildings', 'Reduction in greenhouse gas emissions', 'Enhanced indoor air quality', 'Lower utility bills for low-income households', 'Job creation and training opportunities', 'Increased resilience of vulnerable communities to climate impacts', 'Community engagement in decision-making processes']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1956,7 +1901,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the climate action "Existing Building Standards, Residential buildings" aims to achieve is the increased adoption of energy-efficient practices among homeowners and property managers. This includes behaviors such as retrofitting existing buildings with energy-efficient appliances, improving insulation, and utilizing sustainable materials in renovations. By implementing regulations and laws alongside programs and initiatives, the intervention seeks to shift perceptions about the importance and feasibility of enhancing building sustainability, ultimately leading to a significant reduction in greenhouse gas emissions associated with residential energy use.</t>
+          <t>The targeted behavioral change that the climate action "Existing Building Standards, Residential buildings" aims to achieve is the increased adoption of energy-efficient practices among homeowners and property managers. This includes behaviors such as retrofitting existing buildings with energy-efficient appliances, improving insulation, and utilizing sustainable materials in renovations. By implementing regulations and laws alongside programs and initiatives, the intervention seeks to shift perceptions about the importance and feasibility of energy efficiency, ultimately leading to a significant reduction in greenhouse gas emissions from residential buildings.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1967,13 +1912,13 @@
       <c r="M16" t="inlineStr">
         <is>
           <t>The "Existing Building Standards, Residential buildings" climate action promotes equity and inclusion in several ways:
-1. **Targeting Vulnerable Communities**: By focusing on improving the environmental performance of existing residential buildings, the action addresses the needs of low-income households that often reside in older, less efficient structures. These communities typically face higher energy costs and may lack the resources to make necessary upgrades.
-2. **Reducing Energy Burden**: Enhancing energy efficiency in residential buildings helps to lower utility bills for underserved populations, thereby alleviating the financial strain on these households and promoting economic equity.
-3. **Health Benefits**: Improved building standards can lead to better indoor air quality and overall living conditions, which disproportionately benefits vulnerable communities that may be more susceptible to health issues related to poor housing conditions.
-4. **Community Engagement**: The implementation of these standards can involve local stakeholders, ensuring that the voices of underserved communities are heard and considered in the decision-making process, fostering a sense of ownership and inclusion.
-5. **Job Creation**: Upgrading existing buildings can create job opportunities in local communities, particularly for those who may face barriers to employment, thus promoting economic inclusion.
-6. **Access to Resources**: The action may include provisions for financial assistance or incentives for low-income homeowners and renters, ensuring that these communities can access the benefits of improved building standards without facing prohibitive costs. 
-Overall, the climate action is designed to uplift vulnerable and underserved communities by addressing their specific needs and challenges in the context of building sustainability.</t>
+1. **Targeting Vulnerable Communities**: By focusing on improving the environmental performance of existing residential buildings, the action addresses the needs of low-income and underserved communities that often reside in older, less efficient housing. These populations typically face higher energy costs and may lack the resources to make improvements on their own.
+2. **Energy Efficiency Benefits**: Enhancing energy efficiency in residential buildings can lead to lower utility bills, which directly benefits low-income households. This financial relief can help alleviate economic burdens and improve overall quality of life.
+3. **Health Improvements**: Upgrading building standards can lead to better indoor air quality and reduced exposure to environmental hazards, which disproportionately affect vulnerable populations. This contributes to improved health outcomes for these communities.
+4. **Job Creation and Economic Opportunities**: Implementing building standards often involves retrofitting and renovation work, which can create job opportunities in local communities, particularly for those who may face barriers to employment. This can help stimulate local economies and provide pathways for economic advancement.
+5. **Community Engagement**: The development and implementation of building standards can involve community input, ensuring that the voices of underserved populations are heard and considered in decision-making processes. This fosters a sense of ownership and inclusion in climate action efforts.
+6. **Long-term Sustainability**: By improving the sustainability of residential buildings, the action contributes to the resilience of communities that are often the most vulnerable to climate impacts, ensuring that they are better equipped to withstand environmental changes.
+Overall, the action integrates equity and inclusion by addressing the specific needs of underserved communities, promoting health and economic benefits, and ensuring community participation in the process.</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1999,17 +1944,14 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>['Energy consumption reduction', 'Greenhouse gas emissions reduction', 'Percentage of buildings meeting energy efficiency standards', 'Cost savings from energy efficiency improvements', 'Increase in renewable energy usage', 'Occupant satisfaction and comfort levels', 'Retrofit completion rate', 'Reduction in water usage', 'Improvement in indoor air quality', 'Percentage of buildings with sustainable materials']</t>
+          <t>['Energy consumption reduction', 'Greenhouse gas emissions reduction', 'Percentage of buildings meeting new standards', 'Cost savings from energy efficiency improvements', 'Increase in renewable energy usage', 'Occupant satisfaction and comfort levels', 'Reduction in water usage', 'Improvement in indoor air quality', 'Rate of retrofitted buildings', 'Time taken for compliance with standards']</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from residential buildings', 'Improved indoor air quality benefiting vulnerable communities', 'Lower energy costs for low-income households', 'Job creation in local communities', 'Enhanced community engagement and inclusion in decision-making']</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from residential buildings by 20-39%', 'Improved indoor air quality leading to better health outcomes for vulnerable communities', 'Lower utility bills for low-income households, alleviating economic burdens', 'Job creation and economic opportunities through retrofitting and renovation work', 'Enhanced community engagement and participation in climate action efforts', 'Increased adoption of energy-efficient practices among homeowners and property managers']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2056,7 +1998,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the climate action "Existing Building Standards, Commercial buildings" aims to achieve is the increased adoption of energy-efficient practices and technologies among building owners and managers. This includes compliance with new regulations and laws that mandate improved environmental performance, as well as participation in programs and initiatives that promote sustainability. The goal is to shift behaviors towards prioritizing energy efficiency, reducing greenhouse gas emissions, and enhancing overall sustainability in commercial buildings, ultimately leading to a broader activity shift towards greener building practices within the city.</t>
+          <t>The targeted behavioral change aimed at by the "Existing Building Standards, Commercial buildings" climate action is to encourage building owners and managers to adopt energy-efficient practices and technologies in their existing structures. This includes compliance with new regulations and laws that mandate improvements in energy performance, as well as participation in programs and initiatives that promote sustainability. The ultimate goal is to shift behaviors towards prioritizing energy efficiency, reducing greenhouse gas emissions, and enhancing the overall sustainability of commercial buildings within the city.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2070,9 +2012,9 @@
 1. **Access to Resources**: By improving the environmental performance of existing commercial buildings, the action can help ensure that underserved communities have access to more energy-efficient spaces, which can lower utility costs and improve overall living conditions.
 2. **Job Creation**: The interventions required to upgrade buildings often create job opportunities, particularly in construction and retrofitting, which can benefit local workers from vulnerable communities, providing them with stable employment and skill development.
 3. **Health Benefits**: Enhancing the sustainability of commercial buildings can lead to improved air quality and reduced health risks for residents in nearby underserved areas, addressing environmental justice concerns.
-4. **Community Engagement**: The implementation of these standards may involve engaging local communities in the planning and execution phases, ensuring that the voices of those from vulnerable populations are heard and considered in decision-making processes.
-5. **Long-term Resilience**: By focusing on energy efficiency and sustainability, the action helps build resilience in underserved communities against climate impacts, ensuring they are better equipped to handle environmental changes and economic shifts.
-Overall, the action integrates equity and inclusion by addressing the needs of vulnerable communities, creating opportunities, and fostering a healthier environment.</t>
+4. **Community Engagement**: The implementation of these standards may involve collaboration with local stakeholders, ensuring that the voices of vulnerable communities are heard and considered in the decision-making process.
+5. **Long-term Resilience**: By focusing on energy efficiency and sustainability, the action helps build resilience in underserved communities against climate impacts, ensuring they are better equipped to handle environmental changes.
+Overall, the action integrates equity and inclusion by addressing the needs of vulnerable populations, creating economic opportunities, and fostering healthier living environments.</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2098,17 +2040,14 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>['Energy consumption reduction', 'Greenhouse gas emissions reduction', 'Percentage of buildings meeting energy efficiency standards', 'Cost savings from energy efficiency improvements', 'Increase in renewable energy usage', 'Occupant satisfaction and comfort levels', 'Retrofit completion rate', 'Water usage reduction', 'Building energy performance ratings', 'Compliance rate with existing building standards']</t>
+          <t>['Energy consumption reduction', 'Greenhouse gas emissions reduction', 'Percentage of buildings meeting energy efficiency standards', 'Cost savings from energy efficiency improvements', 'Increase in renewable energy usage', 'Occupant satisfaction and comfort levels', 'Retrofit completion rate', 'Water usage reduction', 'Building certification levels (e.g., LEED, BREEAM)', 'Reduction in operational costs']</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>['Increased energy efficiency in commercial buildings', 'Reduction in greenhouse gas emissions by 20-39%', 'Improved air quality in surrounding areas', 'Job creation in construction and retrofitting sectors', 'Enhanced access to energy-efficient spaces for underserved communities', 'Long-term resilience for vulnerable populations against climate impacts']</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+          <t>['Improved energy efficiency in commercial buildings', 'Reduction in greenhouse gas emissions by 20-39%', 'Enhanced air quality in surrounding areas', 'Job creation in construction and retrofitting sectors', 'Increased access to energy-efficient spaces for underserved communities', 'Promotion of equity and inclusion through community engagement', 'Long-term resilience against climate impacts for vulnerable populations']</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2155,7 +2094,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the climate action "Existing Building Standards, Institutional buildings" aims to achieve is the increased adoption of energy-efficient practices and technologies in the management and operation of existing institutional buildings. This includes encouraging building owners and managers to prioritize sustainability measures, such as retrofitting buildings for better energy performance, reducing greenhouse gas emissions, and enhancing overall environmental sustainability. By implementing regulations and laws alongside programs and initiatives, the action seeks to shift perceptions about the importance of energy efficiency, ultimately leading to widespread behavioral changes in how institutional buildings are maintained and operated.</t>
+          <t>The targeted behavioral change that the climate action "Existing Building Standards, Institutional buildings" aims to achieve is the increased adoption of energy-efficient practices and technologies among building owners, managers, and occupants. This includes a shift towards prioritizing sustainability in building operations, such as implementing energy-saving measures, reducing emissions, and enhancing overall environmental performance. By establishing regulations and programs that promote these standards, the intervention seeks to foster a culture of sustainability within the community, leading to broader acceptance and integration of environmentally friendly practices in both existing and future building projects.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2167,12 +2106,12 @@
         <is>
           <t>The "Existing Building Standards, Institutional buildings" climate action promotes equity and inclusion in several ways:
 1. **Targeting Institutional Buildings**: By focusing on institutional buildings, which often serve vulnerable or underserved communities (such as schools, community centers, and healthcare facilities), the action ensures that these spaces are improved, benefiting those who rely on them for essential services.
-2. **Energy Efficiency and Cost Savings**: Enhancing energy efficiency in existing buildings can lead to reduced utility costs. This financial relief is particularly beneficial for low-income communities, allowing them to allocate resources to other critical needs.
-3. **Health and Well-being**: Improving the environmental performance of buildings can lead to better indoor air quality and overall health outcomes. Vulnerable populations, who may be more susceptible to health issues, stand to gain significantly from these improvements.
+2. **Energy Efficiency and Cost Savings**: Enhancing energy efficiency in existing buildings can lead to reduced utility costs. This is particularly beneficial for low-income communities that may struggle with high energy bills, thereby alleviating financial burdens and promoting economic equity.
+3. **Health and Well-being**: Improving the environmental performance of buildings can lead to better indoor air quality and overall health outcomes. Vulnerable populations, who may be more susceptible to health issues, stand to gain significantly from healthier living and working environments.
 4. **Community Engagement**: The implementation of building standards often involves community input and engagement, ensuring that the voices of underserved populations are heard and considered in the decision-making process.
-5. **Job Creation and Training**: Upgrading existing buildings can create job opportunities, particularly in local communities. This can provide training and employment for individuals from underserved backgrounds, promoting economic equity.
-6. **Resilience to Climate Impacts**: By enhancing the sustainability of institutional buildings, the action helps these structures better withstand climate-related challenges, ensuring that vulnerable communities have access to safe and reliable facilities during extreme weather events. 
-Overall, this climate action integrates equity and inclusion by directly addressing the needs of underserved communities, improving their living conditions, and fostering economic opportunities.</t>
+5. **Job Creation and Training**: Upgrading existing buildings can create job opportunities in the local community, particularly for those from underserved backgrounds. This can include training programs that equip individuals with skills needed for green jobs, fostering economic inclusion.
+6. **Resilience to Climate Impacts**: By improving the sustainability of institutional buildings, the action enhances the resilience of communities that are often disproportionately affected by climate change, ensuring they are better prepared for environmental challenges.
+Overall, this climate action integrates equity and inclusion by directly addressing the needs of vulnerable communities, promoting health, economic benefits, and resilience.</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2193,7 +2132,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>['Availability of funding for retrofitting and upgrades', 'Access to skilled labor and contractors for implementation', 'Compliance with local building codes and regulations', 'Support from government and institutional policies promoting sustainability', 'Engagement and cooperation from building owners and occupants', 'Availability of technology and materials for energy efficiency improvements', 'Data on current building performance and energy usage for assessment']</t>
+          <t>['Availability of funding for retrofitting and upgrades', 'Access to skilled labor and contractors for implementation', 'Compliance with local building codes and regulations', 'Availability of technology and materials for energy efficiency improvements', 'Support from local government and stakeholders for policy changes', 'Public awareness and acceptance of sustainability initiatives']</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2203,12 +2142,9 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>['Improved energy efficiency in institutional buildings', 'Reduction in greenhouse gas emissions by 20-39%', 'Enhanced indoor air quality leading to better health outcomes', 'Cost savings on utility bills for low-income communities', 'Job creation and training opportunities in local communities', 'Increased resilience of buildings to climate impacts', 'Community engagement in decision-making processes']</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
+          <t>['Improved energy efficiency in institutional buildings', 'Reduction in greenhouse gas emissions by 20-39%', 'Enhanced indoor air quality leading to better health outcomes', 'Cost savings on utility bills for low-income communities', 'Job creation and training opportunities in green sectors', 'Increased resilience of vulnerable communities to climate impacts', 'Promotion of sustainability practices among building owners and occupants']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2266,12 +2202,12 @@
       <c r="M19" t="inlineStr">
         <is>
           <t>The "Existing Building Standards, Industrial buildings" climate action promotes equity and inclusion in several ways:
-1. **Targeting Vulnerable Communities**: By focusing on improving the environmental performance of existing structures, this action can directly benefit underserved communities that often reside in older, less efficient buildings. Enhancing these buildings can lead to better living conditions and reduced energy costs for low-income residents.
-2. **Job Creation**: The interventions required to upgrade building standards can create job opportunities in local communities, particularly for individuals from marginalized backgrounds. This can help to address economic disparities and provide pathways to stable employment.
-3. **Health Benefits**: Improving energy efficiency and reducing emissions in industrial buildings can lead to better air quality and overall health outcomes for residents in nearby vulnerable communities, who are often disproportionately affected by pollution and environmental hazards.
-4. **Community Engagement**: The implementation of these standards may involve engaging local communities in the planning and execution processes, ensuring that the voices of those most affected by climate change and industrial practices are heard and considered.
-5. **Access to Resources**: By prioritizing upgrades in underserved areas, this action can help ensure that these communities have access to the benefits of modern, sustainable infrastructure, which can enhance their resilience to climate impacts.
-Overall, the action recognizes and addresses the specific needs of vulnerable populations, fostering a more equitable approach to climate resilience and sustainability.</t>
+1. **Targeting Vulnerable Communities**: By improving the environmental performance of existing buildings, the action directly benefits underserved communities that often reside in older, less efficient structures. These communities typically face higher energy costs and poorer air quality, so enhancing building standards can alleviate these burdens.
+2. **Job Creation and Economic Opportunities**: The interventions required to upgrade buildings can create job opportunities, particularly for local workers in vulnerable communities. This can lead to economic empowerment and skill development for individuals who may have limited access to employment in other sectors.
+3. **Health Benefits**: Improving energy efficiency and reducing emissions in industrial buildings can lead to better air quality and reduced health risks for nearby residents, many of whom may belong to underserved populations. This action addresses environmental justice by mitigating health disparities linked to pollution.
+4. **Community Engagement**: The implementation of building standards often involves community input and engagement, ensuring that the voices of vulnerable populations are heard in the decision-making process. This fosters a sense of ownership and inclusion in the climate action efforts.
+5. **Long-term Sustainability**: By focusing on existing structures, the action promotes sustainable development that benefits all community members, ensuring that improvements are not just for affluent areas but also for those that have historically been neglected.
+Overall, the climate action integrates equity and inclusion by addressing the specific needs of vulnerable communities, creating economic opportunities, and improving health outcomes through enhanced building standards.</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2292,7 +2228,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>['Availability of funding for retrofitting and upgrades', 'Access to skilled labor for implementation of improvements', 'Compliance with local building codes and regulations', 'Availability of technology and materials for energy efficiency enhancements', 'Support from local government and stakeholders for policy changes', 'Data on current building performance to identify areas for improvement']</t>
+          <t>['Availability of funding for retrofitting and upgrades', 'Access to skilled labor for implementation of improvements', 'Compliance with local building codes and regulations', 'Availability of technology and materials for energy efficiency enhancements', 'Support from local government and stakeholders for policy changes', 'Data on current building performance and emissions for baseline assessment']</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2302,12 +2238,9 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>['Improved energy efficiency in existing industrial buildings', 'Reduction in greenhouse gas emissions by 20-39%', 'Enhanced air quality benefiting vulnerable communities', 'Job creation opportunities in local communities', 'Better living conditions for underserved populations', 'Increased community engagement in sustainability efforts']</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+          <t>['Improved energy efficiency in industrial buildings', 'Reduction in greenhouse gas emissions by 20-39%', 'Enhanced air quality benefiting underserved communities', 'Job creation and economic opportunities for local workers', 'Increased adoption of sustainable building practices', 'Community engagement in decision-making processes', 'Addressing health disparities linked to pollution']</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2354,7 +2287,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Municipal Buildings" climate action aims to achieve is an increased adoption of eco-friendly practices and standards in both public and private construction. By showcasing government-owned structures that implement sustainable building practices, the initiative seeks to influence perceptions of sustainability, making it more desirable and socially acceptable for individuals and businesses to prioritize environmentally responsible construction methods. This shift is expected to lead to a broader activity shift towards energy-efficient buildings and sustainable infrastructure development within the community.</t>
+          <t>The targeted behavioral change that the "Municipal Buildings" climate action aims to achieve is an increased adoption of eco-friendly practices and standards in both public and private construction. By showcasing government-owned structures that implement sustainable building practices, the initiative seeks to influence perceptions of sustainability, making it more desirable and socially acceptable for individuals and businesses to prioritize environmentally responsible construction methods. This shift is expected to lead to a broader cultural acceptance of green building practices, ultimately resulting in a significant increase in the construction of energy-efficient and sustainable buildings within the community.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2385,22 +2318,19 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>['Availability of funding for retrofitting and constructing eco-friendly buildings', 'Access to sustainable building materials and technologies', 'Collaboration with architects and engineers specializing in green design', 'Compliance with local, state, and federal environmental regulations', 'Engagement and support from the community and local stakeholders', 'Training and education for municipal staff on sustainability practices']</t>
+          <t>['Availability of funding for retrofitting and constructing eco-friendly buildings', 'Access to sustainable building materials and technologies', 'Collaboration with architects and engineers specializing in green design', 'Compliance with local, state, and federal environmental regulations', 'Engagement and support from the community and local stakeholders', 'Training and education for municipal staff on sustainable practices']</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>['Energy consumption reduction', 'Water usage reduction', 'Green building certifications obtained', 'Percentage of sustainable materials used', 'Carbon footprint reduction', 'Cost savings from energy efficiency', 'Employee satisfaction and engagement in sustainability practices', 'Public awareness and education initiatives', 'Number of eco-friendly retrofits completed', 'Waste reduction and recycling rates']</t>
+          <t>['Energy consumption reduction', 'Water usage reduction', 'Green building certifications obtained', 'Percentage of sustainable materials used', 'Carbon footprint reduction', 'Cost savings from energy efficiency', 'Employee satisfaction with building environment', 'Public engagement and awareness levels', 'Maintenance cost reduction', 'Number of eco-friendly initiatives implemented']</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions by 20-39% in stationary energy sector', 'Improved air quality benefiting all community members', 'Increased adoption of eco-friendly practices in construction', 'Job creation in green construction and maintenance', 'Empowerment of underserved communities to advocate for sustainability']</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions by 20-39% in stationary energy sector', 'Improved air quality benefiting all community members', 'Increased adoption of eco-friendly construction practices', 'Empowerment of underserved populations through job opportunities in green construction', 'Cultural shift towards sustainability in building practices']</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2459,9 +2389,6 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2508,7 +2435,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Heat Networks" climate action aims to achieve is a shift towards increased adoption of energy-efficient heating practices among urban residents and businesses. This includes encouraging individuals and organizations to utilize centralized heating systems that are more sustainable, thereby reducing reliance on less efficient, high-emission heating methods. The initiative seeks to foster a perception of heat networks as a convenient, cost-effective, and environmentally friendly option, ultimately leading to a broader acceptance of energy conservation measures and a reduction in overall carbon footprints in urban areas.</t>
+          <t>The targeted behavioral change that the "Heat Networks" climate action aims to achieve is the increased adoption of energy-efficient heating practices among urban residents and businesses. This includes a shift towards utilizing centralized heating systems that reduce individual reliance on less efficient heating methods, thereby promoting energy conservation and lowering carbon footprints. By enhancing the sustainability of heating infrastructure, the initiative encourages individuals to perceive these systems as safe, convenient, and cost-effective, ultimately leading to a collective reduction in greenhouse gas emissions associated with heating in urban areas.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2520,11 +2447,11 @@
         <is>
           <t>The "Heat Networks" initiative promotes equity and inclusion by focusing on the following aspects:
 1. **Access to Affordable Heating**: By developing efficient heating systems, the initiative aims to lower energy costs, particularly benefiting low-income households that may struggle with high heating expenses.
-2. **Targeting Underserved Communities**: The implementation of heat networks can prioritize areas that are traditionally underserved, ensuring that vulnerable populations receive improved heating infrastructure and services.
-3. **Job Creation**: The development and maintenance of heat networks can create local job opportunities, particularly for residents in marginalized communities, fostering economic inclusion.
-4. **Health Benefits**: Improved heating systems can enhance indoor air quality and comfort, directly benefiting vulnerable populations who may be more susceptible to health issues related to inadequate heating.
-5. **Community Engagement**: The initiative may involve local communities in the planning and decision-making processes, ensuring that the voices of underserved populations are heard and considered in the development of heating solutions.
-6. **Resilience to Climate Impacts**: By enhancing the sustainability of heating infrastructure, the initiative helps build resilience in communities that are disproportionately affected by climate change, thereby promoting social equity.</t>
+2. **Improved Health Outcomes**: Vulnerable communities often face health risks associated with inadequate heating. The initiative addresses this by ensuring that all residents have access to reliable and sufficient heating, thereby improving overall public health.
+3. **Community Engagement**: The planning and implementation of heat networks can involve local communities, ensuring that the voices of underserved populations are heard and considered in decision-making processes.
+4. **Job Creation**: The development and maintenance of heat networks can create job opportunities in underserved areas, contributing to economic equity and providing training for local residents.
+5. **Environmental Justice**: By reducing carbon footprints and promoting energy conservation, the initiative helps mitigate climate change impacts that disproportionately affect vulnerable communities, thus promoting environmental equity.
+6. **Infrastructure Investment**: The focus on enhancing heating infrastructure in urban areas can lead to improved services in historically neglected neighborhoods, fostering greater inclusion in urban development efforts.</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2550,17 +2477,14 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>['Reduction in carbon emissions (tons/year)', 'Energy efficiency improvement (% increase)', 'Percentage of buildings connected to heat networks (%)', 'Cost savings for consumers ($/year)', 'Heat loss reduction in distribution system (% decrease)', 'Increase in renewable energy sources used in heat production (%)', 'User satisfaction rate (%)', 'Operational reliability of heat networks (% uptime)', 'Reduction in energy consumption (kWh/year)', 'Investment in heat network infrastructure ($)']</t>
+          <t>['Reduction in carbon emissions (tons/year)', 'Energy efficiency improvement (% increase)', 'Percentage of buildings connected to heat networks (%)', 'Cost savings for consumers ($/year)', 'Heat loss reduction in distribution system (% decrease)', 'Increase in renewable energy sources used (%)', 'User satisfaction rate (%)', 'Operational reliability of heat networks (% uptime)', 'Investment in infrastructure ($)', 'Reduction in energy consumption (MWh/year)']</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions by 40-59% in stationary energy sector', 'Improved air quality due to reduced emissions', 'Lower energy costs for low-income households', 'Enhanced access to affordable heating for underserved communities', 'Job creation in local communities', 'Improved indoor air quality and health benefits for vulnerable populations', 'Increased community engagement in heating infrastructure planning', 'Enhanced resilience to climate impacts for marginalized communities']</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions by 40-59% in stationary energy sector', 'Increased adoption of energy-efficient heating practices among urban residents and businesses', 'Lower energy costs for low-income households', 'Improved public health outcomes through reliable heating access', 'Job creation in underserved areas', 'Enhanced community engagement in decision-making processes', 'Promotion of environmental justice by mitigating climate change impacts on vulnerable communities']</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2617,14 +2541,13 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>The climate action of increasing the use of clean energy sources for heating and cooling buildings promotes equity and inclusion in several ways:
-1. **Access to Clean Energy**: By transitioning to renewable energy sources, the action aims to provide underserved communities with access to cleaner and more affordable energy options, reducing their reliance on fossil fuels that often lead to higher energy costs and health risks.
-2. **Health Benefits**: The shift to low-carbon energy systems can significantly improve air quality in vulnerable neighborhoods, which are often disproportionately affected by pollution from traditional heating and cooling methods. This contributes to better health outcomes for these communities.
-3. **Job Creation**: The promotion of sustainable technologies can lead to job creation in the clean energy sector, providing employment opportunities for individuals in underserved communities, thereby fostering economic equity.
-4. **Community Engagement**: The implementation of clean energy solutions often involves engaging local communities in the planning and decision-making processes, ensuring that the voices of those most affected by climate change are heard and considered.
-5. **Resilience Building**: By investing in renewable energy infrastructure, the action enhances the resilience of vulnerable communities to climate impacts, ensuring they are better equipped to handle extreme weather events and energy disruptions.
-6. **Long-term Cost Savings**: The adoption of energy-efficient technologies can lead to long-term savings on energy bills for low-income households, alleviating financial burdens and promoting economic stability.
-Overall, this climate action inherently considers equity and inclusion by addressing the specific needs and challenges faced by vulnerable and underserved communities, ensuring they benefit from the transition to clean energy.</t>
+          <t>The climate action to increase the use of clean energy sources for heating and cooling buildings promotes equity and inclusion in several ways:
+1. **Access to Clean Energy**: By focusing on renewable energy sources, the action aims to provide underserved communities with access to cleaner and more affordable energy options, reducing their reliance on fossil fuels that often contribute to higher energy costs and health risks.
+2. **Job Creation**: The transition to sustainable technologies can create job opportunities in the installation, maintenance, and management of clean energy systems, particularly benefiting individuals from vulnerable communities who may face barriers to employment.
+3. **Health Benefits**: Reducing carbon emissions and improving energy efficiency can lead to better air quality, which disproportionately affects low-income neighborhoods. This action directly addresses health disparities by mitigating pollution-related health issues.
+4. **Community Engagement**: The implementation of clean energy solutions often involves engaging local communities in the planning and decision-making processes, ensuring that the voices of underserved populations are heard and considered.
+5. **Resilience Building**: By investing in renewable energy infrastructure, the action enhances the resilience of vulnerable communities to climate impacts, such as extreme heat or energy shortages, thereby promoting social equity in climate adaptation efforts.
+Overall, this climate action integrates equity and inclusion by ensuring that the benefits of clean energy transition are accessible to all, particularly those who have historically been marginalized.</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2650,17 +2573,14 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>['Percentage increase in the use of renewable energy sources for heating and cooling', 'Reduction in carbon emissions from heating and cooling systems', 'Energy efficiency improvements in buildings', 'Number of buildings retrofitted with clean energy technologies', 'Percentage of urban infrastructure utilizing district energy systems', 'Cost savings from energy efficiency measures', 'Public awareness and adoption rates of clean energy technologies', 'Reduction in energy consumption for heating and cooling']</t>
+          <t>['Percentage increase in clean energy usage for heating and cooling', 'Reduction in carbon emissions from heating and cooling systems', 'Energy efficiency improvements in buildings', 'Number of buildings using renewable energy sources', 'Cost savings from energy efficiency measures', 'Increase in public awareness and adoption of clean energy technologies', 'Reduction in energy consumption for heating and cooling', 'Number of new installations of solar, geothermal, or district energy systems']</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions by 40-59% in the stationary energy sector', 'Improved air quality leading to better health outcomes in vulnerable communities', 'Increased access to affordable clean energy for underserved populations', 'Job creation in the clean energy sector', 'Long-term cost savings on energy bills for low-income households', 'Enhanced resilience of communities to climate impacts']</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions by 40-59% in the stationary energy sector', 'Improvement in air quality due to decreased reliance on fossil fuels', 'Lower energy costs for households and businesses', 'Creation of job opportunities in clean energy sectors', 'Enhanced resilience of vulnerable communities to climate impacts', 'Increased access to clean and affordable energy for underserved communities', 'Community engagement in clean energy planning and decision-making']</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2717,7 +2637,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>The "Bus Emissions" mitigation action promotes equity and inclusion by targeting improvements in air quality, which disproportionately affects vulnerable and underserved communities often located near high-traffic areas. By implementing cleaner technologies and fuels in bus fleets, the action directly benefits these communities by reducing harmful emissions that contribute to respiratory and other health issues. Additionally, enhancing urban transportation through cleaner buses ensures that low-income populations, who may rely more heavily on public transit, have access to safer and more sustainable transportation options. This approach acknowledges and addresses the environmental injustices faced by marginalized groups, fostering a more equitable urban environment.</t>
+          <t>The "Bus Emissions" mitigation action promotes equity and inclusion by targeting improvements in air quality, which directly benefits vulnerable and underserved communities that are often disproportionately affected by pollution. By implementing cleaner technologies and fuels in bus fleets, the action reduces harmful emissions in areas where low-income populations and marginalized groups reside, thereby addressing environmental justice concerns. Additionally, enhancing urban transportation through cleaner buses ensures that all community members, including those who rely on public transit, have access to healthier and more sustainable transportation options. This approach fosters inclusivity by prioritizing the needs of those who may have limited mobility or financial resources, ensuring that the benefits of cleaner air and improved transit are equitably distributed.</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2738,22 +2658,19 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>['Availability of cleaner technologies and fuels for bus fleets', 'Investment in infrastructure to support cleaner bus operations', 'Regulatory frameworks promoting emission reductions', 'Public and private sector collaboration for funding and implementation', 'Awareness and support from the community for sustainable transportation initiatives']</t>
+          <t>['Availability of cleaner technologies and fuels for bus fleets', 'Investment in infrastructure to support cleaner bus operations', 'Regulatory support and incentives for adopting low-emission buses', 'Public awareness and acceptance of cleaner transportation options', 'Collaboration between government, transit authorities, and manufacturers']</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>['Reduction in CO2 emissions (tons)', 'Percentage of bus fleet using clean technologies', 'Fuel efficiency of bus fleet (miles per gallon)', 'Number of buses retrofitted or replaced with cleaner models', 'Air quality index improvement in urban areas', 'Public transportation ridership increase', 'Cost savings from fuel efficiency improvements', 'Reduction in particulate matter emissions (PM2.5)', 'Percentage decrease in greenhouse gas emissions from bus operations', 'User satisfaction ratings regarding air quality and bus services']</t>
+          <t>['Reduction in CO2 emissions (tons)', 'Percentage of bus fleet using clean technologies', 'Fuel efficiency of bus fleet (miles per gallon)', 'Number of buses retrofitted or replaced with cleaner models', 'Air quality improvement metrics (e.g., PM2.5 levels)', 'Public transportation ridership rates', 'Cost savings from fuel efficiency improvements', 'Percentage reduction in nitrogen oxides (NOx) emissions']</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions by 20-39% in the transportation sector', 'Improved air quality benefiting vulnerable and underserved communities', 'Increased reliance on public transportation leading to sustainable urban mobility', 'Enhanced safety and convenience of public transit options']</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions by 20-39% in the transportation sector', 'Improved air quality benefiting vulnerable and underserved communities', 'Increased reliance on public transportation leading to sustainable urban mobility', 'Promotion of environmental justice by addressing pollution in marginalized areas']</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2800,7 +2717,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Ferry Emissions" reduction strategies aim to achieve is a shift towards the adoption of cleaner and more sustainable water-based transportation practices. This includes encouraging ferry operators to implement cleaner fuels and emission control technologies, as well as influencing passengers and stakeholders to support and utilize these environmentally friendly ferry services. Ultimately, the goal is to foster a broader acceptance and preference for low-emission transportation options, thereby reducing the overall environmental footprint of ferry operations and preserving marine ecosystems.</t>
+          <t>The targeted behavioral change that the "Ferry Emissions" reduction strategies aim to achieve is the increased adoption of environmentally sustainable transportation practices among ferry operators and users. This includes encouraging ferry operators to implement cleaner fuels and emission control technologies, while also influencing passengers to prefer ferries that prioritize sustainability. Ultimately, the goal is to shift public perception towards valuing and choosing low-emission transportation options, thereby contributing to the preservation of marine ecosystems and reducing overall greenhouse gas emissions from water-based transportation.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2810,12 +2727,8 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>The "Ferry Emissions" reduction strategies promote equity and inclusion by focusing on the following aspects:
-1. **Access to Clean Transportation**: By implementing cleaner fuels and emission control technologies, the action ensures that underserved communities, which often rely on ferries for transportation, benefit from improved air quality and reduced health risks associated with pollution.
-2. **Preservation of Marine Ecosystems**: Protecting marine ecosystems is crucial for communities that depend on these resources for their livelihoods, particularly vulnerable populations such as fishermen and those engaged in tourism. This action supports their economic stability and cultural practices.
-3. **Community Engagement**: The development and implementation of emission reduction strategies can involve local communities, ensuring that the voices of those most affected by ferry operations are heard and considered in decision-making processes.
-4. **Job Creation and Economic Opportunities**: Transitioning to cleaner technologies may create new job opportunities in underserved communities, particularly in sectors related to green technology and sustainable transportation, fostering economic equity.
-5. **Health Benefits**: By reducing emissions, the action directly addresses health disparities faced by vulnerable populations who are often located near ferry routes and are disproportionately affected by air pollution, thereby promoting public health equity.</t>
+          <t>The "Ferry Emissions" reduction strategies promote equity and inclusion by prioritizing the health and well-being of vulnerable or underserved communities that rely on ferry services for transportation. By implementing cleaner fuels and emission control technologies, the action directly addresses air quality issues that disproportionately affect low-income neighborhoods and communities of color located near ferry routes. 
+Additionally, enhancing the sustainability of ferry operations helps ensure that these communities have access to reliable and environmentally friendly transportation options, which can improve mobility and economic opportunities. The focus on preserving marine ecosystems also benefits these communities, as they often depend on healthy waterways for fishing, recreation, and tourism, thereby supporting their livelihoods and cultural practices. Overall, the action recognizes and addresses the specific needs of underserved populations, fostering a more equitable transportation system.</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2836,22 +2749,19 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>['Availability of cleaner fuel alternatives for ferry operations', 'Development and implementation of emission control technologies', 'Regulatory support and incentives for adopting sustainable practices', 'Investment in research and development for innovative solutions', 'Collaboration with marine ecosystem conservation organizations']</t>
+          <t>['Availability of cleaner fuel alternatives for ferry operations', 'Development and implementation of emission control technologies', 'Regulatory frameworks supporting emissions reduction', 'Investment in infrastructure for cleaner fuel distribution', 'Collaboration with ferry operators and stakeholders for adoption of sustainable practices', 'Research and development for innovative solutions in marine transportation']</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>['Reduction in CO2 emissions (tons)', 'Percentage of ferries using cleaner fuels', 'Reduction in particulate matter emissions (PM)', 'Number of ferries equipped with emission control technologies', 'Fuel consumption per passenger mile', 'Percentage decrease in overall ferry operational emissions', 'Compliance rate with environmental regulations', 'Marine ecosystem health indicators']</t>
+          <t>['Reduction in CO2 emissions (tons)', 'Percentage of ferries using cleaner fuels', 'Reduction in particulate matter emissions (tons)', 'Number of ferries equipped with emission control technologies', 'Fuel consumption per passenger mile', 'Percentage decrease in overall ferry emissions', 'Compliance rate with environmental regulations', 'Marine ecosystem health indicators']</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from waterborne transportation', 'Improved air quality benefiting underserved communities', 'Enhanced water quality through reduced pollution', 'Support for marine ecosystem preservation', 'Increased access to clean transportation for vulnerable populations', 'Job creation in green technology and sustainable transportation sectors', 'Health benefits for communities near ferry routes']</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+          <t>['Reduction of greenhouse gas emissions from waterborne transportation by 20-39%', 'Improvement in air quality benefiting vulnerable communities', 'Enhancement of water quality through reduced pollution from ferry operations', 'Promotion of sustainable transportation practices among ferry operators and users', 'Support for economic opportunities in underserved communities reliant on ferry services']</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2898,7 +2808,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Truck Emissions" mitigation initiative aims to achieve is the adoption of cleaner fuels and technologies by freight transportation companies. This shift encourages these companies to prioritize sustainability and efficiency in their logistics operations, ultimately leading to reduced air pollution and greenhouse gas emissions. By implementing financial incentives and supportive programs, the initiative seeks to influence the decision-making of businesses, prompting them to invest in environmentally friendly practices and technologies.</t>
+          <t>The targeted behavioral change that the "Truck Emissions" mitigation initiative aims to achieve is the adoption of cleaner fuels and technologies by freight transportation companies. This shift encourages these companies to prioritize sustainability and efficiency in their logistics operations, ultimately leading to a reduction in air pollution and greenhouse gas emissions associated with freight transport. By implementing financial incentives and supportive programs, the initiative seeks to influence the perceptions of these companies regarding the benefits of cleaner technologies, fostering a broader transition towards environmentally friendly practices in urban logistics.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2908,13 +2818,8 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>The "Truck Emissions" mitigation action promotes equity and inclusion by addressing the following aspects:
-1. **Health Benefits for Vulnerable Communities**: By reducing air pollution from freight transportation, the initiative directly benefits underserved communities that are often located near major transportation routes and are disproportionately affected by poor air quality. This leads to improved public health outcomes for these populations.
-2. **Access to Cleaner Technologies**: The adoption of cleaner fuels and technologies can create opportunities for underserved communities to access modern, efficient transportation solutions. This can help bridge the gap in transportation equity, ensuring that all communities benefit from advancements in technology.
-3. **Job Creation and Economic Opportunities**: The transition to cleaner freight technologies may generate new jobs in the green economy, particularly in areas that have historically faced economic challenges. This can provide employment opportunities for individuals in vulnerable communities, fostering economic inclusion.
-4. **Community Engagement**: The initiative may involve engaging local communities in the planning and implementation process, ensuring that the voices of those most affected by truck emissions are heard and considered. This participatory approach promotes inclusivity and empowers communities to advocate for their needs.
-5. **Sustainability and Resilience**: By promoting sustainable practices in freight transportation, the action contributes to the long-term resilience of vulnerable communities against climate change impacts, ensuring that they are not left behind in the transition to a more sustainable future. 
-Overall, the "Truck Emissions" mitigation action is designed to enhance equity and inclusion by prioritizing the health, economic opportunities, and voices of underserved communities.</t>
+          <t>The "Truck Emissions" mitigation initiative promotes equity and inclusion by addressing the disproportionate impact of air pollution on vulnerable and underserved communities, often located near freight corridors. By adopting cleaner fuels and technologies, the action directly benefits these communities by improving air quality, which is crucial for public health, particularly for low-income populations and communities of color that may have limited access to healthcare resources. 
+Additionally, the initiative enhances sustainability and urban logistics efficiency, which can lead to economic opportunities and job creation in these underserved areas. By prioritizing cleaner transportation methods, the action supports a more equitable distribution of environmental benefits, ensuring that marginalized communities are not left behind in the transition to a greener economy. Overall, the focus on reducing emissions aligns with the goal of fostering healthier, more resilient communities that are often the most affected by environmental degradation.</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2935,7 +2840,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>['Availability of cleaner fuels and technologies', 'Investment in infrastructure to support cleaner freight options', 'Regulatory frameworks promoting emissions reductions', 'Collaboration between government, industry, and stakeholders', 'Public awareness and acceptance of cleaner transportation methods']</t>
+          <t>['Availability of cleaner fuel alternatives', 'Development and adoption of advanced emission-reducing technologies', 'Supportive regulatory frameworks and policies', 'Investment in infrastructure for cleaner freight options', 'Collaboration between stakeholders in the logistics and transportation sectors']</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2945,12 +2850,9 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>['Reduction in air pollution leading to improved public health, especially for vulnerable communities', 'Encouragement of cleaner fuel and technology adoption among freight transportation companies', 'Creation of job opportunities in the green economy', 'Enhanced equity and inclusion through community engagement and access to cleaner technologies', 'Long-term resilience of underserved communities against climate change impacts', '20-39% GHG reduction potential in the transportation sector']</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions by 20-39% in the transportation sector', 'Improvement in air quality benefiting vulnerable communities', 'Promotion of cleaner fuels and technologies in freight transportation', 'Encouragement of sustainable practices in urban logistics', 'Potential economic opportunities and job creation in underserved areas']</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2987,7 +2889,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+          <t>['incentives_and_subsidies', 'regulations_and_laws', 'programs_and_initiatives']</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2997,7 +2899,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>The targeted behavioral shift that the "Vehicle Emissions" reduction strategies aim to achieve is the increased adoption of cleaner transportation options among individuals and groups. This includes encouraging people to choose electric or hybrid vehicles, utilize alternative fuels, and rely more on public transportation, biking, or walking instead of traditional gasoline-powered vehicles. The interventions—such as incentives for purchasing electric vehicles, regulations mandating lower emissions, and programs promoting sustainable transportation—are designed to change perceptions about the safety, convenience, and affordability of these eco-friendly options, ultimately leading to a significant reduction in greenhouse gas emissions from the transportation sector.</t>
+          <t>The targeted behavioral shift that the "Vehicle Emissions" reduction strategies aim to achieve is the increased adoption of cleaner transportation options, such as electric vehicles and alternative fuel vehicles, as well as a greater reliance on public transportation, biking, and walking. This shift is encouraged through financial incentives, regulations mandating lower emissions, and programs promoting sustainable transportation practices, ultimately leading to a significant reduction in greenhouse gas emissions from the transportation sector.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3008,8 +2910,7 @@
       <c r="M27" t="inlineStr">
         <is>
           <t>The "Vehicle Emissions" reduction strategies inherently promote equity and inclusion by addressing the environmental impacts that disproportionately affect vulnerable and underserved communities. These communities often experience higher levels of air pollution and related health issues due to proximity to high-traffic areas and industrial zones. By implementing cleaner technologies and promoting alternative fuels, the action directly benefits these populations by improving air quality and reducing health risks.
-Additionally, the focus on sustainable and eco-friendly transportation can enhance access to affordable and reliable transportation options for underserved communities, which may lack access to clean and efficient vehicles. This can lead to increased mobility and economic opportunities, fostering greater social equity.
-Overall, the action recognizes the need to prioritize the health and well-being of vulnerable populations, ensuring that they are included in the benefits of cleaner transportation solutions.</t>
+Additionally, the focus on sustainable and eco-friendly transportation can enhance access to affordable and efficient transportation options for underserved communities, which may lack reliable public transit. This inclusivity ensures that all community members, regardless of socioeconomic status, can benefit from cleaner air and improved public health outcomes. Overall, the action recognizes and addresses the specific needs of vulnerable populations, fostering a more equitable approach to climate action.</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3030,22 +2931,19 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>['Development and adoption of cleaner vehicle technologies', 'Availability and accessibility of alternative fuels', 'Government policies and regulations supporting emissions reduction', 'Public awareness and education on sustainable transportation', 'Investment in infrastructure for alternative fuel vehicles', 'Collaboration between automotive manufacturers and environmental organizations']</t>
+          <t>['Development and availability of cleaner vehicle technologies', 'Infrastructure for alternative fuel distribution', 'Government policies and regulations supporting emissions reduction', 'Public awareness and acceptance of eco-friendly transportation options', 'Investment in research and development for sustainable transportation solutions']</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>['Reduction in vehicle emissions (CO2, NOx, PM)', 'Percentage of vehicles using alternative fuels', 'Number of electric vehicles on the road', 'Fuel efficiency improvements (miles per gallon)', 'Adoption rate of cleaner technologies', 'Reduction in fossil fuel consumption', 'Public transportation usage rates', 'Air quality index improvements', 'Percentage of urban areas with low-emission zones', 'Investment in sustainable transportation infrastructure']</t>
+          <t>['Reduction in vehicle emissions (CO2, NOx, PM)', 'Percentage of vehicles using alternative fuels', 'Number of electric vehicles on the road', 'Fuel efficiency improvements (miles per gallon)', 'Adoption rate of cleaner technologies', 'Reduction in fossil fuel consumption', 'Public transportation usage rates', 'Air quality index improvements', 'Percentage of low-emission zones established', 'Investment in sustainable transportation infrastructure']</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>['Significant reduction in greenhouse gas emissions from the transportation sector', 'Improvement in air quality, benefiting vulnerable communities', 'Increased adoption of cleaner transportation options', 'Enhanced access to affordable and reliable transportation for underserved populations', 'Promotion of social equity through environmental justice initiatives']</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+          <t>['Significant reduction in greenhouse gas emissions from the transportation sector', 'Improved air quality benefiting vulnerable and underserved communities', 'Increased adoption of cleaner transportation options', 'Enhanced access to affordable and efficient transportation for underserved populations']</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3092,7 +2990,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Rail Improvements" climate action aims to achieve is an increased reliance on rail transportation as a primary mode of travel, leading to a reduction in the use of personal vehicles. This shift is encouraged by enhancing the efficiency, safety, and convenience of rail systems, thereby changing public perceptions about rail travel and promoting it as a low-emission, energy-efficient alternative. As a result, individuals are more likely to choose rail over higher-emission transportation options, contributing to a significant decrease in greenhouse gas emissions.</t>
+          <t>The targeted behavioral change that the "Rail Improvements" climate action aims to achieve is an increased reliance on rail transportation as a primary mode of travel, leading to a reduction in the use of personal vehicles. This shift is encouraged by enhancing the efficiency, safety, and convenience of rail systems, thereby changing public perceptions about rail travel and promoting it as a low-emission, energy-efficient alternative. Ultimately, this behavioral change contributes to a broader activity shift towards sustainable transportation practices, reducing greenhouse gas emissions in urban areas.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3102,8 +3000,14 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>The "Rail Improvements" climate action promotes equity and inclusion by enhancing access to efficient and sustainable transportation options for vulnerable and underserved communities. By modernizing railway systems, the action aims to provide reliable and affordable transit alternatives, which can benefit low-income individuals who may rely on public transportation for their daily commutes. 
-Additionally, the focus on eco-friendly practices ensures that these communities are less exposed to pollution and its associated health risks, contributing to overall community well-being. The investment in rail infrastructure can also create job opportunities in these areas, fostering economic development and inclusion. Overall, the initiative addresses the transportation needs of underserved populations while promoting environmental sustainability.</t>
+          <t>The "Rail Improvements" climate action promotes equity and inclusion in several ways:
+1. **Accessibility for Underserved Communities**: By enhancing railway systems, the action aims to provide better access to public transportation for vulnerable populations, including low-income individuals and communities that may lack reliable transportation options.
+2. **Affordable Transportation**: Modernized and efficient rail systems can lead to lower operational costs, which may translate into more affordable fares for riders, benefiting those who are economically disadvantaged.
+3. **Job Creation**: The investment in rail improvements can create job opportunities in construction, maintenance, and operation, particularly benefiting local communities that may face higher unemployment rates.
+4. **Reduced Environmental Impact**: By promoting low-emission rail transport, the action addresses environmental justice concerns, as underserved communities often bear the brunt of pollution and climate change impacts.
+5. **Community Engagement**: The planning and implementation of rail improvements can involve input from local communities, ensuring that the needs and preferences of diverse populations are considered in the development process.
+6. **Health Benefits**: Improved rail systems can lead to reduced air pollution and traffic congestion, contributing to better health outcomes for vulnerable communities that are disproportionately affected by environmental hazards. 
+Overall, the "Rail Improvements" initiative is designed to enhance transportation equity and support the inclusion of underserved communities in sustainable development efforts.</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3124,22 +3028,19 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>['Investment in infrastructure and technology for rail systems', 'Collaboration with government and private sectors for funding and support', 'Public awareness and acceptance of rail as a sustainable transportation option', 'Integration with existing transportation networks for seamless connectivity', 'Regulatory frameworks that promote eco-friendly practices in rail operations']</t>
+          <t>['Investment in infrastructure and technology for rail systems', 'Government policies and regulations supporting sustainable transportation', 'Public and private partnerships for funding and implementation', 'Community support and public awareness of rail benefits', 'Availability of eco-friendly materials and practices for modernization']</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from rail transport', 'Increase in rail ridership', 'Percentage of trains using renewable energy sources', 'Improvement in energy efficiency of rail systems', 'Reduction in travel time for rail passengers', 'Increase in freight transported by rail', 'Customer satisfaction ratings for rail services', 'Investment in rail infrastructure improvements', 'Reduction in maintenance costs for rail systems', 'Increase in the number of rail stations with eco-friendly facilities']</t>
+          <t>['Reduction in greenhouse gas emissions from rail transport', 'Increase in rail ridership', 'Percentage of trains using renewable energy sources', 'Improvement in energy efficiency of rail systems', 'Reduction in travel time for rail passengers', 'Increase in freight transported by rail', 'Customer satisfaction ratings for rail services', 'Investment in rail infrastructure improvements', 'Reduction in maintenance costs for rail systems', 'Percentage of rail network electrified']</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>['Significant reduction in greenhouse gas emissions from transportation (40-59%)', 'Improved air quality due to decreased reliance on personal vehicles', 'Enhanced access to sustainable transportation for vulnerable communities', 'Creation of job opportunities through infrastructure investments', 'Promotion of equity and inclusion in public transit access']</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from transportation by 40-59%', 'Improved air quality due to decreased reliance on personal vehicles', 'Enhanced accessibility to public transportation for underserved communities', 'Creation of job opportunities in rail construction and maintenance', 'Lower operational costs leading to more affordable fares for riders', 'Health benefits from reduced air pollution and traffic congestion', 'Increased community engagement in transportation planning']</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3186,7 +3087,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Zero Emission Buses" initiative aims to achieve is an increased reliance on public transportation, specifically the use of electric or zero-emission buses, over personal vehicles. This shift is intended to encourage individuals to choose cleaner, more sustainable transit options, thereby reducing greenhouse gas emissions and contributing to improved air quality in urban areas. By enhancing the perception of public transportation as a convenient, safe, and environmentally friendly alternative, the initiative seeks to foster a cultural shift towards prioritizing collective transit solutions over individual car usage.</t>
+          <t>The targeted behavioral shift that the "Zero Emission Buses" initiative aims to achieve is an increased reliance on public transportation, specifically the use of electric or zero-emission buses, over personal vehicles. This shift is intended to encourage individuals to choose cleaner, more sustainable transit options, thereby reducing greenhouse gas emissions and contributing to improved air quality in urban areas. By enhancing the perception of public transportation as a convenient, safe, and environmentally friendly alternative, the initiative seeks to foster a cultural norm that prioritizes sustainable commuting practices.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3197,8 +3098,9 @@
       <c r="M29" t="inlineStr">
         <is>
           <t>The "Zero Emission Buses" initiative promotes equity and inclusion by prioritizing cleaner air in urban areas, which often include vulnerable or underserved communities that are disproportionately affected by air pollution. By transitioning to electric or zero-emission buses, the initiative directly addresses health disparities faced by these populations, improving their overall quality of life.
-Additionally, the integration of zero-emission technologies in public transportation enhances accessibility to reliable and sustainable transit options for low-income individuals who may rely heavily on public transport. This ensures that all community members, regardless of socioeconomic status, have equitable access to clean and efficient transportation.
-Furthermore, the initiative may create job opportunities in the green technology sector, particularly for residents in underserved communities, fostering economic inclusion and empowerment. By considering the needs of these communities in the planning and implementation phases, the initiative actively works to reduce systemic inequalities related to transportation and environmental health.</t>
+Additionally, the integration of zero-emission technologies into public transportation enhances accessibility to reliable and sustainable transit options for low-income individuals who may rely on public transport for their daily commutes. This ensures that all community members, regardless of socioeconomic status, have equitable access to clean transportation.
+Furthermore, the initiative may create job opportunities in the maintenance and operation of zero-emission buses, particularly in communities that have historically faced economic disadvantages. This can help foster economic inclusion and support local workforce development.
+Overall, the initiative's focus on reducing emissions and improving public transportation aligns with the needs of underserved communities, promoting environmental justice and equitable access to clean transit solutions.</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3219,7 +3121,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>['Availability of electric or zero-emission bus technology', 'Investment in charging infrastructure for electric buses', 'Supportive government policies and incentives for zero-emission transportation', 'Public awareness and acceptance of electric buses', 'Collaboration with manufacturers and suppliers for bus procurement', 'Sufficient funding and budget allocation for fleet transition', 'Maintenance and training programs for new technologies']</t>
+          <t>['Availability of electric or zero-emission bus technology', 'Investment in charging infrastructure for electric buses', 'Supportive government policies and regulations promoting zero-emission transportation', 'Public funding or financial incentives for transit agencies', 'Training and workforce development for maintenance and operation of new technologies', 'Public acceptance and demand for cleaner public transportation options']</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3229,12 +3131,9 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>['Reduction of greenhouse gas emissions in the transportation sector by 20-39%', 'Improvement of air quality in urban areas, benefiting vulnerable communities', 'Increased reliance on public transportation over personal vehicles', 'Enhanced accessibility to sustainable transit options for low-income individuals', 'Creation of job opportunities in the green technology sector']</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+          <t>['Reduction of greenhouse gas emissions in the transportation sector by 20-39%', 'Improvement of air quality in urban areas', 'Promotion of equity and inclusion for underserved communities', 'Enhanced accessibility to public transportation for low-income individuals', 'Creation of job opportunities in the maintenance and operation of zero-emission buses']</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3281,7 +3180,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "EV Fleet" initiative aims to achieve is the increased adoption and use of electric vehicles (EVs) among municipal fleets and, by extension, the general public. This shift is expected to result in a broader acceptance of electric transportation as a viable and sustainable mobility option, leading to reduced reliance on fossil fuel-powered vehicles. The initiative encourages individuals and organizations to perceive EVs as a convenient, environmentally friendly, and socially responsible choice, ultimately contributing to a significant reduction in greenhouse gas emissions and improved air quality in urban areas.</t>
+          <t>The targeted behavioral change that the "EV Fleet" initiative aims to achieve is the increased adoption and use of electric vehicles (EVs) among municipal fleets and, by extension, the general public. This shift is expected to result in a broader acceptance of electric transportation as a viable and sustainable mobility option, leading to reduced greenhouse gas emissions and lower air pollution. By enhancing the perception of EVs as convenient, environmentally friendly, and socially desirable, the initiative encourages individuals and organizations to transition away from traditional fossil fuel-powered vehicles, ultimately contributing to a significant activity shift towards sustainable transportation practices.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3292,12 +3191,12 @@
       <c r="M30" t="inlineStr">
         <is>
           <t>The "EV Fleet" initiatives promote equity and inclusion in several ways:
-1. **Improved Air Quality**: By reducing emissions and lowering air pollution, these initiatives directly benefit vulnerable and underserved communities that are often disproportionately affected by poor air quality and related health issues.
-2. **Access to Clean Transportation**: Transitioning to electric vehicles can enhance access to cleaner transportation options for low-income neighborhoods, which may rely on municipal services for mobility.
-3. **Job Creation**: The implementation of EV fleets can create job opportunities in the maintenance, operation, and infrastructure development of electric vehicles, providing economic benefits to underserved communities.
-4. **Community Engagement**: These initiatives often involve community input and engagement, ensuring that the needs and concerns of marginalized groups are considered in the planning and execution of the fleet transition.
-5. **Long-term Cost Savings**: By investing in electric vehicles, municipalities can reduce operational costs over time, potentially allowing for reinvestment in community services that benefit low-income populations.
-6. **Sustainable Development**: The focus on sustainable and eco-friendly mobility solutions aligns with broader goals of social equity, ensuring that all community members can benefit from advancements in transportation technology.</t>
+1. **Improved Air Quality**: By reducing emissions and lowering air pollution, these initiatives directly benefit vulnerable and underserved communities that are often located near high-traffic areas and are disproportionately affected by poor air quality.
+2. **Access to Clean Transportation**: Transitioning to electric vehicles can enhance access to cleaner transportation options for all community members, including those in low-income neighborhoods who may rely on municipal services for mobility.
+3. **Job Creation and Economic Opportunities**: The implementation of EV fleets can create job opportunities in the maintenance, operation, and infrastructure development of electric vehicles, providing economic benefits to underserved populations.
+4. **Community Engagement**: These initiatives often involve community input and engagement, ensuring that the voices of marginalized groups are heard and considered in the planning and execution of transportation solutions.
+5. **Long-term Cost Savings**: By investing in electric vehicles, municipalities can reduce operational costs over time, potentially allowing for reinvestment in community services that benefit low-income residents.
+Overall, the "EV Fleet" initiatives are designed to address environmental justice by prioritizing the health and economic well-being of vulnerable communities while promoting sustainable transportation solutions.</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3318,7 +3217,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>['Availability of charging infrastructure for electric vehicles', 'Access to funding and financial incentives for purchasing EVs', 'Support from local government and policy frameworks promoting EV adoption', 'Public awareness and acceptance of electric vehicles', 'Availability of a reliable supply chain for EVs and related components', 'Training and resources for maintenance and operation of EVs']</t>
+          <t>['Availability of charging infrastructure for electric vehicles', 'Access to funding and financial incentives for purchasing EVs', 'Support from local government and policy frameworks promoting EV adoption', 'Public awareness and acceptance of electric vehicles', 'Availability of a reliable supply chain for EVs and related components', 'Training and resources for municipal staff on EV maintenance and operation']</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3328,12 +3227,9 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from transportation', 'Improved air quality benefiting vulnerable communities', 'Increased adoption of electric vehicles among municipal fleets', 'Job creation in EV maintenance and infrastructure', 'Enhanced access to clean transportation for low-income neighborhoods', 'Long-term cost savings for municipalities leading to reinvestment in community services']</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from transportation', 'Improvement in air quality benefiting vulnerable communities', 'Increased adoption of electric vehicles among municipal fleets and the public', 'Job creation and economic opportunities in EV maintenance and infrastructure', 'Enhanced community engagement in transportation planning', 'Long-term cost savings for municipalities leading to reinvestment in community services']</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3392,9 +3288,6 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3441,7 +3334,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>The targeted behavioral shift that the "Smart Transit" climate action aims to achieve is an increased reliance on public transportation among residents. By enhancing the efficiency, reliability, and convenience of public transit systems through advanced technologies, the initiative seeks to encourage individuals to choose public transit over personal vehicles for their commuting needs. This shift is expected to reduce greenhouse gas emissions by decreasing the number of cars on the road, thereby promoting a more sustainable and environmentally friendly mode of transportation.</t>
+          <t>The targeted behavioral shift that the "Smart Transit" climate action aims to achieve is an increased reliance on public transportation among residents. By enhancing the efficiency, reliability, and convenience of public transit systems through advanced technologies, the initiative seeks to encourage individuals to choose public transit over personal vehicles for their commuting needs. This shift is expected to reduce greenhouse gas emissions associated with private car usage, ultimately contributing to more sustainable urban mobility and a decrease in overall traffic congestion.</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3451,8 +3344,8 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>The "Smart Transit" initiative promotes equity and inclusion by enhancing public transportation systems that are crucial for vulnerable and underserved communities. By optimizing transit routes and improving service reliability, the action ensures that these communities have better access to essential services, job opportunities, and educational resources. 
-Additionally, the integration of advanced technologies can help address the specific needs of underserved populations, such as those with disabilities or low-income individuals, by providing real-time information and more efficient transit options. This focus on creating a seamless commuting experience fosters inclusivity, allowing all residents, regardless of their socioeconomic status, to benefit from improved public transportation. Overall, the initiative actively considers the needs of marginalized groups, ensuring that climate action contributes to social equity.</t>
+          <t>The "Smart Transit" initiative promotes equity and inclusion by enhancing public transportation systems that are crucial for vulnerable and underserved communities. By optimizing transit routes and improving service reliability, the action ensures that these communities have better access to essential services, employment opportunities, and social activities. 
+Additionally, the integration of advanced technologies can help identify and address the specific needs of underserved populations, such as those with disabilities or low-income individuals, ensuring that the transit system is responsive to their requirements. The focus on a seamless and sustainable commuting experience also contributes to reducing transportation costs and environmental impacts, which disproportionately affect marginalized groups. Overall, the initiative aims to create a more equitable transportation landscape that benefits all residents, particularly those who have historically faced barriers to mobility.</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3473,22 +3366,19 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>['Availability of advanced technologies for data collection and analysis', 'Investment in infrastructure to support smart transit systems', 'Collaboration between government agencies, transit authorities, and technology providers', 'Public acceptance and user engagement with smart transit solutions', 'Access to real-time data for route optimization and service reliability', 'Sustainable funding models to maintain and upgrade transit systems']</t>
+          <t>['Availability of advanced technologies for data collection and analysis', 'Investment in infrastructure to support smart transit systems', 'Collaboration between government agencies, transit authorities, and technology providers', 'Public acceptance and user engagement with smart transit solutions', 'Access to real-time data for route optimization and service reliability', 'Sustainable funding models to maintain and expand smart transit initiatives']</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions', 'Increase in public transit ridership', 'Average wait time for public transit', 'On-time performance percentage', 'Customer satisfaction score', 'Cost savings from optimized routes', 'Percentage of transit fleet using clean energy', 'Reduction in transit operational costs', 'Frequency of service disruptions', 'Integration of real-time data usage by commuters']</t>
+          <t>['Reduction in greenhouse gas emissions', 'Increase in public transit ridership', 'Average wait time for public transit', 'On-time performance percentage', 'Customer satisfaction score', 'Cost savings from optimized routes', 'Percentage of routes using smart technology', 'Reduction in transit operational costs', 'Increase in multimodal transport options', 'Frequency of service improvements']</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from decreased reliance on personal vehicles', 'Improved air quality due to reduced vehicle emissions', 'Enhanced mobility and accessibility for underserved communities', 'Lower transportation costs for residents', 'Increased public transit usage leading to a more sustainable commuting culture', 'Promotion of social equity through improved access to essential services']</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from decreased reliance on personal vehicles', 'Improved air quality due to reduced vehicle emissions', 'Enhanced mobility and accessibility for underserved communities', 'Lower transportation costs for residents', 'Increased public transit usage leading to reduced traffic congestion', 'Promotion of equity and inclusion in transportation access']</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3525,7 +3415,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
+          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3535,7 +3425,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>The targeted behavioral shift that the "Transit Access" initiatives aim to achieve is an increase in the use of walking, cycling, and public transportation among urban residents, leading to a reduced reliance on individual vehicles. This shift is facilitated by improved infrastructure and multi-modal transit options, which enhance perceptions of safety, convenience, and accessibility, ultimately encouraging more sustainable transportation choices.</t>
+          <t>The targeted behavioral change that the "Transit Access" initiatives aim to achieve is an increased reliance on walking, cycling, and public transportation, leading to a significant reduction in the use of individual vehicles for daily commuting and travel. This shift is facilitated by improved infrastructure and multi-modal transit options, which enhance safety, convenience, and accessibility, ultimately encouraging individuals to adopt more sustainable transportation habits.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3547,11 +3437,11 @@
         <is>
           <t>The "Transit Access" initiatives promote equity and inclusion by:
 1. **Improving Accessibility**: By enhancing walking and cycling infrastructure, the initiatives ensure that individuals in underserved communities, who may not have access to private vehicles, can navigate urban areas more easily and safely.
-2. **Multi-Modal Options**: The promotion of integrated transit options allows for diverse transportation methods, catering to the varying needs of vulnerable populations, including low-income individuals, the elderly, and people with disabilities.
-3. **Reducing Transportation Costs**: By decreasing reliance on individual vehicles, these initiatives can lower transportation expenses for underserved communities, making mobility more affordable and accessible.
-4. **Encouraging Active Transportation**: By fostering walking and cycling, the initiatives support healthier lifestyles, which can be particularly beneficial for communities that may face health disparities.
-5. **Community Engagement**: The focus on creating a more interconnected transportation network often involves engaging with local communities to understand their specific needs, ensuring that the voices of vulnerable populations are heard and considered in the planning process. 
-Overall, these initiatives are designed to create a more equitable transportation system that addresses the unique challenges faced by underserved communities.</t>
+2. **Multi-Modal Options**: The promotion of integrated transit options provides diverse transportation choices, catering to the varying needs of vulnerable populations, including low-income individuals, the elderly, and people with disabilities.
+3. **Reducing Transportation Barriers**: By focusing on sustainable urban transportation, the initiatives aim to lower the financial burden associated with car ownership and maintenance, making mobility more affordable for underserved communities.
+4. **Encouraging Active Transportation**: By promoting walking and cycling, the initiatives support healthier lifestyles, which can be particularly beneficial for communities that may lack access to recreational facilities or health resources.
+5. **Community Engagement**: The development of interconnected transit networks often involves input from local communities, ensuring that the voices of vulnerable populations are heard and considered in transportation planning.
+6. **Environmental Justice**: By reducing reliance on individual vehicles, the initiatives contribute to cleaner air and a healthier environment, which disproportionately benefits underserved communities that may be located near high-traffic areas and are more vulnerable to pollution.</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3572,22 +3462,19 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>['Investment in infrastructure improvements for walking and cycling paths', 'Collaboration with local transit authorities to integrate services', 'Community engagement to promote the use of multi-modal transportation options', 'Policy support for sustainable urban planning and development', 'Funding for public transportation enhancements and maintenance']</t>
+          <t>['Investment in infrastructure improvements for walking and cycling paths', 'Collaboration with local governments and transit authorities for integrated transit planning', 'Public awareness campaigns to promote the benefits of multi-modal transportation', 'Funding and resources for sustainable transportation projects', 'Data collection and analysis to assess transportation needs and usage patterns']</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>['Increase in public transit ridership', 'Reduction in single-occupancy vehicle trips', 'Percentage of population within walking distance to transit', 'Increase in cycling infrastructure mileage', 'Reduction in greenhouse gas emissions from transportation', 'User satisfaction with transit services', 'Increase in multi-modal trip options', 'Percentage of streets with improved pedestrian facilities', 'Increase in bike share program usage', 'Reduction in traffic congestion levels']</t>
+          <t>['Increase in public transit ridership', 'Reduction in single-occupancy vehicle trips', 'Percentage of population within walking distance to transit', 'Increase in cycling infrastructure mileage', 'User satisfaction with transit services', 'Reduction in greenhouse gas emissions from transportation', 'Increase in multi-modal trips', 'Percentage of streets with improved pedestrian facilities', 'Increase in bike share program usage', 'Reduction in traffic congestion levels']</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from transportation by 20-39%', 'Improved air quality due to decreased vehicle emissions', 'Lower transportation costs for underserved communities', 'Enhanced mobility options for vulnerable populations', 'Increased accessibility for individuals without private vehicles', 'Promotion of healthier lifestyles through active transportation options', 'Community engagement in transportation planning']</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from transportation by 20-39%', 'Improved air quality due to decreased reliance on individual vehicles', 'Enhanced mobility options for underserved communities', 'Lower transportation costs for low-income individuals', 'Increased accessibility for vulnerable populations', 'Promotion of healthier lifestyles through active transportation', 'Community engagement in transportation planning', 'Contribution to environmental justice by reducing pollution exposure in high-traffic areas']</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3634,7 +3521,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>The targeted behavioral shift that the "15/30-Minute Areas" climate action aims to achieve is an increase in walking and biking as primary modes of transportation for daily activities. By developing complete neighborhoods where essential services and amenities are within a short distance, the intervention encourages individuals to opt for sustainable travel options over reliance on cars, thereby reducing greenhouse gas emissions and fostering a sense of community resilience. This shift is facilitated through infrastructure investments and programs that enhance the safety, convenience, and accessibility of walking and biking in urban environments.</t>
+          <t>The targeted behavioral shift that the "15/30-Minute Areas" climate action aims to achieve is an increase in walking and biking as primary modes of transportation for short trips within neighborhoods. By enhancing accessibility to essential services and amenities within a 15 or 30-minute radius, the intervention encourages individuals to opt for sustainable travel options over reliance on cars, thereby reducing greenhouse gas emissions and fostering a sense of community resilience.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3644,9 +3531,8 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>The "15/30-Minute Areas" climate action promotes equity and inclusion by ensuring that essential services and amenities are accessible to all community members, particularly those in vulnerable or underserved communities. By designing neighborhoods where residents can reach key resources—such as healthcare, education, and grocery stores—within a short walking or biking distance, the action reduces reliance on cars, which can be a barrier for low-income individuals who may not have access to reliable transportation.
-Additionally, this approach fosters community resilience by encouraging social interaction and cohesion among residents, which is particularly beneficial for marginalized groups who may experience isolation. The emphasis on public transport accessibility further supports equity by providing mobility options for those who cannot afford private vehicles, ensuring that all community members can participate fully in local life and access necessary services.
-Overall, the "15/30-Minute Areas" initiative inherently considers the needs of underserved populations by prioritizing accessibility, sustainability, and community engagement, thereby promoting a more equitable urban environment.</t>
+          <t>The "15/30-Minute Areas" climate action promotes equity and inclusion by ensuring that essential services and amenities are accessible to all community members, particularly benefiting vulnerable or underserved populations who may lack reliable transportation. By designing neighborhoods where key resources are within a short walking or biking distance, this approach reduces barriers to access for low-income individuals, the elderly, and those with disabilities. 
+Additionally, the focus on public transport integration enhances mobility options for those who may not own a vehicle, further supporting equitable access to jobs, education, and healthcare. The development of complete neighborhoods fosters a sense of community and belonging, encouraging social interactions among diverse groups and promoting inclusivity. Overall, this urban planning strategy actively addresses the needs of marginalized communities, ensuring they are not left behind in the transition to sustainable living.</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3667,22 +3553,19 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>['Availability of essential services and amenities within walking or biking distance', 'Investment in public transport infrastructure', 'Community engagement and support for local planning initiatives', 'Zoning regulations that promote mixed-use development', 'Sustainable urban design principles that prioritize walkability and bikeability', 'Collaboration between local government, businesses, and residents']</t>
+          <t>['Availability of essential services and amenities within walking or biking distance', 'Investment in public transport infrastructure', 'Community engagement and support for local planning initiatives', 'Zoning regulations that promote mixed-use development', 'Sustainable urban design principles that prioritize walkability and bikeability', 'Collaboration between local government, urban planners, and residents']</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>['Percentage of residents within 15/30-minute access to essential services', 'Reduction in average commuting distance', 'Increase in active transportation (walking/biking) rates', 'Public transport usage rates', 'Reduction in greenhouse gas emissions from transportation', 'Community satisfaction with local amenities', 'Number of new businesses established within 15/30-minute areas', 'Increase in green spaces per capita', 'Percentage of households with access to public transport', 'Reduction in traffic congestion levels']</t>
+          <t>['Percentage of residents within 15/30-minute reach of essential services', 'Reduction in average commuting distance', 'Increase in active transportation (walking/biking) rates', 'Public transport usage rates', 'Reduction in greenhouse gas emissions from transportation', 'Community satisfaction with local amenities', 'Number of new businesses established within 15/30-minute areas', 'Increase in green spaces per capita', 'Frequency of community events and engagement activities', 'Change in property values in 15/30-minute areas']</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from transportation', 'Improved air quality due to decreased vehicle use', 'Enhanced mobility options for residents', 'Increased community engagement and social cohesion', 'Greater accessibility to essential services for underserved populations']</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from transportation', 'Improved air quality due to decreased vehicle use', 'Enhanced mobility options for all community members', 'Increased accessibility to essential services for underserved populations', 'Promotion of community resilience and social interactions']</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3729,7 +3612,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Material Bans" climate action aims to achieve is a reduction in the consumption of single-use and non-recyclable materials among individuals and businesses. By imposing regulations that prohibit these materials, the intervention encourages people to adopt sustainable alternatives, such as reusable or recyclable products. This shift not only aims to decrease waste generation but also fosters a broader cultural acceptance of environmentally friendly practices, ultimately contributing to waste reduction and enhanced environmental conservation.</t>
+          <t>The targeted behavioral change that the "Material Bans" climate action aims to achieve is a reduction in the consumption and disposal of single-use and non-recyclable materials. By imposing regulations that prohibit these materials, the intervention encourages individuals and businesses to adopt sustainable alternatives, such as reusable or recyclable products. This shift not only aims to decrease waste generation but also fosters a broader cultural acceptance of environmentally friendly practices, ultimately contributing to waste reduction and enhanced environmental conservation.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3739,10 +3622,10 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>The "Material Bans" climate action promotes equity and inclusion by addressing the disproportionate impact of waste and pollution on vulnerable and underserved communities. By reducing reliance on single-use or non-recyclable materials, the action helps to improve environmental health in areas that are often more affected by waste management issues. 
-Additionally, the promotion of sustainable alternatives can create economic opportunities for local businesses, particularly those in underserved areas, by encouraging the development and distribution of eco-friendly products. This can lead to job creation and support for local economies, benefiting communities that may have limited access to resources.
+          <t>The "Material Bans" climate action promotes equity and inclusion by addressing the disproportionate impact of waste and pollution on vulnerable and underserved communities. By reducing single-use and non-recyclable materials, the action helps to improve environmental health in areas that are often more affected by waste management issues. 
+Additionally, the promotion of sustainable alternatives can create economic opportunities for local businesses, particularly those in underserved areas, by encouraging the development and distribution of eco-friendly products. This can lead to job creation and support for local economies.
 Furthermore, the implementation of material bans often involves community engagement and education, ensuring that the voices of marginalized groups are heard and considered in the decision-making process. This participatory approach fosters a sense of ownership and empowerment among community members, enhancing social equity. 
-Overall, the action not only aims to reduce environmental impact but also actively seeks to uplift and support vulnerable communities through improved health outcomes, economic opportunities, and inclusive decision-making.</t>
+Overall, the action not only aims to reduce environmental impact but also actively considers the needs and contributions of vulnerable populations, promoting a more inclusive and equitable transition to sustainability.</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3763,22 +3646,19 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>['Public awareness and support for sustainability initiatives', 'Availability of sustainable alternatives to banned materials', 'Effective enforcement mechanisms to ensure compliance with bans', 'Collaboration with businesses to transition to eco-friendly practices', 'Education and outreach programs to inform the community about the changes']</t>
+          <t>['Public awareness and support for environmental issues', 'Availability of sustainable alternatives to banned materials', 'Effective enforcement mechanisms to ensure compliance with bans', 'Collaboration with businesses to transition to eco-friendly practices', 'Education and outreach programs to inform the community about the changes']</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>['Reduction in single-use material consumption', 'Increase in recycling rates', 'Amount of waste diverted from landfills', 'Number of sustainable alternatives adopted', 'Public awareness and engagement levels', 'Compliance rates among businesses', 'Reduction in littering incidents', 'Carbon footprint reduction associated with material bans']</t>
+          <t>['Reduction in single-use material consumption', 'Increase in recycling rates', 'Amount of waste diverted from landfills', 'Number of sustainable alternatives adopted', 'Public awareness and engagement levels', 'Compliance rate among businesses', 'Reduction in litter in public spaces', 'Carbon footprint reduction associated with material bans']</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>['Reduction in waste generation', 'Promotion of sustainable alternatives', 'Improvement in water quality', 'Enhanced environmental health in underserved communities', 'Creation of economic opportunities and job creation', 'Increased community engagement and empowerment', 'Support for local economies', 'Reduction of GHG emissions in the waste sector']</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+          <t>['Reduction in waste generation', 'Promotion of sustainable alternatives', 'Improvement in water quality', 'Enhanced environmental health in underserved communities', 'Creation of economic opportunities and job creation', 'Increased community engagement and empowerment', 'Support for local economies', 'Contribution to GHG reduction in the waste sector']</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3825,7 +3705,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Waste Efficiency" initiatives aim to achieve is for individuals and organizations to adopt more sustainable waste disposal practices and actively participate in optimizing waste management systems. This includes reducing waste generation, increasing recycling rates, and utilizing energy-efficient waste collection methods. By enhancing awareness and improving perceptions of waste management efficiency, the initiative seeks to encourage a shift towards behaviors that minimize resource consumption and environmental impact, ultimately contributing to reduced greenhouse gas emissions.</t>
+          <t>The targeted behavioral change that the "Waste Efficiency" initiatives aim to achieve is for individuals and organizations to adopt more sustainable waste disposal practices and actively participate in optimizing waste management systems. This includes reducing waste generation, increasing recycling rates, and utilizing energy-efficient waste collection methods. By enhancing awareness and perceptions of the environmental impact of waste, the initiative encourages people to prioritize waste efficiency in their daily activities, leading to a collective shift towards more responsible waste management behaviors.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3835,9 +3715,9 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>The "Waste Efficiency" initiatives promote equity and inclusion by focusing on underserved communities that often bear the brunt of inefficient waste management systems. By optimizing waste collection processes, these initiatives can reduce the environmental burden on vulnerable populations who may live near landfills or waste processing facilities. 
-Additionally, improving energy efficiency in waste management can lead to cost savings that can be reinvested in community services, benefiting low-income neighborhoods. The promotion of sustainable waste disposal practices also ensures that all community members, regardless of socioeconomic status, have access to environmentally responsible options, fostering a sense of shared responsibility and inclusion in climate action efforts. 
-Overall, these initiatives aim to create a more equitable waste management system that addresses the specific needs of underserved communities, ensuring they are not disproportionately affected by waste-related issues.</t>
+          <t>The "Waste Efficiency" initiatives promote equity and inclusion by focusing on underserved communities that often bear the brunt of inefficient waste management systems. By optimizing waste collection processes, these initiatives can reduce the environmental burden on vulnerable populations, who may live in areas disproportionately affected by waste and pollution. 
+Additionally, improving energy efficiency in waste management can lead to cost savings, which can be reinvested into community services or infrastructure that benefit low-income neighborhoods. The promotion of sustainable waste disposal practices also ensures that all community members, regardless of socioeconomic status, have access to environmentally responsible options, fostering a sense of shared responsibility and inclusion in climate action efforts. 
+Overall, these initiatives recognize the unique challenges faced by underserved communities and aim to create a more equitable waste management system that benefits all residents.</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3858,7 +3738,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>['Effective waste management infrastructure', 'Access to technology for optimizing waste collection', 'Collaboration with local governments and communities', 'Public awareness and education on waste disposal practices', 'Regulatory frameworks supporting sustainable waste management', 'Data collection and analysis for monitoring waste efficiency']</t>
+          <t>['Effective waste management infrastructure and technology', 'Collaboration with local governments and waste management authorities', 'Public awareness and education on waste disposal practices', 'Access to data for monitoring and optimizing waste collection processes', 'Investment in sustainable waste processing facilities']</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3868,12 +3748,9 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions by 80-100% in the waste sector', 'Improved waste management efficiency leading to reduced resource consumption', 'Enhanced community engagement and awareness in sustainable waste practices', 'Promotion of equity and inclusion for underserved communities', 'Potential cost savings reinvested in community services']</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions by 80-100% in the waste sector', 'Improved water quality through better waste management practices', 'Enhanced equity and inclusion for underserved communities', 'Increased community awareness and participation in sustainable waste practices', 'Cost savings from energy-efficient waste management reinvested into community services']</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3920,7 +3797,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Landfill Management" climate action aims to achieve is a reduction in waste generation and an increase in responsible waste disposal practices among individuals and communities. This includes encouraging people to adopt habits such as recycling, composting, and minimizing single-use plastics, ultimately leading to a shift towards more sustainable consumption patterns and a decreased ecological footprint associated with landfill sites.</t>
+          <t>The targeted behavioral change that the "Landfill Management" climate action aims to achieve is a reduction in waste generation and an increase in responsible waste disposal practices among individuals and communities. This includes encouraging people to adopt habits such as recycling, composting, and minimizing single-use items, ultimately leading to a shift towards more sustainable consumption patterns and a decreased ecological footprint associated with landfill sites.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3930,8 +3807,8 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>The "Landfill Management" strategies promote equity and inclusion by addressing the environmental impacts of landfill sites, which often disproportionately affect vulnerable and underserved communities. These communities frequently reside near landfills and are more susceptible to health risks associated with pollution and waste mismanagement. By implementing responsible and sustainable landfill practices, the action aims to reduce environmental degradation, thereby improving air and water quality for these populations.
-Additionally, effective waste reduction initiatives can create opportunities for community engagement and participation, allowing underserved groups to have a voice in local waste management decisions. This inclusion fosters a sense of ownership and empowerment among community members, ensuring that their needs and concerns are considered in the planning and execution of landfill management strategies. Overall, the action acknowledges and seeks to mitigate the inequities faced by vulnerable communities in relation to waste management and environmental health.</t>
+          <t>The "Landfill Management" strategies promote equity and inclusion by addressing the environmental impacts of landfill sites, which often disproportionately affect vulnerable and underserved communities. These communities frequently reside near landfills and are more susceptible to health risks associated with pollution and environmental degradation. By implementing responsible and sustainable landfill practices, the action aims to reduce these negative impacts, thereby improving the quality of life for residents in these areas.
+Additionally, effective waste reduction techniques can create opportunities for community engagement and participation, allowing underserved populations to have a voice in local environmental decisions. This inclusion fosters a sense of ownership and empowerment among community members, ensuring that their needs and concerns are considered in the management of landfill sites. Overall, the action acknowledges and seeks to mitigate the inequities faced by marginalized communities in relation to waste management and environmental health.</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3952,22 +3829,19 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>['Effective waste segregation practices to ensure proper disposal and recycling', 'Investment in technology for waste treatment and landfill monitoring', 'Community engagement and education on waste reduction and recycling', 'Regulatory frameworks and policies that support sustainable landfill practices', 'Collaboration with local governments and organizations for resource sharing and best practices']</t>
+          <t>['Effective waste segregation practices to ensure proper disposal and recycling', 'Investment in technology for waste treatment and landfill monitoring', 'Community engagement and education on waste reduction and recycling', 'Regulatory frameworks and policies supporting sustainable landfill practices', 'Collaboration with local governments and organizations for resource sharing and best practices']</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>['Reduction in landfill waste volume', 'Percentage of waste diverted from landfills', 'Rate of landfill gas capture', 'Soil and water quality metrics around landfill sites', 'Frequency of landfill inspections and compliance checks', 'Community engagement and awareness levels', 'Cost savings from improved landfill management practices', 'Reduction in greenhouse gas emissions from landfills']</t>
+          <t>['Reduction in landfill waste volume', 'Percentage of waste diverted from landfills', 'Rate of landfill gas capture', 'Soil and water quality around landfill sites', 'Frequency of landfill inspections', 'Public awareness and engagement levels', 'Cost savings from improved landfill management practices', 'Compliance with environmental regulations']</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from waste management', 'Improvement in air quality for nearby communities', 'Enhancement of water quality through better landfill practices', 'Promotion of responsible waste disposal and recycling habits', 'Empowerment and engagement of underserved communities in waste management decisions']</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from waste management', 'Improvement in air quality due to reduced landfill emissions', 'Enhancement of water quality by minimizing leachate from landfills', 'Promotion of equity and inclusion for underserved communities', 'Encouragement of sustainable waste disposal practices among individuals and communities']</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4014,7 +3888,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Source Separation" climate action aims to achieve is for residents to actively sort their waste into designated categories (recyclables, organic compostable waste, and general waste) at the point of disposal. This shift encourages individuals to adopt responsible waste management practices, thereby increasing recycling rates, reducing contamination of recyclable materials, and enhancing overall waste management efficiency. By fostering a culture of waste separation, the intervention seeks to instill a sense of environmental responsibility and promote sustainable behaviors within the community.</t>
+          <t>The targeted behavioral shift that the "Source Separation" climate action aims to achieve is for residents to actively sort their waste into designated categories (recyclables, organic compostable waste, etc.) at the point of disposal. This shift encourages individuals to adopt responsible waste management practices, thereby increasing recycling rates, reducing contamination of recyclable materials, and enhancing overall waste management efficiency. By fostering a culture of waste separation, the intervention seeks to change perceptions about waste disposal and promote environmentally conscious behaviors among community members.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4025,12 +3899,12 @@
       <c r="M38" t="inlineStr">
         <is>
           <t>The "Source Separation" policies promote equity and inclusion by:
-1. **Accessibility**: These policies can be designed to ensure that all communities, including vulnerable and underserved populations, have access to the necessary resources and education for effective waste separation. This may include providing bins and informational materials in multiple languages and formats.
-2. **Community Engagement**: By involving residents in the waste management process, these policies empower communities to take an active role in environmental stewardship, fostering a sense of ownership and responsibility among all demographic groups.
-3. **Job Creation**: Implementing source separation can create job opportunities in waste collection, sorting, and recycling facilities, particularly benefiting low-income individuals who may face barriers to employment.
-4. **Health Benefits**: Improved waste management through source separation can lead to cleaner neighborhoods, reducing health risks associated with waste accumulation, which disproportionately affects underserved communities.
-5. **Education and Awareness**: The initiative can include educational programs targeted at vulnerable populations, ensuring they understand the importance of recycling and composting, thus promoting environmental literacy and engagement across diverse communities. 
-Overall, the "Source Separation" policies inherently consider equity and inclusion by addressing the needs and challenges faced by underserved communities while promoting sustainable practices.</t>
+1. **Accessibility**: By implementing separate collection systems, cities can ensure that all residents, including those in vulnerable or underserved communities, have access to recycling and composting services. This helps to address disparities in waste management services.
+2. **Community Engagement**: These policies often involve outreach and education efforts tailored to diverse communities, ensuring that all residents understand the importance of waste separation and how to participate effectively, thereby fostering a sense of inclusion.
+3. **Job Creation**: The implementation of source separation can create job opportunities in waste management and recycling sectors, particularly benefiting underserved communities that may face higher unemployment rates.
+4. **Health Benefits**: By reducing contamination and improving waste management, these policies can lead to cleaner environments in underserved areas, which often face higher pollution levels and associated health risks.
+5. **Empowerment**: Encouraging residents to actively participate in waste separation empowers them to take ownership of their community’s environmental health, fostering a sense of agency and responsibility among all community members, particularly those from marginalized backgrounds. 
+Overall, the "Source Separation" policies are designed to be inclusive and equitable, ensuring that all community members can participate in and benefit from improved waste management practices.</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4056,17 +3930,14 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>['Percentage of waste diverted from landfills', 'Rate of participation in source separation programs', 'Volume of recyclables collected', 'Volume of organic waste composted', 'Contamination rate of recyclables', 'Public awareness and education levels', 'Cost savings from reduced landfill use', 'Reduction in greenhouse gas emissions', 'Frequency of waste collection services', 'Satisfaction levels of residents with waste management services']</t>
+          <t>['Percentage of waste diverted from landfills', 'Rate of participation in source separation programs', 'Volume of recyclables collected', 'Volume of organic waste composted', 'Contamination rate of recyclables', 'Public awareness and education levels', 'Cost savings from reduced landfill use', 'Reduction in greenhouse gas emissions from waste management']</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>['Increased recycling rates', 'Reduced contamination of recyclable materials', 'Enhanced waste management efficiency', 'Promotion of environmental responsibility', 'Empowerment of underserved communities', 'Job creation in waste management sector', 'Improved neighborhood cleanliness and health outcomes', 'Increased environmental literacy and engagement']</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+          <t>['Increased recycling rates', 'Reduced contamination of recyclable materials', 'Enhanced waste management efficiency', 'Improved access to waste management services for underserved communities', 'Job creation in waste management and recycling sectors', 'Health benefits from cleaner environments', 'Empowerment of residents through active participation in waste separation']</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4126,10 +3997,10 @@
           <t>The implementation of sanitary landfills as a climate action promotes equity and inclusion in several ways:
 1. **Access to Clean Environments**: By ensuring proper disposal of residual waste, sanitary landfills help reduce pollution and environmental hazards in underserved communities, which are often disproportionately affected by waste mismanagement.
 2. **Health Benefits**: Proper waste management minimizes health risks associated with improper disposal, such as contamination and disease, thereby protecting vulnerable populations who may have limited access to healthcare.
-3. **Job Creation**: The establishment and operation of sanitary landfills can create job opportunities for local residents, particularly in underserved areas, contributing to economic equity.
-4. **Community Engagement**: The planning and management of sanitary landfills can involve local communities, ensuring that their voices are heard and their needs are considered, fostering a sense of inclusion.
+3. **Job Creation**: The establishment and maintenance of sanitary landfills can create job opportunities for local residents, particularly in underserved areas, contributing to economic equity.
+4. **Community Engagement**: The planning and operation of sanitary landfills can involve local communities, ensuring that their voices are heard and their needs are considered, fostering a sense of inclusion.
 5. **Sustainable Practices**: By promoting sustainable waste disposal practices, the action supports long-term environmental justice, benefiting all community members, especially those in vulnerable situations who may rely more heavily on local natural resources. 
-Overall, the action of implementing sanitary landfills takes into account the needs of vulnerable and underserved communities by addressing environmental health, economic opportunities, and community involvement.</t>
+Overall, the action of implementing sanitary landfills addresses the needs of underserved communities by prioritizing their health, economic opportunities, and environmental safety.</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4160,12 +4031,9 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>['Reduction of greenhouse gas emissions by 60-79% in the waste sector', 'Improved air quality due to reduced pollution from improper waste disposal', 'Enhanced water quality by minimizing contamination from waste', 'Promotion of sustainable waste disposal practices among residents and businesses', 'Creation of job opportunities in local communities', 'Increased community engagement and inclusion in waste management decisions', 'Health benefits for vulnerable populations through reduced environmental hazards']</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+          <t>['Reduction of greenhouse gas emissions by 60-79% in the waste sector', 'Improved air quality due to reduced pollution from waste mismanagement', 'Enhanced water quality through proper waste disposal practices', 'Increased job opportunities in local communities', 'Promotion of sustainable waste disposal practices among residents and businesses', 'Health benefits for vulnerable populations through reduced environmental hazards', 'Community engagement in waste management planning and operations']</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4212,7 +4080,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Gas Management" climate action aims to achieve is the increased adoption of sustainable waste management practices among individuals and organizations. This includes actively participating in and supporting initiatives that capture leachate and manage landfill gas, thereby reducing greenhouse gas emissions. The intervention encourages people to recognize the importance of effective waste management systems and to engage in behaviors that prioritize environmental sustainability, such as reducing waste generation, recycling, and supporting policies that enhance landfill gas management. Ultimately, this shift aims to foster a collective commitment to more responsible waste disposal and management practices, contributing to broader climate action goals.</t>
+          <t>The targeted behavioral change that the "Gas Management" climate action aims to achieve is the increased adoption of sustainable waste management practices among individuals and organizations. This includes actively participating in and supporting initiatives that capture leachate and manage landfill gas, thereby reducing greenhouse gas emissions. By fostering a perception of the importance and effectiveness of these practices, the intervention seeks to encourage people to prioritize waste reduction, recycling, and proper disposal methods, ultimately leading to a broader cultural shift towards sustainability in waste management.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4223,7 +4091,7 @@
       <c r="M40" t="inlineStr">
         <is>
           <t>The "Gas Management" action in sanitary landfills promotes equity and inclusion by addressing environmental hazards that disproportionately affect vulnerable or underserved communities. By capturing leachate and managing landfill gas, this action reduces harmful emissions that can lead to health issues, particularly in low-income neighborhoods often located near landfills. 
-Additionally, effective gas management systems can improve local air quality and reduce the risk of environmental degradation, benefiting communities that may lack resources to advocate for their health and safety. This action also supports sustainable waste management practices, which can create job opportunities and enhance community resilience, further empowering underserved populations. Overall, the implementation of gas management systems demonstrates a commitment to protecting the health and well-being of all community members, particularly those who are most vulnerable.</t>
+Additionally, effective gas management systems contribute to improved air quality and public health, benefiting all community members, especially those who may lack access to healthcare resources. The implementation of these systems can also create job opportunities in the local area, providing economic benefits to underserved populations. Overall, this climate action recognizes and addresses the specific needs of vulnerable communities, ensuring they receive the environmental and health protections necessary for equitable living conditions.</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4249,17 +4117,14 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>['Volume of landfill gas captured', 'Percentage reduction in greenhouse gas emissions', 'Amount of leachate treated', 'Efficiency of gas management system', 'Rate of landfill gas utilization', 'Frequency of gas monitoring', 'Compliance with environmental regulations', 'Cost savings from gas management initiatives']</t>
+          <t>['Reduction in greenhouse gas emissions (CO2 equivalent)', 'Volume of landfill gas captured', 'Percentage of leachate treated', 'Energy generated from captured landfill gas', 'Cost savings from gas management systems', 'Compliance rate with environmental regulations', 'Reduction in odor complaints', 'Increase in landfill lifespan']</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>['Reduction of greenhouse gas emissions by 60-79% in the waste sector', 'Improvement of local air quality', 'Promotion of sustainable waste management practices', 'Enhanced health and safety for vulnerable communities', 'Creation of job opportunities in waste management', 'Increased community resilience and engagement in environmental initiatives']</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+          <t>['Reduction of greenhouse gas emissions by 60-79% in the waste sector', 'Improvement in air quality', 'Promotion of sustainable waste management practices', 'Enhanced public health in vulnerable communities', 'Creation of job opportunities in local areas']</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4306,7 +4171,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>The targeted behavioral shift that the "Volume-Based Collection" climate action aims to achieve is a reduction in waste generation among residents. By implementing fees or incentives based on the amount of waste produced, the intervention encourages individuals to minimize their waste output. This shift is expected to lead to more conscious consumption habits, increased recycling, and overall waste reduction, contributing to broader climate goals of decreasing greenhouse gas emissions associated with waste management.</t>
+          <t>The targeted behavioral shift that the "Volume-Based Collection" climate action aims to achieve is a reduction in waste generation among residents. By implementing fees or incentives based on the amount of waste produced, the intervention encourages individuals to minimize their waste output. This shift is expected to lead to more sustainable waste management practices, as residents become more conscious of their consumption habits and actively seek to reduce the volume of waste they generate, ultimately contributing to broader waste reduction goals and lower greenhouse gas emissions.</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -4318,11 +4183,10 @@
         <is>
           <t>The "Volume-Based Collection" policies promote equity and inclusion by:
 1. **Incentivizing Participation**: By linking fees or incentives to the amount of waste generated, the policy encourages all residents, including those from vulnerable or underserved communities, to actively participate in waste reduction efforts. This can empower these communities to take ownership of their waste management practices.
-2. **Economic Relief**: For low-income households, reducing waste can lead to lower fees, providing financial relief. This aspect ensures that the policy does not disproportionately burden those who may already be facing economic challenges.
-3. **Awareness and Education**: The implementation of volume-based fees often comes with educational initiatives that inform residents about waste reduction strategies. This education can be particularly beneficial for underserved communities, equipping them with the knowledge to make informed choices.
-4. **Community Engagement**: The policy can foster community engagement by encouraging collaboration among residents to share best practices for waste reduction. This inclusivity can strengthen community ties and ensure that all voices are heard in the waste management process.
-5. **Targeted Support**: The design of the policy can include targeted support for vulnerable populations, ensuring that they have access to resources and tools needed to effectively reduce waste, thus promoting equitable outcomes. 
-Overall, the "Volume-Based Collection" policies are structured to consider the needs and circumstances of vulnerable and underserved communities, promoting a more equitable approach to climate action.</t>
+2. **Financial Relief for Low-Volume Generators**: Households that produce less waste, often found in underserved communities, may benefit from lower fees, providing them with financial relief and encouraging sustainable practices without imposing a disproportionate burden.
+3. **Awareness and Education**: The implementation of volume-based policies often includes educational components that inform residents about waste reduction strategies. This can particularly benefit underserved communities by providing them with knowledge and resources to reduce waste effectively.
+4. **Community Engagement**: The policy can foster community engagement by involving residents in discussions about waste management and reduction strategies, ensuring that the voices of vulnerable populations are heard and considered in the decision-making process.
+5. **Equitable Resource Allocation**: By focusing on waste reduction, the policy can lead to more equitable allocation of resources for waste management services, ensuring that underserved communities receive adequate support and infrastructure to manage their waste effectively.</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4343,7 +4207,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>['Effective communication strategies to inform residents about the policies and their benefits', 'Robust waste measurement systems to accurately track waste generation', 'Community engagement initiatives to encourage participation and compliance', 'Support from local government and waste management authorities to implement and enforce the policies', 'Availability of alternative waste reduction options and resources for residents']</t>
+          <t>['Effective communication and education programs to inform residents about the benefits of waste reduction', 'A reliable waste measurement system to accurately track the volume of waste generated', 'Support from local government and policymakers to implement and enforce the volume-based collection policies', 'Availability of alternative waste management options, such as recycling and composting facilities', 'Community engagement and participation to foster a culture of sustainability and waste reduction']</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4353,12 +4217,9 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>['Encourages waste reduction among residents', 'Promotes conscious consumption habits', 'Increases recycling rates', 'Provides economic relief for low-income households', 'Empowers vulnerable communities through participation', 'Fosters community engagement and collaboration', 'Supports educational initiatives for waste reduction', 'Achieves significant GHG reduction potential in the waste sector']</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+          <t>['Encourages waste reduction among residents', 'Promotes equity and inclusion in waste management', 'Provides financial relief for low-waste households', 'Fosters community engagement and education', 'Contributes to significant GHG reduction in the waste sector']</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4405,7 +4266,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>The targeted behavioral change that the "Waste Collection" initiative aims to achieve is increased participation in proper waste disposal practices among residents. By ensuring universal access to waste collection services, the initiative encourages individuals to dispose of their waste responsibly, reducing littering and promoting recycling and composting behaviors. This shift in behavior contributes to a cleaner urban environment and fosters a culture of sustainable waste management, ultimately leading to reduced greenhouse gas emissions associated with improper waste disposal.</t>
+          <t>The targeted behavioral change that the "Waste Collection" initiative aims to achieve is increased participation in proper waste disposal practices among residents. By ensuring universal access to waste collection services, the initiative encourages individuals to dispose of their waste responsibly, reducing littering and promoting recycling and composting behaviors. This shift in behavior contributes to a cleaner urban environment and supports sustainable waste management practices, ultimately leading to a reduction in greenhouse gas emissions associated with improper waste disposal.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4441,17 +4302,14 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>['Percentage of residents with access to waste collection services', 'Volume of waste collected per capita', 'Percentage reduction in illegal dumping incidents', 'Recycling rate of collected waste', 'Customer satisfaction rate with waste collection services', 'Frequency of waste collection services', 'Cost-effectiveness of waste collection operations', 'Reduction in landfill waste']</t>
+          <t>['Percentage of residents with access to waste collection services', 'Volume of waste collected per capita', 'Percentage reduction in illegal dumping incidents', 'Recycling rate of collected waste', 'Customer satisfaction rate with waste collection services', 'Frequency of waste collection services', 'Cost-effectiveness of waste collection operations', 'Reduction in landfill waste', 'Number of public awareness campaigns conducted']</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from improved waste management practices', 'Enhanced air quality due to decreased littering and waste accumulation', 'Improved water quality by reducing waste runoff', 'Promotion of equity and inclusion through universal access to waste disposal services', 'Increased community engagement and awareness regarding sustainable waste practices']</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions from improved waste disposal practices', 'Improvement in air quality due to reduced littering and waste accumulation', 'Enhancement of water quality by preventing waste contamination', 'Promotion of equity and inclusion in waste management services', 'Increased community engagement and awareness regarding sustainable waste practices']</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4504,7 +4362,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>The "Biodiversity Expansion" initiatives promote equity and inclusion by ensuring that underserved communities have access to preserved green spaces, which are often lacking in urban areas. By focusing on enhancing biodiversity in these neighborhoods, the action addresses environmental justice by improving the quality of life for vulnerable populations who may face higher exposure to pollution and limited access to nature. Additionally, the creation of resilient environments supports diverse flora and fauna, which can lead to educational opportunities and community engagement, fostering a sense of ownership and stewardship among residents. This approach not only benefits the ecosystem but also empowers marginalized communities by involving them in the preservation and expansion of their local environments.</t>
+          <t>The "Biodiversity Expansion" initiatives promote equity and inclusion by ensuring that underserved communities have access to preserved green spaces, which are often lacking in urban areas. By focusing on enhancing biodiversity in these neighborhoods, the action addresses environmental justice by improving the quality of life for vulnerable populations who may face higher exposure to pollution and limited access to nature. Additionally, the creation of resilient environments supports diverse flora and fauna, which can enhance local ecosystems that these communities rely on for recreational, cultural, and economic benefits. Overall, the initiative fosters a sense of community ownership and involvement in the preservation of natural habitats, ensuring that the voices of marginalized groups are included in urban planning and environmental stewardship.</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4525,7 +4383,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>['Availability of funding for green space projects', 'Community engagement and support for biodiversity initiatives', 'Collaboration with local governments and environmental organizations', 'Access to scientific research on local ecosystems', 'Land use policies that favor the preservation of natural habitats', 'Public awareness and education on the importance of biodiversity']</t>
+          <t>['Availability of funding for green space projects', 'Community engagement and support for biodiversity initiatives', 'Collaboration with local governments and environmental organizations', 'Access to scientific research on local ecosystems', 'Regulatory frameworks that support land conservation and urban planning']</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4535,12 +4393,9 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>['Enhancement of urban biodiversity', 'Improvement of air quality', 'Improvement of water quality', 'Increased public engagement in green space preservation', 'Promotion of environmental justice', 'Empowerment of underserved communities', 'Potential GHG reduction of 40-59% in the AFOLU sector']</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
+          <t>['Enhances urban biodiversity', 'Improves air quality', 'Improves water quality', 'Supports habitat preservation', 'Promotes equity and inclusion in green space access', 'Encourages community engagement in environmental stewardship', 'Potential GHG reduction of 40-59% in AFOLU sector']</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4579,7 +4434,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>The targeted behavioral shift that the "Low-Carbon Energy" climate action aims to achieve is the increased adoption and utilization of low-carbon energy sources among individuals and organizations. This includes encouraging people to transition from fossil fuel-based energy consumption to renewable energy options, such as solar, wind, and hydroelectric power. The intervention types—programs and initiatives, along with infrastructure investments—are designed to enhance perceptions of the availability, affordability, and convenience of low-carbon energy, ultimately leading to a significant reduction in greenhouse gas emissions through widespread changes in energy consumption behaviors.</t>
+          <t>The targeted behavioral shift that the "Low-Carbon Energy" climate action aims to achieve is the increased adoption and utilization of low-carbon energy sources among individuals and organizations. This includes encouraging people to transition from fossil fuel-based energy consumption to renewable energy options, such as solar, wind, and hydroelectric power. The intervention seeks to foster a mindset that prioritizes eco-friendly energy choices, leading to a broader societal shift towards sustainable energy practices and reduced greenhouse gas emissions.</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4589,9 +4444,8 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>The "Low-Carbon Energy" climate action promotes equity and inclusion by prioritizing the development and deployment of renewable energy sources that can benefit vulnerable or underserved communities. By focusing on eco-friendly energy generation, this action helps to reduce the disproportionate environmental burdens faced by these communities, which often experience higher levels of pollution and health risks associated with traditional energy sources.
-Additionally, the transition to low-carbon energy can create job opportunities in renewable energy sectors, providing economic benefits to underserved populations. This can help to address economic disparities and promote workforce development in communities that have historically been marginalized.
-Furthermore, the emphasis on low or zero carbon emissions aligns with the needs of vulnerable communities that are often the most affected by climate change impacts. By ensuring access to clean energy, this action supports resilience and adaptation efforts, fostering a more equitable energy landscape that considers the needs and voices of all community members.</t>
+          <t>The "Low-Carbon Energy" climate action promotes equity and inclusion by prioritizing the development and implementation of renewable energy sources that are accessible to vulnerable and underserved communities. By focusing on eco-friendly energy generation, this action helps to reduce the disproportionate environmental burdens faced by these communities, which often experience higher levels of pollution and health risks associated with traditional energy sources.
+Additionally, the transition to low-carbon energy can create job opportunities in these communities, fostering economic empowerment and resilience. This approach also considers the need for affordable energy solutions, ensuring that low-income households can benefit from cleaner energy options without facing financial strain. Overall, the action aligns with principles of equity by addressing the specific needs and challenges of underserved populations in the context of climate change mitigation.</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -4608,22 +4462,19 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>['Availability of renewable energy sources such as solar, wind, and hydro', 'Technological advancements in energy generation and storage', 'Investment in infrastructure for low-carbon energy systems', 'Government policies and regulations promoting low-carbon energy', 'Public awareness and acceptance of low-carbon energy solutions']</t>
+          <t>['Availability of renewable energy sources such as solar, wind, and hydro', 'Technological advancements in energy generation and storage', 'Investment in infrastructure for low-carbon energy systems', 'Government policies and regulations supporting low-carbon initiatives', 'Public awareness and acceptance of low-carbon energy solutions']</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>['Percentage of energy generated from low-carbon sources', 'Reduction in carbon emissions (tons)', 'Energy efficiency improvements (%)', 'Investment in renewable energy technologies ($)', 'Number of low-carbon energy projects initiated', 'Grid carbon intensity (gCO2/kWh)', 'Public awareness and engagement metrics', 'Job creation in the renewable energy sector']</t>
+          <t>['Percentage of energy generated from low-carbon sources', 'Reduction in carbon emissions (tons)', 'Energy efficiency improvements (kWh saved)', 'Investment in renewable energy technologies ($)', 'Number of low-carbon energy projects implemented', 'Grid carbon intensity (gCO2/kWh)', 'Public awareness and engagement metrics', 'Job creation in the renewable energy sector']</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions', 'Improvement in air quality', 'Promotion of equity and inclusion in energy access', 'Creation of job opportunities in renewable energy sectors', 'Support for resilience and adaptation in vulnerable communities']</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions', 'Improvement in air quality', 'Promotion of equity and inclusion for underserved communities', 'Creation of job opportunities in renewable energy sectors']</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4678,9 +4529,6 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4735,9 +4583,6 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4786,8 +4631,9 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>The "Coastal Protection" strategies inherently promote equity and inclusion by prioritizing the protection of vulnerable and underserved communities that are often the most affected by rising sea levels and coastal erosion. These communities typically have limited resources to adapt to climate impacts, making them more susceptible to displacement and loss of property. By constructing sea walls and protective structures, the action directly addresses the needs of these populations, ensuring their safety and stability.
-Additionally, the implementation of such protective measures can involve local community engagement, allowing residents to participate in decision-making processes. This inclusion fosters a sense of ownership and empowerment among community members, particularly those from marginalized backgrounds. By focusing on areas that are at high risk, the action ensures that resources are allocated to those who need them most, thereby promoting social equity in climate resilience efforts.</t>
+          <t>The "Coastal Protection" strategies inherently promote equity and inclusion by focusing on the protection of vulnerable coastal communities that are often the most affected by climate change impacts, such as rising sea levels and erosion. These communities frequently include low-income populations, marginalized groups, and those with limited resources to adapt to environmental changes. 
+By constructing sea walls and protective structures, the action directly addresses the needs of these underserved populations, ensuring their safety and stability in the face of climate threats. Additionally, the implementation of such strategies often involves community engagement and input, allowing affected residents to have a voice in the decision-making process, which fosters a sense of ownership and inclusion. 
+Furthermore, the focus on enhancing resilience in these areas helps to safeguard not only the physical infrastructure but also the social and economic well-being of the communities, thereby promoting equitable access to resources and opportunities in the context of climate adaptation.</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -4808,22 +4654,19 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>['Availability of funding for construction and maintenance of protective structures', 'Access to engineering expertise for designing effective sea walls and coastal defenses', 'Collaboration with local communities to ensure the strategies meet their needs', 'Regulatory approvals and compliance with environmental laws', 'Research and data on coastal erosion patterns and sea level rise projections']</t>
+          <t>['Availability of funding and resources for construction and maintenance of protective structures', 'Access to engineering expertise for designing effective sea walls and coastal defenses', 'Collaboration with local communities and stakeholders for planning and implementation', 'Regulatory approvals and compliance with environmental laws and policies', 'Research and data on coastal erosion patterns and sea level rise projections']</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>['Reduction in coastal erosion rate', 'Increase in coastal property value', 'Number of communities protected', 'Extent of coastline protected', 'Frequency of flooding events', 'Community awareness and engagement levels', 'Cost-effectiveness of protective measures', 'Biodiversity health in coastal areas', 'Maintenance and durability of protective structures', 'Stakeholder satisfaction with coastal protection measures']</t>
+          <t>['Reduction in coastal erosion rate', 'Increase in coastal property value', 'Number of communities protected', 'Extent of area protected by sea walls', 'Frequency of flooding events', 'Community awareness and preparedness levels', 'Cost-effectiveness of protective measures', 'Biodiversity health in coastal areas']</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>['Enhances resilience of coastal communities', 'Protects vulnerable populations from climate impacts', 'Promotes social equity in climate adaptation', 'Encourages community engagement and empowerment', 'Mitigates risks of displacement and property loss']</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+          <t>['Enhances resilience of vulnerable coastal communities', 'Protects against flooding and coastal erosion', 'Promotes equity and inclusion for marginalized groups', 'Fosters community engagement in decision-making', 'Safeguards social and economic well-being of communities']</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4872,8 +4715,8 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>The "Water Storage" and pump storage solutions directly promote equity and inclusion by ensuring that vulnerable or underserved communities have access to reliable water resources, particularly during times of scarcity. By enhancing water resource management, these solutions help to mitigate the disproportionate impacts of climate change on marginalized populations who often face greater challenges in accessing clean and sufficient water. 
-Additionally, the focus on sustainable water use supports the long-term resilience of these communities, allowing them to better cope with climate-related challenges. This action recognizes the specific needs of underserved populations, ensuring that they are not left behind in the face of water scarcity and climate impacts, thereby fostering a more equitable distribution of resources and opportunities for all.</t>
+          <t>The "Water Storage" and pump storage solutions directly promote equity and inclusion by ensuring that vulnerable or underserved communities have reliable access to water resources, particularly during times of scarcity. By enhancing water resource management, these solutions help to mitigate the disproportionate impacts of climate change on these communities, which often face greater challenges in accessing clean and sufficient water. 
+Additionally, the focus on sustainable water use supports the long-term resilience of these communities, allowing them to better cope with climate-related challenges. This action recognizes the specific needs of underserved populations, ensuring that they are not left behind in the face of water scarcity and climate impacts. Overall, the implementation of these water management strategies fosters a more equitable distribution of resources, empowering vulnerable communities to thrive despite environmental challenges.</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -4894,12 +4737,12 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>['Availability of suitable sites for water storage infrastructure', 'Access to technology for efficient pump storage systems', 'Investment and funding for construction and maintenance of water storage facilities', 'Regulatory frameworks supporting water resource management', 'Community engagement and support for water management initiatives', 'Climate data and forecasting to inform water storage needs']</t>
+          <t>['Availability of suitable sites for water storage infrastructure', 'Access to technology for efficient pump storage systems', 'Investment and funding for construction and maintenance of water storage facilities', 'Collaboration with local communities for sustainable water management practices', 'Regulatory frameworks supporting water resource management and climate adaptation strategies']</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>['Volume of water stored', 'Percentage reduction in water scarcity incidents', 'Rate of water usage efficiency', 'Number of communities benefiting from water storage solutions', 'Cost savings from improved water management', 'Increase in agricultural productivity due to reliable water supply', 'Resilience score of local ecosystems', 'Frequency of maintenance and operational issues in storage systems']</t>
+          <t>['Volume of water stored', 'Percentage reduction in water scarcity incidents', 'Rate of water usage efficiency', 'Number of communities benefiting from water storage solutions', 'Cost savings from improved water management', 'Increase in agricultural productivity due to reliable water supply', 'Resilience score of local ecosystems', 'Frequency of water supply disruptions', 'User satisfaction with water availability', 'Reduction in water-related conflicts']</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -4907,9 +4750,6 @@
           <t>['Enhances water resource management', 'Increases resilience to droughts', 'Promotes equity and inclusion for underserved communities', 'Improves water quality', 'Supports sustainable water use']</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4981,22 +4821,19 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>['Availability of funding for eco-engineering projects', 'Collaboration with local governments and stakeholders for planning and implementation', 'Access to advanced technology and materials for drainage improvement', 'Data on historical weather patterns and flood risks for effective design', 'Community engagement and support for adaptation measures']</t>
+          <t>['Availability of funding for eco-engineering projects', 'Collaboration with local governments and stakeholders for planning and implementation', 'Access to advanced technology and materials for drainage improvements', 'Data on historical weather patterns and flood risks for effective design', 'Community engagement and support for adaptation measures']</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>['Reduction in flood incidents', 'Improvement in drainage capacity', 'Response time to flooding events', 'Percentage of urban areas with upgraded drainage systems', 'Community satisfaction with drainage improvements', 'Cost-effectiveness of eco-engineering solutions', 'Biodiversity enhancement in drainage areas', 'Reduction in waterlogging duration', 'Increase in green infrastructure integration']</t>
+          <t>['Reduction in flood incidents', 'Improvement in drainage capacity', 'Response time to flooding events', 'Community satisfaction with drainage systems', 'Cost savings from reduced flood damage', 'Increase in green infrastructure elements', 'Biodiversity improvement in drainage areas', 'Public awareness and education on drainage issues']</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>['Enhanced urban resilience against flooding', 'Protection of vulnerable communities from extreme weather events', 'Improved safety and well-being for underserved populations', 'Support for social and economic stability in low-income neighborhoods']</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+          <t>['Enhanced urban resilience against flooding', 'Protection of vulnerable and underserved communities', 'Reduction of risk and damages in low-income neighborhoods', 'Promotion of equity and inclusion in urban planning']</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5045,8 +4882,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>The "Cyclone Shelters" initiative promotes equity and inclusion by specifically targeting vulnerable communities that are most at risk during extreme weather events. By providing safe havens in areas prone to flooding and cyclones, the action directly addresses the needs of underserved populations who may lack the resources to evacuate or protect themselves during such disasters. 
-Additionally, the eco-engineering aspect of the shelters ensures that the solutions are sustainable and environmentally friendly, which can benefit the community as a whole, including marginalized groups. The focus on community resilience fosters a sense of collective safety and empowerment, allowing residents to feel more secure in the face of climate-related challenges. Overall, this action acknowledges and prioritizes the safety and well-being of those who are often disproportionately affected by climate change.</t>
+          <t>The "Cyclone Shelters" initiative promotes equity and inclusion by specifically targeting vulnerable communities that are most at risk during extreme weather events. By providing safe havens, the action ensures that marginalized populations, who often lack the resources to evacuate or protect themselves during cyclones and floods, have access to a secure refuge. This initiative acknowledges the unique challenges faced by underserved communities, such as limited mobility, economic constraints, and inadequate housing, thereby prioritizing their safety and resilience. Additionally, the eco-engineering aspect of the shelters may incorporate local materials and labor, fostering community involvement and economic opportunities for residents. Overall, the action is designed to enhance the safety and well-being of those who are disproportionately affected by climate change, thereby promoting social equity and inclusion.</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -5067,22 +4903,19 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>['Availability of suitable land for constructing cyclone shelters', 'Funding and financial resources for building and maintaining shelters', 'Community engagement and support for the initiative', 'Access to materials and technology for eco-engineering solutions', 'Collaboration with local government and disaster management agencies', 'Training and preparedness programs for residents on using the shelters effectively']</t>
+          <t>['Availability of suitable land for constructing cyclone shelters', 'Funding and financial resources for building and maintaining shelters', 'Community engagement and support for the initiative', 'Access to materials and technology for eco-engineering solutions', 'Collaboration with local government and disaster management agencies', 'Training and preparedness programs for residents on using the shelters']</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>['Number of cyclone shelters constructed', 'Capacity of shelters (number of people accommodated)', 'Frequency of use during extreme weather events', 'Community awareness and preparedness training sessions conducted', 'Reduction in casualties during cyclone events', 'Time taken for evacuation to shelters', 'Post-event satisfaction surveys from shelter users', 'Maintenance and operational readiness of shelters']</t>
+          <t>['Number of cyclone shelters constructed', 'Capacity of shelters (number of people accommodated)', 'Frequency of use during extreme weather events', 'Community awareness and preparedness training sessions conducted', 'Reduction in casualties during cyclone events', 'Feedback from shelter users on safety and accessibility', 'Maintenance and operational status of shelters', 'Partnerships with local organizations for shelter management']</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>['Enhances community resilience during extreme weather events', 'Provides safe havens for vulnerable populations', 'Promotes equity and inclusion for underserved communities', 'Supports sustainable and environmentally friendly solutions', 'Fosters a sense of collective safety and empowerment']</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+          <t>['Enhances community resilience during extreme weather events', 'Provides safe havens for vulnerable populations', 'Promotes social equity and inclusion', 'Fosters community involvement and economic opportunities', 'Addresses the unique challenges faced by underserved communities']</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5131,9 +4964,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>The "White Roofs" climate action promotes equity and inclusion by specifically targeting urban areas where vulnerable or underserved communities often reside. These communities are typically more affected by the urban heat island effect, leading to higher temperatures and increased energy costs. By implementing reflective roofing materials, this action directly addresses the disproportionate heat exposure faced by these populations, thereby improving their living conditions.
-Additionally, the initiative can create job opportunities in the installation and maintenance of white roofs, providing economic benefits to local residents, particularly those from underserved backgrounds. This not only enhances community resilience but also fosters a sense of ownership and involvement in climate action efforts.
-Overall, the "White Roofs" strategy is designed to alleviate environmental burdens on marginalized communities, ensuring that they benefit from climate adaptation measures and promoting a more equitable urban environment.</t>
+          <t>The "White Roofs" climate action promotes equity and inclusion by specifically targeting urban areas, which often house vulnerable and underserved communities that are disproportionately affected by the urban heat island effect. By implementing reflective roofing materials, this action directly benefits low-income neighborhoods that may lack access to adequate cooling resources, thereby reducing energy costs and improving indoor comfort. Additionally, the initiative can create job opportunities in the installation and maintenance of these roofs, providing economic benefits to local residents. Overall, the action addresses environmental justice by focusing on areas that face the greatest climate-related challenges, ensuring that marginalized communities receive the support needed to enhance their resilience to heat and climate change.</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -5154,22 +4985,19 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>['Availability of reflective roofing materials', 'Awareness and acceptance of eco-engineering practices among builders and homeowners', 'Regulatory support and incentives for implementing white roofs', 'Access to funding for retrofitting existing buildings', 'Collaboration between urban planners and environmental organizations']</t>
+          <t>['Availability of reflective roofing materials', 'Awareness and acceptance of eco-engineering practices among builders and homeowners', 'Regulatory support or incentives for implementing white roofs', 'Access to funding or financial resources for installation', 'Collaboration between urban planners and environmental organizations']</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>['Reduction in surface temperature', 'Percentage of buildings with white roofs', 'Energy savings from reduced cooling costs', 'Decrease in urban heat island effect', 'Increase in albedo values of roofing materials', 'Reduction in greenhouse gas emissions', 'Improvement in indoor thermal comfort', 'Community engagement and participation rates']</t>
+          <t>['Reduction in surface temperature', 'Percentage of buildings with white roofs', 'Energy savings in cooling costs', 'Reduction in urban heat island effect', 'Increase in albedo values', 'Improvement in air quality', 'Community engagement and participation rate', 'Reduction in greenhouse gas emissions']</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>['Mitigates urban heat island effect', 'Improves living conditions for vulnerable communities', 'Creates job opportunities in installation and maintenance', 'Enhances community resilience', 'Promotes equity and inclusion in climate adaptation']</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+          <t>['Mitigates urban heat island effect', 'Enhances climate resilience for vulnerable communities', 'Reduces energy costs for low-income households', 'Creates job opportunities in installation and maintenance', 'Promotes environmental justice']</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5218,8 +5046,13 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>The "Public Shading" climate action promotes equity and inclusion by ensuring that vulnerable or underserved communities have access to comfortable and safe outdoor spaces. By implementing shade structures in public areas, this initiative directly addresses the needs of populations that may be disproportionately affected by heat stress, such as low-income families, the elderly, and individuals with health conditions. 
-Additionally, the focus on public spaces ensures that all community members, regardless of socioeconomic status, can benefit from the enhanced outdoor comfort provided by these shade structures. This action fosters inclusive urban design by prioritizing the well-being of those who may lack access to private shaded areas, thereby promoting social equity in the face of climate challenges.</t>
+          <t>The "Public Shading" climate action promotes equity and inclusion by:
+1. **Accessibility for Vulnerable Populations**: By providing shade in public spaces, the action directly benefits vulnerable communities, including low-income individuals, the elderly, and those with health conditions that make them more susceptible to heat stress.
+2. **Enhanced Outdoor Comfort**: The implementation of shade structures improves outdoor comfort for all community members, encouraging greater use of public spaces by underserved populations who may otherwise avoid them due to extreme heat.
+3. **Sustainable Urban Design**: The focus on eco-engineering and sustainable design ensures that the benefits of climate action are integrated into the urban environment, fostering inclusive spaces that serve diverse community needs.
+4. **Community Engagement**: The development of public shading initiatives often involves community input, ensuring that the voices of underserved populations are heard and considered in the planning process.
+5. **Health Benefits**: By reducing heat stress, the action contributes to better health outcomes for marginalized groups who may lack access to air conditioning or other cooling resources, thereby promoting health equity.
+Overall, the "Public Shading" initiative addresses the needs of vulnerable communities, ensuring that climate adaptation measures are inclusive and equitable.</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -5240,22 +5073,19 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>['Availability of funding for the construction and maintenance of shade structures', 'Collaboration with urban planners and architects for design integration', 'Community engagement to ensure public support and usage', 'Access to suitable materials that are environmentally friendly', 'Compliance with local regulations and zoning laws regarding public space modifications']</t>
+          <t>['Availability of funding for the construction and maintenance of shade structures', 'Collaboration with urban planners and architects for design integration', 'Community engagement to ensure public support and usage', 'Assessment of local climate conditions to determine optimal shading solutions', 'Compliance with local regulations and zoning laws regarding public space modifications']</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>['Number of shade structures installed', 'Increase in public space usage', 'Reduction in surface temperature', 'Decrease in heat-related health incidents', 'User satisfaction ratings', 'Biodiversity improvement in shaded areas', 'Energy savings in nearby buildings', 'Community engagement and participation rates']</t>
+          <t>['Reduction in average surface temperature in shaded areas', 'Increase in public space usage during peak heat hours', 'Number of shade structures installed', 'User satisfaction ratings of shaded areas', 'Decrease in heat-related health incidents', 'Increase in biodiversity in shaded areas', 'Energy savings in nearby buildings due to reduced heat', 'Community engagement and participation in shading initiatives']</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>['Enhances outdoor comfort', 'Reduces heat stress', 'Promotes sustainable urban design', 'Improves equity and inclusion for vulnerable communities', 'Addresses needs of low-income families and the elderly', 'Fosters social equity in public spaces']</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+          <t>['Enhances outdoor comfort for all community members', 'Reduces heat stress, particularly benefiting vulnerable populations', 'Promotes health equity by improving health outcomes for marginalized groups', 'Encourages greater use of public spaces by underserved populations', 'Integrates community input in planning, fostering inclusivity']</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5304,8 +5134,8 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>The "Cool Pavement" initiatives promote equity and inclusion by specifically targeting urban areas where vulnerable or underserved communities often reside. These communities are typically more affected by heat-related challenges due to factors such as limited access to green spaces, inadequate housing, and socio-economic disparities. By implementing reflective materials that reduce heat absorption, the initiative directly addresses the disproportionate impact of urban heat islands on these populations, thereby improving their living conditions.
-Additionally, the initiative can enhance urban resilience for these communities by lowering ambient temperatures, which can lead to reduced energy costs and improved public health outcomes. This is particularly important for low-income households that may struggle with high energy bills and health issues related to extreme heat. By focusing on areas with the greatest need, the "Cool Pavement" initiatives ensure that the benefits of climate action are equitably distributed, fostering a more inclusive approach to urban planning and climate resilience.</t>
+          <t>The "Cool Pavement" initiatives promote equity and inclusion by specifically targeting urban areas where vulnerable or underserved communities often reside. These communities are typically more affected by heat-related challenges due to factors such as limited access to green spaces and higher exposure to urban heat islands. By implementing reflective materials in these neighborhoods, the initiative directly addresses the disproportionate impact of extreme heat on these populations, thereby enhancing their resilience.
+Additionally, the initiative can create local job opportunities in the installation and maintenance of cool pavements, benefiting community members and fostering economic inclusion. By prioritizing areas with the greatest need, the action ensures that the voices and needs of underserved communities are considered in climate adaptation strategies, promoting a more equitable approach to urban planning and climate resilience.</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -5326,7 +5156,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>['Availability of reflective materials suitable for urban infrastructure', 'Support from local government and urban planners for implementation', 'Funding and investment for the installation of cool pavement', 'Public awareness and acceptance of cool pavement initiatives', 'Collaboration with environmental and community organizations for outreach and education']</t>
+          <t>['Availability of reflective materials suitable for urban infrastructure', 'Support from local government and urban planners for implementation', 'Funding and financial resources for installation and maintenance', 'Public awareness and community engagement in climate action initiatives', 'Research and data on urban heat islands and their impacts']</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5336,12 +5166,9 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>['Mitigates heat-related challenges', 'Enhances urban resilience', 'Improves living conditions for vulnerable communities', 'Reduces energy costs for low-income households', 'Addresses urban heat islands', 'Promotes equity in urban planning']</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+          <t>['Enhances urban resilience to heatwaves', 'Promotes equity by targeting vulnerable communities', 'Creates local job opportunities', 'Addresses urban heat islands', 'Improves climate resilience in underserved areas']</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5391,8 +5218,8 @@
       <c r="M54" t="inlineStr">
         <is>
           <t>The "Water Savings" technologies, such as rainwater harvesting, promote equity and inclusion by directly addressing the needs of vulnerable and underserved communities that often face water scarcity and limited access to clean water resources. By implementing these technologies, the action ensures that marginalized populations can benefit from sustainable water use practices, which are crucial for their health and livelihoods.
-Additionally, the focus on eco-engineering efforts in this climate action highlights the importance of integrating local knowledge and community involvement in the design and implementation of water conservation strategies. This participatory approach empowers underserved communities, giving them a voice in the decision-making process and fostering a sense of ownership over the water resources.
-Furthermore, the adaptation measure is particularly relevant for communities that are disproportionately affected by climate change, as it provides them with tools to enhance their resilience against water-related challenges. By prioritizing these communities in the deployment of water-saving technologies, the action contributes to reducing inequalities and promoting social justice in the context of climate adaptation.</t>
+Additionally, the focus on eco-engineering efforts in the adaptation measure highlights a commitment to environmentally sustainable solutions that can be accessible to all community members, regardless of socioeconomic status. This approach fosters community engagement and empowerment, allowing underserved groups to participate in the decision-making processes related to water management.
+Furthermore, by enhancing water conservation in the face of climate change, the action helps to mitigate the disproportionate impacts of climate-related water shortages on vulnerable populations, thereby promoting resilience and equity in resource distribution. Overall, the initiative recognizes and addresses the specific challenges faced by underserved communities, ensuring that they are included in the benefits of climate adaptation strategies.</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -5413,22 +5240,19 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>['Availability of suitable technology for rainwater harvesting', 'Access to funding for implementing water-saving technologies', 'Community awareness and education on water conservation practices', 'Supportive policies and regulations promoting sustainable water use', 'Collaboration with local governments and organizations for effective implementation']</t>
+          <t>['Availability of suitable technology for rainwater harvesting', 'Access to funding and financial resources for implementation', 'Community awareness and education on water conservation practices', 'Supportive government policies and regulations promoting water-saving technologies', 'Collaboration with local stakeholders and organizations for effective implementation']</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>['Volume of water saved (liters)', 'Number of rainwater harvesting systems installed', 'Percentage reduction in water usage', 'Cost savings from reduced water bills', 'Community engagement and participation rate', 'Increase in local biodiversity', 'Reduction in stormwater runoff', 'User satisfaction with water savings technologies']</t>
+          <t>['Volume of water saved (liters)', 'Number of rainwater harvesting systems installed', 'Percentage reduction in water consumption', 'Cost savings from reduced water usage', 'Community engagement and participation rate', 'Increase in groundwater levels', 'Frequency of maintenance and operational efficiency of systems']</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>['Enhances climate resilience for vulnerable communities', 'Promotes sustainable water use practices', 'Improves water quality', 'Empowers marginalized populations through community involvement', 'Reduces inequalities related to water access']</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+          <t>['Enhances water conservation and resilience against droughts', 'Improves water quality for underserved communities', 'Promotes equity and inclusion in water resource management', 'Empowers marginalized populations through community engagement', 'Mitigates climate-related water shortages for vulnerable groups']</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5478,7 +5302,8 @@
       <c r="M55" t="inlineStr">
         <is>
           <t>The "Water Recycling" action promotes equity and inclusion by ensuring that vulnerable or underserved communities have access to sustainable water resources. By treating and reusing water, this initiative addresses the needs of populations that may face water scarcity or contamination, which often disproportionately affects low-income and marginalized groups. 
-Additionally, the implementation of water recycling technologies can create job opportunities and skills training within these communities, fostering economic empowerment and participation in the green economy. The focus on resilience in the face of changing climate patterns also helps to protect these communities from the adverse effects of climate change, ensuring that they are not left behind in the transition to sustainable water management. Overall, this action actively considers the needs and rights of underserved populations, promoting their inclusion in climate adaptation efforts.</t>
+Additionally, the implementation of water recycling technologies can create job opportunities and skills training for local residents, particularly in underserved areas, fostering economic empowerment. The action also considers the equitable distribution of water resources, ensuring that all community members, regardless of socioeconomic status, benefit from improved water availability and quality. 
+Overall, this climate action actively supports the resilience of vulnerable communities by prioritizing their specific needs in the face of climate change impacts.</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -5504,17 +5329,14 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>['Volume of water recycled', 'Percentage reduction in freshwater consumption', 'Cost savings from water reuse', 'Energy consumption for water treatment', 'Quality of recycled water', 'Number of facilities implementing water recycling', 'Public awareness and engagement levels', 'Reduction in wastewater discharge', 'Compliance with water quality standards', 'Impact on local ecosystems']</t>
+          <t>['Volume of water recycled', 'Percentage reduction in freshwater consumption', 'Cost savings from water reuse', 'Number of facilities implementing water recycling', 'Reduction in wastewater discharge', 'Improvement in water quality standards', 'Public awareness and engagement levels', 'Compliance with regulatory standards', 'Impact on local ecosystems', 'Reduction in water scarcity incidents']</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>['Enhances water resource sustainability', 'Increases resilience to droughts', 'Improves water quality', 'Promotes equity and inclusion for underserved communities', 'Creates job opportunities and skills training', 'Supports economic empowerment in vulnerable populations']</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+          <t>['Enhances water resource sustainability', 'Improves water quality', 'Increases climate resilience for vulnerable communities', 'Creates job opportunities and skills training', 'Promotes equitable access to water resources']</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5573,9 +5395,6 @@
           <t>['Enhancement of climate resilience']</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5624,9 +5443,9 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>The "Watershed Preservation" initiative promotes equity and inclusion by prioritizing the protection of natural resources that are vital for vulnerable and underserved communities. These communities often rely on local watersheds for their drinking water, agriculture, and livelihoods. By safeguarding water quality and ecosystem services, the action directly benefits those who may lack access to clean water and healthy environments.
-Additionally, the initiative fosters community engagement by involving local residents in decision-making processes related to watershed management. This inclusion ensures that the voices of marginalized groups are heard and that their specific needs and concerns are addressed in conservation efforts.
-Furthermore, by enhancing resilience to climate change impacts, the action helps to mitigate the disproportionate effects that climate change has on underserved populations, thereby promoting social equity. Overall, the focus on sustainable water management and biodiversity conservation aligns with the needs of vulnerable communities, ensuring they are not left behind in climate action efforts.</t>
+          <t>The "Watershed Preservation" initiative promotes equity and inclusion by prioritizing the protection of natural resources that are vital for vulnerable and underserved communities. These communities often rely on local watersheds for their drinking water, agriculture, and livelihoods, making their preservation essential for their well-being. 
+By safeguarding water quality and ecosystem services, the action directly benefits those who may lack access to clean water and healthy environments, thereby addressing disparities in resource access. Additionally, the initiative may involve community engagement and participation, ensuring that the voices of marginalized groups are heard in decision-making processes related to watershed management. This inclusive approach fosters a sense of ownership and empowerment among these communities, enhancing their resilience to climate change impacts. 
+Overall, the focus on sustainable water management through watershed preservation inherently supports the needs and rights of vulnerable populations, promoting social equity and environmental justice.</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -5652,17 +5471,14 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>['Water quality index', 'Biodiversity index', 'Area of watershed preserved', 'Number of conservation projects initiated', 'Community engagement level', 'Reduction in water pollution incidents', 'Ecosystem service valuation', 'Resilience assessment score', 'Water usage efficiency', 'Monitoring and reporting frequency']</t>
+          <t>['Water quality index', 'Biodiversity index', 'Area of watershed preserved', 'Number of conservation projects implemented', 'Community engagement level', 'Reduction in water pollution incidents', 'Ecosystem service valuation', 'Resilience assessment score', 'Water usage efficiency', 'Monitoring and reporting frequency']</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>['Improved water quality for vulnerable communities', 'Enhanced climate resilience for underserved populations', 'Increased community engagement in watershed management', 'Protection of biodiversity and ecosystem services']</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+          <t>['Improved water quality for vulnerable communities', 'Enhanced climate resilience through sustainable water management', 'Promotion of social equity and environmental justice', 'Empowerment of marginalized groups in decision-making processes']</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5737,9 +5553,6 @@
           <t>['Reduces food waste', 'Addresses food insecurity', 'Promotes equity and inclusion', 'Supports community collaboration', 'Contributes to sustainable food systems', 'Improves cost of living for vulnerable populations']</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5810,12 +5623,12 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>['Access to accurate climate data and forecasts to inform planning', 'Collaboration among local governments, organizations, and communities for effective response strategies', 'Availability of resources and funding for preparedness initiatives', 'Training and education programs for community members on emergency response', 'Infrastructure resilience to withstand climate-related events']</t>
+          <t>['Access to accurate climate data and forecasts to inform planning', 'Collaboration among local governments, organizations, and communities for effective response', 'Availability of resources and funding for preparedness initiatives', 'Training and education programs for community members on emergency response', 'Infrastructure resilience to withstand climate-related events', 'Public awareness campaigns to promote preparedness measures']</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>['Number of communities with updated emergency response plans', 'Percentage of population trained in emergency preparedness', 'Frequency of climate-related drills and simulations conducted', 'Availability of resources and supplies for emergency response', 'Community resilience index score', 'Number of partnerships with local organizations for preparedness initiatives', 'Public awareness and education campaign reach', 'Response time to climate-related emergencies', 'Post-event recovery time', 'Feedback and satisfaction ratings from community preparedness training']</t>
+          <t>['Number of communities with updated emergency response plans', 'Percentage of population trained in emergency preparedness', 'Frequency of climate-related drills and simulations conducted', 'Availability of resources and supplies for emergency response', 'Community awareness and engagement levels regarding climate preparedness', 'Time taken to mobilize resources during a climate emergency', 'Number of partnerships established with local organizations for preparedness initiatives', 'Assessment scores of community resilience before and after preparedness measures']</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -5823,9 +5636,6 @@
           <t>['Enhances community resilience to storms', 'Promotes equity and inclusion for vulnerable communities', 'Empowers communities with knowledge and tools for emergency response', 'Fosters social cohesion and community engagement']</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5876,7 +5686,7 @@
         <is>
           <t>The "Early Warning" systems initiative promotes equity and inclusion by ensuring that vulnerable or underserved communities receive timely and accessible information about climate-related hazards. By focusing on proactive communication, the action helps to empower these communities, which often lack the resources to prepare for and respond to climate threats. 
 Additionally, the initiative can be designed to reach diverse populations, including those with language barriers or disabilities, ensuring that all community members can understand and act on the warnings. This inclusivity helps to reduce disparities in risk and enhances overall community resilience, as everyone is better equipped to respond to potential hazards. 
-Overall, the action prioritizes the needs of those most at risk, fostering a more equitable approach to climate preparedness and response.</t>
+Overall, the action recognizes the unique challenges faced by underserved communities and aims to provide them with the necessary tools and information to protect themselves from climate impacts, thereby fostering a more equitable approach to climate resilience.</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -5902,17 +5712,14 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>['Number of early warnings issued', 'Response time to warnings', 'Community awareness and preparedness levels', 'Reduction in disaster-related damages', 'Number of training sessions conducted', 'Stakeholder engagement and participation rates', 'Frequency of system updates and improvements', 'Public feedback on warning effectiveness']</t>
+          <t>['Number of early warnings issued', 'Response time to warnings', 'Community awareness and preparedness levels', 'Reduction in disaster-related damages', 'Number of training sessions conducted', 'Stakeholder engagement and participation rates', 'Feedback from community on warning effectiveness', 'Frequency of drills and simulations conducted']</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>['Enhanced community preparedness for storms', 'Reduced impact of climate-related hazards', 'Empowerment of vulnerable communities', 'Improved equity in climate response', 'Increased overall community resilience']</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+          <t>['Enhanced community preparedness for storms', 'Reduced impact of climate-related hazards', 'Empowerment of vulnerable communities', 'Improved equity and inclusion in climate resilience efforts', 'Increased accessibility of information for diverse populations']</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5961,9 +5768,9 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>The "Managed Retreat" strategies inherently promote equity and inclusion by prioritizing the safety and well-being of vulnerable or underserved communities that are disproportionately affected by climate change impacts. By facilitating planned relocation from high-risk areas, these strategies aim to protect marginalized populations who may lack the resources to adapt to environmental changes on their own. 
-Additionally, the implementation of managed retreat often involves community engagement and participation, ensuring that the voices of affected residents are heard in the decision-making process. This approach fosters a sense of agency among vulnerable communities, allowing them to contribute to solutions that directly impact their lives. 
-Furthermore, managed retreat can provide opportunities for equitable access to safer housing and infrastructure, addressing historical injustices and disparities faced by underserved populations. By focusing on the needs of those most at risk, this climate action aligns with principles of social justice and aims to create more resilient and inclusive communities.</t>
+          <t>The "Managed Retreat" strategies inherently promote equity and inclusion by prioritizing the safety and well-being of vulnerable or underserved communities that are most at risk from climate change impacts. By focusing on planned relocation, these strategies aim to protect marginalized populations who often lack the resources to adapt to environmental changes on their own. 
+Additionally, the implementation of managed retreat involves engaging affected communities in the decision-making process, ensuring that their voices and needs are considered. This participatory approach helps to address historical inequities and empowers residents to have a say in their future. 
+Furthermore, managed retreat can provide opportunities for equitable access to safer housing and infrastructure, reducing the disproportionate burden of climate risks faced by low-income and marginalized groups. Overall, this climate action recognizes and addresses the unique challenges faced by underserved communities, fostering a more inclusive approach to climate adaptation.</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -5984,7 +5791,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>['Assessment of high-risk areas to identify communities that need relocation', 'Availability of funding and resources to support relocation efforts', 'Community engagement and support for relocation plans', 'Development of infrastructure in new locations to accommodate relocated populations', 'Legal and regulatory frameworks to facilitate land acquisition and relocation processes', 'Environmental impact assessments to ensure new locations are sustainable and safe']</t>
+          <t>['Assessment of high-risk areas to identify communities that need relocation', 'Availability of funding and resources to support relocation efforts', 'Community engagement and support for relocation plans', 'Development of new infrastructure in safer areas', 'Policy and regulatory frameworks that facilitate managed retreat', 'Coordination among government agencies and stakeholders involved in the relocation process']</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -5994,12 +5801,9 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>['Enhances climate resilience for vulnerable communities', 'Promotes equity and inclusion in decision-making', 'Facilitates planned relocation from high-risk areas', 'Addresses historical injustices and disparities', 'Empowers marginalized populations through community engagement']</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+          <t>['Enhances climate resilience for vulnerable communities', 'Promotes equity and inclusion through community engagement', 'Addresses historical inequities in climate adaptation', 'Provides safer housing and infrastructure options', 'Reduces risks associated with storms for marginalized populations']</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6044,7 +5848,8 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>The "Non-Potable Water" initiatives promote equity and inclusion by ensuring that underserved communities have access to alternative water sources for non-drinking purposes. This approach helps alleviate pressure on potable water supplies, which are often limited in vulnerable areas. By implementing these initiatives, communities that may lack sufficient access to clean drinking water can still benefit from treated or untreated water for irrigation and other uses, thereby supporting local agriculture and economic activities. Additionally, these initiatives can be designed to involve community participation, ensuring that the voices of marginalized groups are heard in the planning and implementation processes. This fosters a sense of ownership and empowerment among residents, contributing to social equity. Overall, the action addresses the needs of underserved populations by providing sustainable water management solutions that enhance their resilience and quality of life.</t>
+          <t>The "Non-Potable Water" initiatives promote equity and inclusion by ensuring that underserved communities have access to alternative water sources for non-drinking purposes. This is particularly beneficial in areas where potable water is scarce or expensive, allowing these communities to utilize treated or untreated water for essential activities like irrigation and sanitation. 
+By reducing the demand on potable water sources, the initiative helps to alleviate the burden on vulnerable populations who may struggle with water access, thereby promoting sustainable water management practices that are inclusive of all community members. Additionally, these initiatives can create opportunities for local engagement and participation in water management decisions, empowering underserved communities to take an active role in their resource management. Overall, the action addresses the needs of vulnerable populations by providing them with viable solutions for water use, fostering a more equitable distribution of water resources.</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -6061,22 +5866,19 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>['Availability of infrastructure for water treatment and distribution', 'Regulatory frameworks supporting the use of non-potable water', 'Public awareness and acceptance of non-potable water use', 'Technological advancements in water treatment processes', 'Collaboration between government, industry, and community stakeholders']</t>
+          <t>['Availability of infrastructure for water treatment and distribution', 'Regulatory frameworks supporting the use of non-potable water', 'Public awareness and acceptance of non-potable water usage', 'Technological advancements in water treatment processes', 'Collaboration between government, industry, and community stakeholders']</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>['Volume of non-potable water used', 'Percentage reduction in potable water consumption', 'Number of non-potable water projects implemented', 'Water quality of non-potable sources', 'Cost savings from reduced potable water use', 'Public awareness and engagement levels', 'Reduction in wastewater discharge', 'Impact on local ecosystems']</t>
+          <t>['Volume of non-potable water used', 'Percentage reduction in potable water consumption', 'Number of non-potable water projects implemented', 'Water quality metrics of treated non-potable water', 'Cost savings from reduced potable water use', 'Public awareness and engagement levels', 'Reduction in wastewater discharge', 'Impact on local ecosystems']</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>['Promotes sustainable water management', 'Enhances climate resilience for underserved communities', 'Supports local agriculture and economic activities', 'Fosters community participation and empowerment', 'Addresses the needs of vulnerable populations']</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+          <t>['Promotes sustainable water management', 'Enhances access to water for underserved communities', 'Reduces demand on potable water sources', 'Empowers local communities in water management decisions', 'Addresses needs of vulnerable populations']</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6126,8 +5928,8 @@
       <c r="M63" t="inlineStr">
         <is>
           <t>The "Water Tariffs" initiative promotes equity and inclusion by implementing pricing structures that can be designed to protect vulnerable and underserved communities. By encouraging responsible water consumption, the initiative can help ensure that all community members, regardless of their economic status, have access to essential water resources. 
-Additionally, tiered pricing models can be established, where lower rates are applied to basic water needs, ensuring that low-income households are not disproportionately burdened by costs. This approach allows for equitable access to water while incentivizing conservation among all users, thus fostering a sense of shared responsibility for sustainable water management. 
-Furthermore, the initiative can include outreach and education programs targeted at underserved communities, ensuring they understand the tariff structure and how to manage their water use effectively. This inclusion in the decision-making process helps empower these communities and ensures their voices are heard in discussions about water management.</t>
+Additionally, tiered pricing models can be established, where lower rates are applied to basic water needs, ensuring that low-income households are not disproportionately burdened by costs. This approach can help prevent water insecurity among underserved populations, fostering a more equitable distribution of water resources.
+Furthermore, the initiative can include educational components aimed at raising awareness in vulnerable communities about water conservation practices, empowering them to make informed decisions about their water use. Overall, the "Water Tariffs" action considers the needs of underserved communities by promoting sustainable water management while ensuring access and affordability.</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -6148,22 +5950,19 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>['Effective monitoring and measurement of water usage to inform pricing structures', 'Public awareness and education on the importance of water conservation', 'Support from local governments and regulatory bodies to implement and enforce tariffs', 'Availability of alternative water sources to reduce dependency on traditional supply', 'Technological infrastructure to manage and bill for water usage accurately']</t>
+          <t>['Effective monitoring and measurement of water usage to inform tariff structures', 'Public awareness and education on the importance of water conservation', 'Support from local governments and regulatory bodies to implement and enforce tariffs', 'Availability of alternative water sources to reduce dependency on traditional supply', 'Technological infrastructure for billing and tracking water consumption']</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>['Water consumption reduction percentage', 'Percentage of users adopting conservation practices', 'Revenue generated from water tariffs', 'Change in water usage per capita', 'Rate of water loss in distribution system', 'Customer satisfaction with water pricing', 'Percentage of water users aware of tariff structure', 'Impact on local water resources sustainability']</t>
+          <t>['Water consumption reduction percentage', 'Percentage of users adopting conservation practices', 'Revenue generated from water tariffs', 'Change in water usage per capita', 'Customer satisfaction with water pricing', 'Rate of water loss in distribution system', 'Percentage of households using water-efficient appliances', 'Impact on local water resources sustainability']</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>['Promotes responsible water consumption', 'Encourages efficient use of water resources', 'Enhances climate resilience against droughts', 'Improves water quality', 'Supports equity and inclusion for vulnerable communities', 'Empowers underserved communities through education and outreach', 'Establishes tiered pricing to protect low-income households']</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+          <t>['Promotes responsible water consumption', 'Enhances climate resilience against droughts', 'Improves water quality', 'Supports equity and inclusion for vulnerable communities', 'Encourages sustainable water management practices']</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6208,13 +6007,13 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>The "Local Food Support" programs promote equity and inclusion by:
-1. **Enhancing Food Security**: By focusing on locally sourced foods, the initiative directly addresses food insecurity in vulnerable communities, ensuring access to fresh and nutritious options.
-2. **Supporting Local Economies**: The program prioritizes local agricultural producers, many of whom may belong to underserved communities, thereby fostering economic opportunities and stability within these groups.
-3. **Reducing Transportation Barriers**: By minimizing the distance food travels, the initiative makes it easier for low-income households to access affordable food options, reducing reliance on expensive, processed foods.
-4. **Encouraging Community Engagement**: The program often involves community members in decision-making processes, ensuring that the needs and preferences of diverse populations are considered and respected.
-5. **Promoting Sustainable Practices**: By emphasizing local production, the initiative supports environmentally sustainable practices that benefit all community members, particularly those who are disproportionately affected by climate change impacts. 
-Overall, the "Local Food Support" programs are designed to uplift and empower vulnerable and underserved communities through equitable access to food resources and economic opportunities.</t>
+          <t>The "Local Food Support" programs promote equity and inclusion by directly addressing the needs of vulnerable and underserved communities in several ways:
+1. **Food Security**: By enhancing access to locally sourced foods, these programs help ensure that low-income families and marginalized groups have reliable access to nutritious food, thereby addressing food insecurity.
+2. **Economic Support**: The initiative supports local agricultural economies, which often include small-scale farmers from underserved communities. This creates economic opportunities and helps to uplift these communities.
+3. **Reduced Transportation Barriers**: By focusing on local food production and consumption, the program reduces the reliance on long-distance food transportation, which can disproportionately affect low-income communities that may lack access to transportation.
+4. **Cultural Relevance**: Local food initiatives can incorporate culturally significant foods, ensuring that diverse communities see their dietary preferences and traditions represented, fostering a sense of inclusion.
+5. **Community Engagement**: These programs often involve community participation in decision-making processes, empowering underserved populations to have a voice in the food systems that affect them.
+Overall, the "Local Food Support" programs are designed to create a more equitable food system that prioritizes the needs and contributions of vulnerable communities.</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -6231,7 +6030,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>['Availability of local agricultural resources and farmers', 'Infrastructure for local food distribution and storage', 'Consumer awareness and demand for locally sourced foods', 'Supportive policies and regulations for local food production', 'Access to markets for local producers', 'Education and training programs for sustainable farming practices']</t>
+          <t>['Availability of local agricultural resources and farmers', 'Community engagement and support for local food initiatives', 'Infrastructure for distribution and storage of local foods', 'Consumer awareness and education about the benefits of local foods', 'Policies and regulations that support local food systems']</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6241,12 +6040,9 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>['Enhances food security for vulnerable communities', 'Supports local agricultural economies', 'Reduces carbon footprint from food transportation', 'Promotes equity and inclusion in food access', 'Encourages community engagement and participation']</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+          <t>['Enhances food security for low-income families', 'Supports local agricultural economies', 'Reduces carbon footprint from food transportation', 'Promotes equity and inclusion for underserved communities', 'Empowers community participation in food systems']</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6291,7 +6087,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>The "Market Access" initiatives promote equity and inclusion by specifically targeting barriers that disproportionately affect vulnerable or underserved farmers, such as smallholder and marginalized producers. By facilitating access to markets, these initiatives create equitable opportunities for all agricultural producers, ensuring that those who have historically faced challenges in reaching markets can participate fully in the economy. This approach not only enhances food security for these communities but also fosters economic development tailored to their needs, thereby supporting sustainable food systems that are inclusive of diverse agricultural stakeholders. Overall, the action recognizes and addresses the systemic inequities that exist within agricultural markets, promoting a more just and inclusive economic landscape.</t>
+          <t>The "Market Access" initiatives promote equity and inclusion by specifically targeting barriers that disproportionately affect vulnerable or underserved farmers, such as smallholder and marginalized producers. By facilitating access to markets, these initiatives ensure that all agricultural producers, regardless of their socio-economic status, have equitable opportunities to sell their products. This approach not only enhances food security for these communities but also fosters economic development by enabling them to participate in and benefit from sustainable food systems. Additionally, by focusing on underserved populations, the action actively works to uplift those who have historically been excluded from market opportunities, thereby promoting social and economic equity.</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -6313,17 +6109,14 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>['Number of farmers accessing new markets', 'Percentage increase in farmer income', 'Volume of agricultural products sold', 'Number of market barriers identified and addressed', 'Percentage of farmers reporting improved market access', 'Increase in local food production', 'Number of partnerships formed with market stakeholders', 'Percentage of sustainable practices adopted by farmers']</t>
+          <t>['Number of farmers accessing new markets', 'Percentage increase in farmer income', 'Volume of agricultural products sold', 'Number of market barriers identified and addressed', 'Percentage of farmers reporting improved market access', 'Increase in local food production', 'Number of partnerships established with market stakeholders', 'Percentage of sustainable practices adopted by farmers']</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>['Enhances food security for vulnerable farmers', 'Promotes economic development for marginalized producers', 'Supports sustainable food systems', 'Addresses systemic inequities in agricultural markets', 'Facilitates equitable market access for smallholder farmers']</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+          <t>['Enhances food security for vulnerable farmers', 'Promotes economic development for marginalized producers', 'Facilitates equitable market access for smallholder farmers', 'Supports social and economic equity in agricultural systems']</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6369,7 +6162,7 @@
       <c r="M66" t="inlineStr">
         <is>
           <t>The "Food Access Laws" initiative promotes equity and inclusion by specifically targeting vulnerable and underserved communities that often face barriers to accessing healthy and affordable food. By addressing food justice issues, the legislation seeks to rectify systemic inequalities that disproportionately affect low-income populations and marginalized groups. 
-Additionally, the initiative fosters community well-being by ensuring that all individuals, regardless of their socioeconomic status, have the opportunity to access nutritious food options. This focus on equitable food access not only supports the health of these communities but also empowers them by recognizing their right to food security. Overall, the action is designed to uplift underserved populations, ensuring that their needs and voices are prioritized in the pursuit of food justice.</t>
+Additionally, the initiative fosters community well-being by ensuring that all individuals, regardless of their socioeconomic status, have the opportunity to access nutritious food options. This approach not only enhances food security but also empowers communities to participate in decision-making processes related to food access, thereby promoting inclusivity and representation. Overall, the action recognizes and addresses the unique challenges faced by underserved communities, ensuring that their needs are prioritized in the pursuit of equitable food access.</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -6386,22 +6179,19 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>['Support from local and state governments to enact and enforce food access laws', 'Collaboration with community organizations to identify food justice issues', 'Funding and resources for implementing food access programs', 'Public awareness campaigns to educate communities about food access rights', 'Partnerships with local farmers and food producers to ensure a diverse supply of healthy food options']</t>
+          <t>['Support from local and state governments to enact and enforce food access laws', 'Collaboration with community organizations to identify food justice issues', 'Funding and resources for implementing food access initiatives', 'Public awareness campaigns to educate communities about food access rights', 'Partnerships with local farmers and food producers to ensure a diverse supply of healthy food options']</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>['Percentage increase in access to healthy food options', 'Reduction in food insecurity rates', 'Number of food justice policies implemented', 'Community engagement levels in food access initiatives', 'Percentage of low-income households with access to affordable food', 'Improvement in health outcomes related to nutrition', 'Number of partnerships with local food producers', 'Frequency of food access assessments conducted']</t>
+          <t>['Number of food access laws enacted', 'Percentage increase in access to healthy food options', 'Reduction in food insecurity rates', 'Number of community organizations involved in food access initiatives', 'Percentage of low-income households with access to affordable healthy food', 'Increase in local food production', 'Public awareness and engagement levels regarding food justice issues', 'Changes in health outcomes related to diet and nutrition']</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>['Promotes equitable access to healthy food', 'Addresses food justice issues', 'Supports community well-being', 'Empowers underserved populations', 'Rectifies systemic inequalities']</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+          <t>['Promotes equitable access to healthy and affordable food', 'Addresses food justice issues', 'Enhances food security for vulnerable communities', 'Empowers underserved communities in decision-making', 'Improves community well-being']</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6476,17 +6266,14 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>['Resource use efficiency', 'Waste reduction percentage', 'Carbon emissions reduction', 'Energy consumption per unit of output', 'Water usage efficiency', 'Percentage of compliance with regulations', 'Cost savings from resource efficiency', 'Increase in recycling rates', 'Sustainable material sourcing', 'Public awareness and engagement levels']</t>
+          <t>['Resource use efficiency', 'Waste reduction percentage', 'Carbon emissions reduction', 'Energy consumption per unit of output', 'Water usage efficiency', 'Percentage of recycled materials used', 'Compliance rate with efficiency standards', 'Cost savings from efficiency improvements', 'Public awareness and engagement levels', 'Reduction in environmental impact assessments']</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>['Improved resource efficiency', 'Enhanced climate resilience', 'Better water quality', 'Promotion of equity and inclusion', 'Economic benefits for underserved populations']</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+          <t>['Improved water quality', 'Enhanced climate resilience', 'Promotion of equity and inclusion', 'Economic benefits through job creation', 'Reduction of resource waste']</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6531,8 +6318,8 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>The "Air Quality" initiatives inherently promote equity and inclusion by prioritizing the health and well-being of vulnerable and underserved communities that are often disproportionately affected by air pollution. These communities typically experience higher exposure to pollutants due to their proximity to industrial areas, highways, and other sources of emissions. By focusing on monitoring and regulating air quality, the initiatives aim to reduce health disparities and improve overall public health outcomes for these populations.
-Additionally, the emphasis on creating healthier urban environments directly benefits underserved communities, which may lack access to clean air and green spaces. The initiatives also foster community engagement by involving local residents in the decision-making process regarding air quality improvements, ensuring that the voices of those most impacted are heard and considered. This participatory approach enhances social equity by empowering marginalized groups and addressing their specific needs and concerns related to air quality and health risks.</t>
+          <t>The "Air Quality" initiatives inherently promote equity and inclusion by prioritizing the health and well-being of vulnerable and underserved communities that are often disproportionately affected by air pollution. These communities typically experience higher levels of exposure to pollutants due to their proximity to industrial areas, highways, and other sources of air quality degradation. By focusing on monitoring and regulating air quality, the initiatives aim to reduce health disparities and improve overall public health outcomes for these populations.
+Additionally, the emphasis on creating healthier urban environments directly benefits underserved communities, which may lack access to clean air and green spaces. The initiatives also foster community engagement by involving local residents in air quality monitoring and decision-making processes, ensuring that the voices of those most impacted are heard and considered. This participatory approach enhances social equity by empowering marginalized groups and promoting inclusive solutions to air quality challenges. Overall, the action addresses systemic inequities related to environmental health, contributing to a more just and equitable society.</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -6549,22 +6336,19 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>['Access to real-time air quality monitoring technology', 'Collaboration with public health organizations to assess health impacts', 'Regulatory frameworks to enforce air quality standards', 'Public awareness campaigns to educate communities about air quality issues', 'Funding and resources for air quality improvement projects', 'Data collection and analysis capabilities to track air quality trends']</t>
+          <t>['Access to real-time air quality monitoring technology', 'Collaboration with local governments and health organizations', 'Public awareness and education programs on air quality issues', 'Regulatory frameworks for pollution control', 'Funding and resources for air quality improvement projects', 'Data collection and analysis capabilities for air quality assessment']</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>['Air quality index (AQI) levels', 'Number of air quality monitoring stations', 'Reduction in particulate matter (PM2.5 and PM10) levels', 'Percentage of days with good air quality', 'Public health outcomes related to respiratory diseases', 'Community awareness and engagement levels', 'Compliance rates with air quality regulations', 'Emission reduction from key pollution sources', 'Number of initiatives or programs implemented', 'Funding allocated for air quality improvement projects']</t>
+          <t>['Air quality index (AQI) levels', 'Number of air quality monitoring stations', 'Reduction in particulate matter (PM2.5 and PM10) levels', 'Percentage of days with good air quality', 'Public health outcomes related to respiratory diseases', 'Community awareness and engagement levels', 'Compliance rates with air quality regulations', 'Emission reductions from key pollution sources', 'Number of initiatives or programs implemented', 'Funding allocated for air quality improvement projects']</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>['Improved air quality leading to better public health outcomes', 'Reduction of health disparities in vulnerable communities', 'Enhanced community engagement and empowerment', 'Creation of healthier urban environments']</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+          <t>['Improved air quality leading to better public health outcomes', 'Reduction of health disparities in vulnerable communities', 'Enhanced community engagement and empowerment', 'Promotion of social equity and inclusion in environmental health']</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6609,14 +6393,13 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>The "Dietary Shift Promotion" initiative considers equity and inclusion by focusing on the following aspects:
+          <t>The "Dietary Shift Promotion" initiative considers equity and inclusion in several ways:
 1. **Access to Information**: The campaigns are designed to educate all communities, particularly vulnerable and underserved populations, about the benefits of healthier and sustainable dietary choices, ensuring that everyone has access to knowledge that can improve their health and environmental impact.
-2. **Culturally Relevant Options**: The initiative promotes dietary shifts that respect and incorporate local food traditions and preferences, making it more inclusive for diverse communities and ensuring that dietary recommendations are culturally appropriate.
-3. **Affordability**: By advocating for policies that support sustainable food systems, the initiative aims to make healthier food options more affordable and accessible to low-income communities, addressing economic barriers to healthy eating.
-4. **Community Engagement**: The action involves engaging with underserved communities in the development and implementation of dietary promotion strategies, ensuring that their voices and needs are considered in the decision-making process.
-5. **Health Equity**: By targeting dietary changes that can lead to improved health outcomes, the initiative seeks to reduce health disparities that disproportionately affect vulnerable populations, promoting overall well-being and equity in health.
-6. **Support for Local Producers**: The initiative may include support for local farmers and food producers, particularly those from marginalized communities, fostering economic opportunities and strengthening local food systems. 
-Overall, the "Dietary Shift Promotion" initiative is designed to be inclusive and equitable, addressing the specific needs and challenges faced by vulnerable and underserved communities in the context of climate action.</t>
+2. **Culturally Relevant Options**: The initiative recognizes the importance of cultural dietary practices and aims to promote sustainable eating habits that are inclusive of diverse food traditions, making it more accessible and acceptable to various communities.
+3. **Affordability and Accessibility**: By advocating for policies that support local and sustainable food systems, the initiative seeks to make healthy food options more affordable and accessible to low-income communities, addressing food deserts and economic barriers.
+4. **Community Engagement**: The action involves engaging with underserved communities in the development and implementation of dietary shift campaigns, ensuring that their voices and needs are heard and prioritized in the decision-making process.
+5. **Health Equity**: By promoting healthier eating habits, the initiative aims to reduce health disparities that disproportionately affect vulnerable populations, contributing to overall health equity and well-being.
+Overall, the "Dietary Shift Promotion" initiative actively incorporates equity and inclusion considerations by focusing on education, cultural relevance, accessibility, community involvement, and health equity.</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -6633,22 +6416,19 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>['Public awareness and education about the environmental impact of food choices', 'Collaboration with food producers and suppliers to promote sustainable practices', 'Support from government policies and regulations that incentivize sustainable diets', 'Access to affordable and healthy food options for all communities', 'Research and data on the environmental benefits of dietary shifts']</t>
+          <t>['Public awareness and education about the environmental impact of food choices', 'Collaboration with food producers and suppliers to promote sustainable practices', 'Support from government policies and regulations that incentivize sustainable diets', 'Access to affordable and healthy food options for all communities', 'Research and data on the benefits of dietary shifts for health and the environment']</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions from food production', 'Increase in plant-based food consumption', 'Percentage of population aware of sustainable dietary choices', 'Number of campaigns and policies implemented', 'Change in food waste levels', 'Increase in local and organic food purchases', 'Engagement levels in dietary shift programs', 'Health outcomes related to dietary changes']</t>
+          <t>['Reduction in greenhouse gas emissions from food production', 'Increase in plant-based food consumption', 'Percentage of population aware of sustainable dietary choices', 'Change in food waste levels', 'Number of campaigns or policies implemented', 'Engagement levels in dietary shift programs', 'Sales growth of sustainable food products', 'Reduction in water usage in food production', 'Improvement in public health metrics related to diet', 'Partnerships with local farms and food producers']</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>['Promotes climate resilience through healthier dietary choices', 'Enhances equity by improving access to information and affordable food options', 'Supports local food systems and producers', 'Addresses health disparities in vulnerable populations', 'Encourages community engagement in dietary promotion strategies']</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
+          <t>['Promotes climate resilience through sustainable dietary choices', 'Enhances health equity by addressing dietary disparities', 'Increases accessibility to healthy food options for underserved communities', 'Encourages community engagement in dietary initiatives', 'Supports cultural relevance in dietary practices']</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6710,22 +6490,19 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>['Access to local and sustainable food producers', 'Infrastructure for efficient food distribution', 'Support from public institutions and services', 'Consumer awareness and demand for sustainable food', 'Policies and regulations promoting sustainable agriculture', 'Collaboration with agricultural organizations and cooperatives']</t>
+          <t>['Availability of local and sustainable food producers', 'Infrastructure for efficient food distribution', 'Support from public institutions and services', 'Consumer awareness and demand for sustainable food', 'Policies and regulations promoting sustainable procurement practices', 'Collaboration between stakeholders in the food supply chain']</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>['Percentage of food sourced from local producers', 'Reduction in carbon footprint of food procurement', 'Percentage increase in sustainable agriculture suppliers', 'Cost savings from local food procurement', 'Number of public institutions adopting sustainable food procurement policies', 'Volume of food waste reduced', 'Percentage of seasonal produce purchased', 'Stakeholder satisfaction with food quality and sourcing practices']</t>
+          <t>['Percentage of food sourced from local producers', 'Reduction in carbon footprint of food procurement', 'Percentage increase in sustainable agriculture suppliers', 'Cost savings from local sourcing', 'Percentage of seasonal produce purchased', 'Waste reduction in food procurement', 'Stakeholder satisfaction with food quality', 'Number of partnerships with local farmers', 'Training sessions conducted on sustainable procurement practices']</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>['Supports local economies by prioritizing small-scale farmers', 'Promotes sustainable agricultural practices', 'Enhances food access and equity for underserved communities', 'Encourages responsible consumption and awareness of food justice issues', 'Contributes to climate resilience through sustainable food sourcing']</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+          <t>['Supports local economies by prioritizing small-scale farmers', 'Promotes sustainable agricultural practices', 'Enhances food security in underserved communities', 'Encourages responsible consumption and awareness of food justice', 'Fosters economic stability and growth for marginalized producers']</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6768,7 +6545,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>The targeted behavioral change aimed by the "City-wide Speed Restrictions and Road Danger Measures" is to encourage individuals to adopt safer and more sustainable transportation methods, such as walking, biking, or using public transit, by enhancing perceptions of road safety and reducing the appeal of driving. This shift is expected to lead to a decrease in traffic-related hazards and greenhouse gas emissions, ultimately fostering a more sustainable urban environment.</t>
+          <t>The targeted behavioral change aimed by the "City-wide Speed Restrictions and Road Danger Measures" is to encourage individuals to adopt safer and more sustainable modes of transportation, such as walking, biking, or using public transit, by enhancing perceptions of road safety and reducing traffic-related hazards. This shift is expected to lead to a decrease in reliance on personal vehicles, ultimately contributing to lower greenhouse gas emissions and improved urban safety.</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6780,11 +6557,11 @@
         <is>
           <t>The "City-wide Speed Restrictions and Road Danger Measures" action promotes equity and inclusion in several ways:
 1. **Enhanced Safety for Vulnerable Road Users**: By implementing speed limits and physical measures to improve road safety, the action prioritizes the protection of vulnerable populations, such as pedestrians, cyclists, and children, who are often at greater risk in urban environments.
-2. **Access to Sustainable Transportation**: The focus on promoting sustainable transportation options benefits underserved communities that may rely on walking, biking, or public transit. This ensures that all community members have safer and more accessible means of transportation.
-3. **Reduction of Traffic Hazards**: By addressing traffic-related hazards, the action contributes to a safer urban environment for all residents, particularly those in low-income neighborhoods that may experience higher rates of traffic incidents.
+2. **Access to Sustainable Transportation**: The focus on promoting sustainable transportation options benefits underserved communities that may rely on walking, biking, or public transit. This ensures that all community members have safer access to these modes of transport.
+3. **Reduction of Traffic Hazards**: By addressing traffic-related hazards, the action helps to create a safer urban environment for all residents, particularly those in low-income neighborhoods that may experience higher rates of traffic incidents.
 4. **Community Engagement**: The implementation of such measures often involves community input, ensuring that the voices of underserved populations are heard and considered in the decision-making process, fostering a sense of ownership and inclusion.
-5. **Health Benefits**: Improved road safety and reduced traffic speeds can lead to lower rates of accidents and injuries, which disproportionately affect marginalized communities, thereby promoting overall public health equity.
-Overall, this climate action directly addresses the needs and safety of vulnerable and underserved communities, ensuring that their specific challenges are considered in urban planning and transportation policies.</t>
+5. **Health Benefits**: Improved road safety and reduced traffic speeds contribute to better air quality and lower noise pollution, which disproportionately affect low-income communities, thereby promoting health equity.
+Overall, this climate action recognizes and addresses the specific needs of vulnerable and underserved communities, ensuring that safety and accessibility are prioritized in urban planning.</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -6802,17 +6579,14 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>['Reduction in traffic-related accidents', 'Percentage decrease in average vehicle speeds', 'Increase in public transportation usage', 'Number of pedestrian and cyclist injuries', 'Public satisfaction with road safety measures', 'Reduction in greenhouse gas emissions from transportation', 'Increase in the number of safe crossings and bike lanes', 'Compliance rate with speed limits']</t>
+          <t>['Reduction in traffic-related accidents', 'Percentage decrease in average vehicle speeds', 'Increase in public transportation usage', 'Number of pedestrian and cyclist injuries', 'Public satisfaction with road safety measures', 'Reduction in greenhouse gas emissions from transportation', 'Increase in the number of active transportation users (walking, cycling)', 'Compliance rate with new speed limits']</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions through decreased reliance on driving', 'Improved road safety for vulnerable populations', 'Encouragement of sustainable transportation methods', 'Enhanced community engagement in transportation planning', 'Promotion of public health equity by reducing traffic-related injuries']</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+          <t>['Reduction in greenhouse gas emissions through decreased reliance on personal vehicles', 'Improved road safety for vulnerable populations', 'Enhanced access to sustainable transportation options for underserved communities', 'Community engagement in decision-making processes', 'Health benefits from reduced air pollution and noise']</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6865,7 +6639,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>The "Sustainable Cooking" initiatives promote equity and inclusion by targeting vulnerable or underserved communities that may lack access to energy-efficient appliances and sustainable cooking methods. By encouraging the adoption of environmentally friendly cooking practices, these initiatives help reduce energy costs for low-income households, thereby alleviating financial burdens. Additionally, the focus on resource conservation supports food security in these communities, as it encourages the use of local and sustainable ingredients. Furthermore, by providing education and resources on sustainable cooking, the initiatives empower individuals in underserved communities to make informed choices that benefit both their health and the environment, fostering a sense of agency and inclusion in climate action efforts.</t>
+          <t>The "Sustainable Cooking" initiatives promote equity and inclusion by targeting vulnerable or underserved communities that may lack access to energy-efficient appliances and sustainable cooking methods. By providing education and resources on environmentally friendly cooking practices, these initiatives empower individuals in these communities to adopt sustainable habits that can lead to cost savings and improved health outcomes. Additionally, the focus on resource conservation aligns with the needs of underserved populations, who often face higher energy costs and food insecurity. By fostering access to sustainable cooking practices, the initiative helps to level the playing field, ensuring that all community members can benefit from environmentally friendly solutions.</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6886,7 +6660,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>['Availability of energy-efficient appliances', 'Access to information on sustainable cooking methods', 'Consumer awareness and education on environmental impacts of cooking', 'Support from local governments and organizations for sustainable initiatives', 'Availability of resources for training and workshops on sustainable cooking practices']</t>
+          <t>['Availability of energy-efficient appliances', 'Access to information on sustainable cooking methods', 'Support from local governments and organizations for sustainable practices', 'Consumer awareness and education on the benefits of sustainable cooking', 'Availability of resources for training and workshops on sustainable cooking techniques']</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -6896,12 +6670,9 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>['Reduction in greenhouse gas emissions through energy-efficient cooking practices', 'Improved access to sustainable cooking resources for underserved communities', 'Lower energy costs for low-income households', 'Enhanced food security by promoting local and sustainable ingredients', 'Empowerment of individuals through education on sustainable cooking']</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+          <t>['Reduction in GHG emissions from stationary energy use', 'Promotion of energy-efficient cooking practices', 'Empowerment of underserved communities through access to sustainable cooking resources', 'Potential cost savings for households adopting sustainable cooking methods']</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6936,13 +6707,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
           <t>Enhancing urban density and mixed land use to reduce travel distances, car dependency, and associated greenhouse gas emissions. Includes public transport infrastructure, pedestrian pathways, and bike-friendly zones.</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Encourages shifts from car dependency to active transport and public transit use.</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -6984,17 +6763,6 @@
           <t>['Improved urban livability, better public health outcomes, reduced GHG emissions.']</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>Encourages shifts from car dependency to active transport and public transit use.</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7029,13 +6797,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>Promoting walking and cycling as primary modes of transport for short journeys (5 km or less) to reduce dependency on light-duty vehicles and decrease GHG emissions.</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Encourages a modal shift from car and motorcycle use to walking and cycling.</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -7077,17 +6853,6 @@
           <t>['Improved public health, reduced urban congestion, lower transport-related GHG emissions, and enhanced quality of urban life.']</t>
         </is>
       </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Encourages a modal shift from car and motorcycle use to walking and cycling.</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7122,13 +6887,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>Promoting the use of public transportation systems such as buses and rail for urban and intercity travel to reduce dependency on light-duty vehicles and decrease greenhouse gas emissions.</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Encourages a shift from private car usage to public transit for short and medium journeys.</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -7170,17 +6943,6 @@
           <t>['Enhanced urban livability, reduced traffic congestion, improved public health, and significant reductions in transport-related greenhouse gas emissions.']</t>
         </is>
       </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Encourages a shift from private car usage to public transit for short and medium journeys.</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7215,13 +6977,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr">
         <is>
           <t>Promoting the reduction in the quantity of materials used per unit of output to improve material efficiency, reduce transport needs, and enhance the efficiency of freight transport. Examples include combining multiple functions into single devices, localized production through 3D printing, and circular economy principles.</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Encourages reduced material consumption and adoption of multifunctional devices to reduce transport demand</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -7263,17 +7033,6 @@
           <t>['Improved resource efficiency, lower environmental footprint, and potential for reduced transport emissions.']</t>
         </is>
       </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments'</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Encourages reduced material consumption and adoption of multifunctional devices to reduce transport demand</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7308,13 +7067,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>Promoting shared mobility solutions such as car sharing, bike sharing, e-scooters, and carpooling to reduce reliance on privately owned vehicles and decrease greenhouse gas emissions. Shared Mobility includes Mobility as a Service (MaaS), integrating various transportation services for increased system efficiency.</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Encourages reduced vehicle ownership and increased use of shared transport options for short and medium journeys.</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -7356,17 +7123,6 @@
           <t>['Enhanced urban mobility, reduced traffic congestion, lower transport emissions, and increased system efficiency.']</t>
         </is>
       </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>Encourages reduced vehicle ownership and increased use of shared transport options for short and medium journeys.</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7401,13 +7157,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr">
         <is>
           <t>Encouraging teleworking (working from home) and videoconferencing as alternatives to commuting and in-person meetings, thereby reducing light-duty vehicle travel and associated emissions.</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Promotes a shift towards digital solutions, reducing the need for physical travel.</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -7449,17 +7213,6 @@
           <t>['Reduced traffic congestion, improved air quality, enhanced work-life balance, and lower transport emissions.']</t>
         </is>
       </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>Promotes a shift towards digital solutions, reducing the need for physical travel.</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7494,13 +7247,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
           <t>Utilizing advanced technologies, such as ICT, IoT sensors, AI, and Mobility as a Service (MaaS), to improve transport efficiency, reduce emissions, and enhance urban mobility. Smart mobility integrates various transport modes and optimizes operations to compete with private vehicles.</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Encourages a shift from private vehicle use to integrated, efficient, and shared transport solutions.</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -7542,17 +7303,6 @@
           <t>['Enhanced urban livability, reduced congestion, improved air quality, and significant advancements in transport efficiency.']</t>
         </is>
       </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>Encourages a shift from private vehicle use to integrated, efficient, and shared transport solutions.</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7587,13 +7337,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>Improving logistics planning in freight transport through strategies such as route optimisation, load optimisation, and eco-driving to reduce travel distances and enhance efficiency, thereby lowering GHG emissions.</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Encourages efficient logistics and eco-friendly driving practices to reduce fuel consumption and operational costs.</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -7635,17 +7393,6 @@
           <t>['Reduced operating costs, improved corporate image, enhanced transport infrastructure utilisation, and potential air quality improvement']</t>
         </is>
       </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>Encourages efficient logistics and eco-friendly driving practices to reduce fuel consumption and operational costs.</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7680,13 +7427,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>Encouraging consumer purchasing of goods online to reduce travel by light-duty vehicles for shopping purposes. This trades vehicle kilometers traveled for light-duty vehicles with freight transport through light trucks ('last-mile delivery').</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Encourages a shift from in-person shopping trips to online purchasing and efficient last-mile delivery systems.</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -7728,17 +7483,6 @@
           <t>['Improved urban mobility, reduced shopping-related travel emissions, and enhanced convenience for consumers.']</t>
         </is>
       </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>Encourages a shift from in-person shopping trips to online purchasing and efficient last-mile delivery systems.</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7773,13 +7517,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>Utilizes advanced technologies to automate driving tasks, improve road safety, optimize driving patterns, reduce congestion, and enhance efficient use of road space. Levels range from driver assistance to full autonomy.</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Encourages shifts to safer, more efficient automated driving systems, potentially reducing congestion and travel emissions.</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -7821,17 +7573,6 @@
           <t>['Enhanced road safety, reduced traffic congestion, increased accessibility for underserved populations, and optimization of transport systems for environmental and societal benefit.']</t>
         </is>
       </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>Encourages shifts to safer, more efficient automated driving systems, potentially reducing congestion and travel emissions.</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7866,13 +7607,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>Utilizes low-carbon or zero-carbon fuels, including natural gas, biofuels, ammonia, and synthetic fuels, to replace conventional petrol and diesel in internal combustion engines (ICE). These fuels offer pathways to reduce greenhouse gas emissions and diversify energy sources, though challenges remain in production costs, lifecycle emissions, and infrastructure.</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Encourages adoption of low-carbon fuel alternatives and a shift from conventional petrol and diesel to more sustainable fuel sources.</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -7914,17 +7663,6 @@
           <t>['Reduced GHG emissions, improved air quality, energy diversification, and increased resilience in transportation systems.']</t>
         </is>
       </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>Encourages adoption of low-carbon fuel alternatives and a shift from conventional petrol and diesel to more sustainable fuel sources.</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7959,13 +7697,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr">
         <is>
           <t>Adoption of electric vehicle technologies, including Battery Electric Vehicles (BEVs), Hybrid Electric Vehicles (HEVs), and Plug-in Hybrid Electric Vehicles (PHEVs), to reduce GHG emissions and dependence on fossil fuels. BEVs operate on electricity alone, producing zero emissions; HEVs combine an internal combustion engine with an electric motor; PHEVs allow extended electric-only driving.</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Encourages a shift from internal combustion engine vehicles to electric vehicles and adoption of renewable energy for charging.</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -8007,17 +7753,6 @@
           <t>['Reduced GHG emissions, improved urban air quality, decreased reliance on fossil fuels, and greater energy security.']</t>
         </is>
       </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>Encourages a shift from internal combustion engine vehicles to electric vehicles and adoption of renewable energy for charging.</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8052,13 +7787,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>Use of fuel cell technology to power vehicles by converting hydrogen into electricity through an electrochemical reaction. Produces zero emissions at the point of use and water as a by-product. Hydrogen fuel cells are highly efficient, particularly when hydrogen is produced from renewable sources.</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Encourages a shift from internal combustion engine vehicles to hydrogen-powered fuel cell vehicles, promoting cleaner transport options.</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -8100,17 +7843,6 @@
           <t>['Reduced GHG emissions, improved air quality, energy diversification, and advancement of clean technologies for transportation.']</t>
         </is>
       </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>Encourages a shift from internal combustion engine vehicles to hydrogen-powered fuel cell vehicles, promoting cleaner transport options.</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8145,13 +7877,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
           <t>Reducing the overall weight of vehicles by using advanced materials such as high-strength steel, aluminum, carbon fiber, and composites to improve fuel efficiency and reduce greenhouse gas emissions. Lightweighting enhances vehicle performance without compromising safety.</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Encourages the adoption of vehicles with enhanced fuel efficiency and reduced lifecycle emissions through material innovation.</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -8193,17 +7933,6 @@
           <t>['Reduced GHG emissions, enhanced fuel efficiency, improved vehicle performance, and contribution to a circular economy through advanced recycling.']</t>
         </is>
       </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>Encourages the adoption of vehicles with enhanced fuel efficiency and reduced lifecycle emissions through material innovation.</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8238,13 +7967,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr">
         <is>
           <t>Optimizing vehicle design, technology, and operations to reduce energy consumption and emissions. This includes advanced aerodynamics, efficient powertrains, low rolling resistance tires, better thermal management systems, turbocharging, direct fuel injection, and cylinder deactivation in internal combustion engines, among others.</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Encourages adoption of fuel-efficient technologies and operational practices across vehicle types.</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -8286,17 +8023,6 @@
           <t>['Reduced GHG emissions, enhanced fuel efficiency, lower operating costs, and improved air quality.']</t>
         </is>
       </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>Encourages adoption of fuel-efficient technologies and operational practices across vehicle types.</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8331,13 +8057,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr">
         <is>
           <t>A set of driving practices aimed at improving fuel efficiency, reducing greenhouse gas emissions, and minimizing wear and tear on vehicles by promoting smooth driving, regular vehicle maintenance, and traffic anticipation.</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Encourages drivers to adopt fuel-efficient driving practices, maintain vehicles properly, and avoid aggressive driving behaviors.</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -8379,17 +8113,6 @@
           <t>['Reduced GHG emissions, enhanced fuel efficiency, improved road safety, and lower transport costs.']</t>
         </is>
       </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>Encourages drivers to adopt fuel-efficient driving practices, maintain vehicles properly, and avoid aggressive driving behaviors.</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8424,13 +8147,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
           <t>Optimization of aircraft technology, including improvements in engine design, aerodynamics, airframe mass reduction, and operational navigation to reduce fuel consumption and emissions.</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Encourages adoption of fuel-efficient navigation routes, operational practices, and investment in advanced aircraft technology.</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -8472,17 +8203,6 @@
           <t>['Reduced GHG emissions, enhanced operational efficiency, and strengthened energy security in aviation.']</t>
         </is>
       </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>Encourages adoption of fuel-efficient navigation routes, operational practices, and investment in advanced aircraft technology.</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8517,13 +8237,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>Development and deployment of alternative aviation fuels, including bio-based SAFs, synthetic fuels, and liquid hydrogen, to reduce aviation greenhouse gas emissions.</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Encourages adoption of sustainable aviation fuels and development of low-carbon fuel infrastructure.</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -8565,17 +8293,6 @@
           <t>['Significant reductions in aviation emissions, improved energy security, and progress toward net-zero aviation operations.']</t>
         </is>
       </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>Encourages adoption of sustainable aviation fuels and development of low-carbon fuel infrastructure.</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8610,13 +8327,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'regulations_and_laws', 'incentives_and_subsidies', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>Promoting a shift from regional and medium-haul flights to high-speed rail (HSR) as a low-carbon alternative. HSR can serve distances of 400–1000 km effectively, reducing demand for air travel and associated emissions. Infrastructure improvements, supportive policies, and enhanced HSR networks are critical for this transition.</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Encourages a shift in consumer travel preferences from air travel to high-speed rail, fostering acceptance of HSR as a primary mode for regional trips.</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -8658,17 +8383,6 @@
           <t>['Reduces aviation emissions, improves regional connectivity, decreases transportation-related air pollution, and enhances public transportation networks.']</t>
         </is>
       </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'regulations_and_laws', 'incentives_and_subsidies', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>Encourages a shift in consumer travel preferences from air travel to high-speed rail, fostering acceptance of HSR as a primary mode for regional trips.</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8703,13 +8417,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
           <t>Transition to alternative fuels in the shipping sector, including hydrogen, ammonia, methanol, synthetic hydrocarbons, advanced biofuels, and electric propulsion. Focus on fuels produced using low-carbon energy sources to reduce lifecycle greenhouse gas emissions and achieve International Maritime Organization (IMO) targets.</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Encourages adoption of low-carbon fuels, improved operational practices, and infrastructure development for sustainable maritime transport.</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -8751,17 +8473,6 @@
           <t>['Significant reductions in maritime emissions, improved air quality, progress toward global decarbonization goals, and reduced reliance on fossil fuels in the shipping industry.']</t>
         </is>
       </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>Encourages adoption of low-carbon fuels, improved operational practices, and infrastructure development for sustainable maritime transport.</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8796,13 +8507,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>Adoption of electric propulsion technologies, including battery-electric and hybrid-electric systems, for short-sea shipping, ferries, and inland waterways to reduce greenhouse gas emissions. Includes advancements in design and engineering, such as optimizing hull shapes and integrating renewable energy sources like wind and solar for propulsion.</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Encourages adoption of low-emission propulsion systems and increased investment in infrastructure to support electric technologies. Promotes shifts toward sustainable practices in the maritime industry.</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 1, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -8844,17 +8563,6 @@
           <t>['Significant reduction in maritime sector emissions, improved air quality in coastal and port regions, decreased reliance on fossil fuels, and promotion of innovation in clean transportation technologies.']</t>
         </is>
       </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>Encourages adoption of low-emission propulsion systems and increased investment in infrastructure to support electric technologies. Promotes shifts toward sustainable practices in the maritime industry.</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8889,13 +8597,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>Enhancing energy efficiency in shipping through operational measures, optimized hull designs, advanced propulsion systems, and adoption of low-carbon fuels like hydrogen and ammonia. Includes reducing ship speeds ('slow steaming'), improving port operations, and retrofitting vessels with modern technologies to minimize emissions and fuel consumption.</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Encourages adoption of energy-efficient practices, operational changes, and investment in infrastructure to support the transition to low-carbon technologies in shipping. Promotes collaboration among stakeholders to achieve decarbonization goals.</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 1, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -8937,17 +8653,6 @@
           <t>['Reduction in maritime emissions, improved air and water quality, increased energy security, and enhanced innovation in sustainable shipping technologies.']</t>
         </is>
       </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>Encourages adoption of energy-efficient practices, operational changes, and investment in infrastructure to support the transition to low-carbon technologies in shipping. Promotes collaboration among stakeholders to achieve decarbonization goals.</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8982,13 +8687,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>Enhanced energy efficiency in industrial processes by recovering heat and energy from waste streams, improving process coupling, and adopting advanced technologies such as coke dry quenching, black liquor gasification, and top pressure recovery turbines. Includes reducing energy use in comminution, paper drying, and other industrial processes through optimized designs, operational improvements, and material efficiency strategies.</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Encourages adoption of energy recovery technologies, waste reduction practices, and material efficiency improvements in industrial processes. Promotes recycling and sustainable resource management.</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9030,17 +8743,6 @@
           <t>['Significant reductions in industrial emissions, improved resource efficiency, enhanced energy security, and increased sustainability in manufacturing and construction sectors.']</t>
         </is>
       </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>Encourages adoption of energy recovery technologies, waste reduction practices, and material efficiency improvements in industrial processes. Promotes recycling and sustainable resource management.</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9075,13 +8777,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>Enhancing fuel delivery systems in the steel production process by implementing technologies such as pulverized coal injection, improving furnace designs and process controls, and optimizing fuel combustion for heating. Includes energy efficiency measures to reduce emissions from coal and coke used in conventional iron-making, and the potential adoption of alternative reductants like biomass and waste plastics.</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Promotes the adoption of advanced fuel delivery systems and energy-efficient practices in steel manufacturing, encouraging industries to transition towards less emissions-intensive processes.</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9123,17 +8833,6 @@
           <t>['Significant reductions in emissions and energy use in steel manufacturing, improved air quality, enhanced energy security, and more sustainable industrial practices.']</t>
         </is>
       </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>Promotes the adoption of advanced fuel delivery systems and energy-efficient practices in steel manufacturing, encouraging industries to transition towards less emissions-intensive processes.</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9168,13 +8867,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>Enhancing the design and operation of furnaces and kilns to improve energy efficiency and reduce emissions. Includes technologies such as improved heat and energy recovery from process gases, advanced process controls, and better furnace designs to minimize temperature cycles and optimize fuel usage.</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Encourages industries to adopt advanced furnace designs, process controls, and energy-efficient practices.</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9216,17 +8923,6 @@
           <t>['Significant improvements in industrial energy efficiency, reduced emissions, cost savings for manufacturers, and enhanced air quality.']</t>
         </is>
       </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>Encourages industries to adopt advanced furnace designs, process controls, and energy-efficient practices.</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9261,13 +8957,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>This action involves improving heat-use energy efficiency by utilizing heat exchanger networks and high-temperature heat pumps to recover and reuse waste heat in industrial processes. Techniques include reducing heat needs via thermal insulation, reusing waste heat at various temperature grades, and recycling waste heat for power generation through technologies such as mechanical vapor recompression and thermoelectric conversion.</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Encourages industries to adopt energy-efficient technologies for heat recovery and reuse, reducing reliance on high-emission heat production methods.</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9309,17 +9013,6 @@
           <t>['Significant reductions in industrial energy consumption and GHG emissions, enhanced energy security, cost savings for manufacturers, and reduced environmental waste.']</t>
         </is>
       </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>Encourages industries to adopt energy-efficient technologies for heat recovery and reuse, reducing reliance on high-emission heat production methods.</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9354,13 +9047,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
           <t>This action focuses on reducing energy and emissions intensity in the steel production process by improving coupling between processes, such as Endless Strip Production (ESP). Techniques include reducing the number of temperature cycles, integrating process stages, and adopting energy-efficient technologies.</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Encourages manufacturers to optimize production stages, adopt efficient technologies, and reduce waste to improve overall energy efficiency and reduce emissions.</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9402,17 +9103,6 @@
           <t>['Improved energy efficiency, reduced emissions, cost savings for manufacturers, and enhanced competitiveness of the steel industry in global markets.']</t>
         </is>
       </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>Encourages manufacturers to optimize production stages, adopt efficient technologies, and reduce waste to improve overall energy efficiency and reduce emissions.</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9447,13 +9137,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
           <t>Implementation of energy-efficient technologies in mining processes, particularly in comminution, by upgrading ore concentration methods, using efficient grinding and crushing technologies, and optimizing particle size feed. Other opportunities include improving separation, drying, and materials handling processes.</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Encourages the adoption of advanced technologies and optimization of resource use to reduce energy consumption and emissions in mining processes.</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9495,17 +9193,6 @@
           <t>['Improved energy efficiency in mining, reduced operational costs, decreased environmental footprint of mining activities, and enhanced resource utilization.']</t>
         </is>
       </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>Encourages the adoption of advanced technologies and optimization of resource use to reduce energy consumption and emissions in mining processes.</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9540,13 +9227,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>Enhancing energy efficiency in the pulp, paper, and food processing industries by optimizing drying and dewatering processes. This includes using advanced technologies like heat exchanger networks, thermal vapor recompression, and reverse osmosis for energy savings.</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Encourages industries to adopt more energy-efficient technologies and optimize resource usage in drying and dewatering processes.</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9588,17 +9283,6 @@
           <t>['Increased energy efficiency, reduced operational costs, lower emissions, and enhanced sustainability in industrial processes.']</t>
         </is>
       </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>Encourages industries to adopt more energy-efficient technologies and optimize resource usage in drying and dewatering processes.</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9633,13 +9317,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>Material recycling involves recovering and reprocessing materials such as paper, aluminium, and other metals to reduce energy consumption, lower emissions, and conserve resources. It includes techniques like paper recycling, aluminium reuse, and increased recovery of valuable metals from industrial waste.</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Promotes increased adoption of recycling practices, reducing waste generation and encouraging efficient material use across industries.</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9681,17 +9373,6 @@
           <t>['Reduces reliance on virgin material extraction, lowers industrial energy demand, mitigates GHG emissions, and supports sustainable production practices.']</t>
         </is>
       </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>Promotes increased adoption of recycling practices, reducing waste generation and encouraging efficient material use across industries.</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9726,13 +9407,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr">
         <is>
           <t>The implementation of energy management systems using digitalisation and smart technologies to optimise energy use. These systems leverage real-time monitoring, advanced analytics, machine learning, and automation to improve energy efficiency, productivity, and cost-effectiveness.</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Encourages adoption of real-time energy management practices and optimization of energy-intensive processes, fostering a culture of sustainability in industries.</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -9774,17 +9463,6 @@
           <t>['Enhanced energy efficiency, reduced operational costs, improved industrial competitiveness, and support for decarbonization goals.']</t>
         </is>
       </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>Encourages adoption of real-time energy management practices and optimization of energy-intensive processes, fostering a culture of sustainability in industries.</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9819,13 +9497,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>Transitioning from fossil fuels like coal to renewable energy sources (e.g., biomass, natural gas, and waste-derived fuels) in industrial processes to reduce emissions. This includes the use of renewable substitutes such as biomass and waste plastics to displace coal in sectors like steel and cement.</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Encourages industries to adopt renewable fuel sources and replace traditional fossil fuels to align with climate goals.</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9867,17 +9553,6 @@
           <t>['Reduced dependence on fossil fuels, improved energy security, and mitigation of air pollution, contributing to global emission reduction targets.']</t>
         </is>
       </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>Encourages industries to adopt renewable fuel sources and replace traditional fossil fuels to align with climate goals.</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9912,13 +9587,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr">
         <is>
           <t>Transitioning steel production processes to electrified methods such as molten oxide electrolysis, advanced direct reduction, and other methods powered by low-carbon electricity to reduce emissions and improve energy efficiency.</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Encourages adoption of electrified processes and transition to low-carbon energy sources in steel production.</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -9960,17 +9643,6 @@
           <t>['Reduced reliance on fossil fuels, improved air quality, and enhanced global competitiveness of steel manufacturers.']</t>
         </is>
       </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>Encourages adoption of electrified processes and transition to low-carbon energy sources in steel production.</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10005,13 +9677,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr">
         <is>
           <t>Recycling energy from furnaces and kilns through technologies like heat recovery systems, including advanced heat exchangers and top pressure recovery turbines, to enhance energy efficiency and reduce emissions in steel production.</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Encourages adoption of advanced energy recovery technologies in industrial processes to reduce energy waste and emissions.</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10053,17 +9733,6 @@
           <t>['Enhances energy efficiency, reduces emissions, lowers operational costs, and improves competitiveness of the industrial sector in global markets.']</t>
         </is>
       </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>Encourages adoption of advanced energy recovery technologies in industrial processes to reduce energy waste and emissions.</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10098,13 +9767,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>Implementation of advanced technologies to optimize production processes across various industries, including iron and steel, cement, and aluminum. Examples include enhanced heat recovery, energy-efficient equipment, advanced material handling, and integration of renewable energy sources. Efforts aim to reduce energy consumption and emissions while improving production efficiency.</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Encourages industries to adopt state-of-the-art technologies and optimize operational processes to reduce energy use and emissions while maintaining productivity.</t>
+        </is>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10146,17 +9823,6 @@
           <t>['Enhanced energy efficiency, significant emissions reductions, cost savings for industries, increased competitiveness in global markets, and improved environmental sustainability.']</t>
         </is>
       </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>Encourages industries to adopt state-of-the-art technologies and optimize operational processes to reduce energy use and emissions while maintaining productivity.</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10191,13 +9857,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J108" t="inlineStr">
         <is>
           <t>Implementation of on-site combined heat and power (CHP) systems in the pulp and paper industry to improve energy efficiency and reduce GHG emissions. CHP systems efficiently generate electricity and heat simultaneously.</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Encourages adoption of more energy-efficient technologies and integration of heat and power systems at manufacturing sites.</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10239,17 +9913,6 @@
           <t>['Improved energy efficiency, reduced emissions, enhanced competitiveness of the pulp and paper industry, and long-term cost savings for manufacturers.']</t>
         </is>
       </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>Encourages adoption of more energy-efficient technologies and integration of heat and power systems at manufacturing sites.</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10284,13 +9947,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J109" t="inlineStr">
         <is>
           <t>Decarbonising feedstocks for industrial processes through Carbon Capture and Storage (CCS), Carbon Capture and Utilisation (CCU), and integration with low-carbon energy sources. This includes capturing carbon from various industrial emissions and reusing or storing it to reduce greenhouse gas emissions. Applications include creating synthetic fuels, chemicals, and materials while using renewable energy or biogenic carbon sources.</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Encourages industrial stakeholders to adopt CCS and CCU technologies, shifting towards low-carbon and circular economy feedstocks.</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10332,17 +10003,6 @@
           <t>['Enhanced industrial sustainability, reduced dependence on fossil fuels, advancement of circular economy principles, and mitigation of climate change impacts.']</t>
         </is>
       </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>Encourages industrial stakeholders to adopt CCS and CCU technologies, shifting towards low-carbon and circular economy feedstocks.</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10377,13 +10037,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>Capturing carbon dioxide (CO2) from industrial processes or combustion gases and reusing it for producing fuels, chemicals, and building materials. This process reduces emissions from the initial source and provides an alternative to using new fossil or biomass feedstocks.</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Encourages industries to adopt carbon reuse technologies, reducing reliance on virgin feedstocks and enhancing the circular economy.</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10425,17 +10093,6 @@
           <t>['Reduction in GHG emissions, enhanced energy security, and development of sustainable industries.']</t>
         </is>
       </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>Encourages industries to adopt carbon reuse technologies, reducing reliance on virgin feedstocks and enhancing the circular economy.</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10470,13 +10127,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>Carbon Capture and Storage (CCS) involves capturing CO2 from industrial processes, energy generation, or the atmosphere and storing it in geological formations for millennia to prevent its release into the atmosphere. CCS technologies can also enable near-zero or negative emissions when combined with sustainably sourced biofuels or direct air capture, supporting decarbonization of hard-to-abate sectors.</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Encourages industries to adopt CCS technologies for emission reduction, contributing to compliance with climate targets and fostering sustainable innovation.</t>
+        </is>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10518,17 +10183,6 @@
           <t>['Significant reductions in GHG emissions, mitigation of climate change effects, and increased energy security through sustainable industrial practices.']</t>
         </is>
       </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>Encourages industries to adopt CCS technologies for emission reduction, contributing to compliance with climate targets and fostering sustainable innovation.</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10563,13 +10217,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr">
         <is>
           <t>This action involves improving material efficiency by designing lighter products, optimizing material usage to maintain functionality, and incorporating circular economy principles such as reusability, repairability, and recyclability. It spans the entire product lifecycle, from design to end-of-life management.</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Encourages adoption of efficient material use practices, longer product lifespans, and repair/reuse behaviors among manufacturers and consumers.</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10611,17 +10273,6 @@
           <t>['Reduced environmental footprint, lower production costs, improved resource efficiency, and enhanced sustainability of industrial processes.']</t>
         </is>
       </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>Encourages adoption of efficient material use practices, longer product lifespans, and repair/reuse behaviors among manufacturers and consumers.</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10656,13 +10307,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>This action focuses on enhancing material efficiency by adopting near-net shape casting and similar innovative manufacturing techniques. These methods reduce material wastage during production, improve yield from raw materials, and enhance energy efficiency by minimizing reprocessing. Strategies include optimizing product design, lightweighting, and improving recycling and reuse processes.</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Encourages manufacturers to adopt innovative manufacturing processes, optimize material usage, and reduce production waste.</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10704,17 +10363,6 @@
           <t>['Significant reduction in material and energy use, enhanced production efficiency, reduced emissions, and improved sustainability across industrial supply chains.']</t>
         </is>
       </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>Encourages manufacturers to adopt innovative manufacturing processes, optimize material usage, and reduce production waste.</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10749,13 +10397,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J114" t="inlineStr">
         <is>
           <t>This action involves designing products to enable circular principles such as extended product life, reusability, repairability, and ease of recycling. It emphasizes lightweighting, material optimization, and improved recovery of materials at the end of their lifecycle through reuse, remanufacturing, or recycling.</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Encourages stakeholders to adopt circular economy principles, reduce waste, and prioritize designing products for longevity and efficient material recovery.</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10797,17 +10453,6 @@
           <t>['Reduction in raw material demand, improved environmental sustainability, decreased emissions, and enhanced industrial efficiency.']</t>
         </is>
       </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>Encourages stakeholders to adopt circular economy principles, reduce waste, and prioritize designing products for longevity and efficient material recovery.</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10842,13 +10487,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'incentives_and_subsidies', 'programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J115" t="inlineStr">
         <is>
           <t>Circular Economy (CE) policies aim to close the loop for materials and energy flows by reducing, reusing, and recycling resources. These policies promote durable goods, reuse and remanufacturing, industrial symbiosis, and urban symbiosis to minimize waste and reduce GHG emissions. CE policies operate at micro, meso, and macro levels to integrate strategies like eco-design, sustainable supply chains, and urban energy symbiosis.</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Encourages adoption of sustainable production practices, consumer participation in recycling, and cross-sectoral collaboration to reduce resource extraction and waste generation.</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10890,17 +10543,6 @@
           <t>['Significant reductions in resource extraction, energy use, and emissions; enhanced regional development through eco-industrial parks; and broader adoption of sustainable practices across industries and urban areas.']</t>
         </is>
       </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'incentives_and_subsidies', 'programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>Encourages adoption of sustainable production practices, consumer participation in recycling, and cross-sectoral collaboration to reduce resource extraction and waste generation.</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10935,13 +10577,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr">
         <is>
           <t>Utilizing alternative feedstocks, such as blast furnace slag, fly ash, and pozzolans, to reduce the clinker-to-cement ratio in cement production. These alternatives lower emissions associated with calcination and energy-intensive processes. Improved material efficiency through high-strength concretes and innovative placement methods further reduces material usage.</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Encourages the adoption of alternative materials and innovative construction practices to reduce reliance on traditional clinker-intensive cement production.</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -10983,17 +10633,6 @@
           <t>['Reduced GHG emissions, enhanced resource efficiency, lower energy consumption in cement production, and improved environmental quality in cement manufacturing regions.']</t>
         </is>
       </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>Encourages the adoption of alternative materials and innovative construction practices to reduce reliance on traditional clinker-intensive cement production.</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -11028,13 +10667,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J117" t="inlineStr">
         <is>
           <t>Encouraging behavioral changes to reduce waste in industrial processes and consumer habits, particularly in food production and consumption. This includes reducing food waste through better planning, optimizing portion sizes, and improving recycling and reuse practices in production and post-consumption stages.</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Encourages individuals and industries to adopt waste-reduction strategies, reduce overproduction, optimize food usage, and recycle waste effectively.</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 1}</t>
@@ -11076,17 +10723,6 @@
           <t>['Reduced environmental burden, enhanced resource efficiency, improved urban livability, and cost savings in waste management systems.']</t>
         </is>
       </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>Encourages individuals and industries to adopt waste-reduction strategies, reduce overproduction, optimize food usage, and recycle waste effectively.</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -11121,13 +10757,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J118" t="inlineStr">
         <is>
           <t>Encourages precise use of consumable products like detergents and fertilizers to minimize material and energy waste while maximizing product-service efficiency. This strategy aims to reduce material intensity and waste production in the industry sector.</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Promotes behavioral changes in the precise use of products, such as following recommended doses for consumables and minimizing waste in production processes.</t>
+        </is>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -11169,17 +10813,6 @@
           <t>['Reduced industrial emissions, lower resource consumption, cost savings for consumers and industries, and improved efficiency across the supply chain.']</t>
         </is>
       </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>Promotes behavioral changes in the precise use of products, such as following recommended doses for consumables and minimizing waste in production processes.</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -11214,13 +10847,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr">
         <is>
           <t>Promotes more intensive use of durable products by encouraging product sharing, which reduces the demand for new products and the associated GHG emissions from their manufacturing and supply chain.</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Encourages users to share durable products and adopt product-service systems that emphasize using goods more efficiently rather than owning them individually.</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -11262,17 +10903,6 @@
           <t>['Reduction in resource use and emissions, cost savings for consumers, increased accessibility to products, and fostering a circular economy through more efficient use of materials.']</t>
         </is>
       </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V119" t="inlineStr">
-        <is>
-          <t>Encourages users to share durable products and adopt product-service systems that emphasize using goods more efficiently rather than owning them individually.</t>
-        </is>
-      </c>
-      <c r="W119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -11307,13 +10937,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr">
         <is>
           <t>Designing products with longer lifespans, increased reusability, repairability, and recyclability to reduce material use and improve resource efficiency. This includes optimizing product designs to minimize material consumption and emissions, supporting a circular economy.</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Encourages manufacturers and consumers to prioritize durability, reuse, and efficient use of materials to reduce waste and emissions.</t>
+        </is>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 1}</t>
@@ -11355,17 +10993,6 @@
           <t>['Significant emissions reductions, resource conservation, cost savings for consumers, and strengthened circular economy practices.']</t>
         </is>
       </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V120" t="inlineStr">
-        <is>
-          <t>Encourages manufacturers and consumers to prioritize durability, reuse, and efficient use of materials to reduce waste and emissions.</t>
-        </is>
-      </c>
-      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -11400,13 +11027,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J121" t="inlineStr">
         <is>
           <t>Extending the lifespan of buildings and infrastructure by maintaining their structural integrity through improved product stock maintenance. This involves ensuring concrete structures remain functional for over 200 years.</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Encourages extending the lifetime of concrete structures and promoting more sustainable construction and maintenance practices.</t>
+        </is>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -11448,17 +11083,6 @@
           <t>['Reduction in demand for new concrete and cement production, reduced emissions, enhanced resource efficiency, and increased affordability and sustainability of infrastructure.']</t>
         </is>
       </c>
-      <c r="U121" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V121" t="inlineStr">
-        <is>
-          <t>Encourages extending the lifetime of concrete structures and promoting more sustainable construction and maintenance practices.</t>
-        </is>
-      </c>
-      <c r="W121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -11493,13 +11117,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J122" t="inlineStr">
         <is>
           <t>Promotes behavioral and consumption changes to reduce overall industrial emissions, emphasizing reduced demand for products, reuse and recycling, and more efficient use of resources.</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Encourages reducing overconsumption, reusing materials, adopting sustainable consumption patterns, and reducing waste generation through lifestyle and business model changes.</t>
+        </is>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -11541,17 +11173,6 @@
           <t>['Enhances societal well-being by reducing overconsumption, lowering environmental impacts, and fostering long-term sustainability in resource use and industrial processes.']</t>
         </is>
       </c>
-      <c r="U122" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V122" t="inlineStr">
-        <is>
-          <t>Encourages reducing overconsumption, reusing materials, adopting sustainable consumption patterns, and reducing waste generation through lifestyle and business model changes.</t>
-        </is>
-      </c>
-      <c r="W122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -11586,13 +11207,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr">
         <is>
           <t>This action focuses on mitigating climate change by reducing the demand for industrial products and services, particularly in sectors such as clothing and tourism. It emphasizes behavioral and lifestyle changes, such as sustainable consumption patterns, reduced long-haul travel, and lower demand for products linked to excessive material production and emissions.</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Promotes sustainable consumption and lifestyle changes, such as reduced reliance on fast fashion, decreased long-haul travel, and responsible use of industrial products to limit resource consumption and emissions.</t>
+        </is>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -11634,17 +11263,6 @@
           <t>['Reduction in global GHG emissions, improved resource efficiency, enhanced sustainability in consumption patterns, and reduced strain on environmental resources.']</t>
         </is>
       </c>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V123" t="inlineStr">
-        <is>
-          <t>Promotes sustainable consumption and lifestyle changes, such as reduced reliance on fast fashion, decreased long-haul travel, and responsible use of industrial products to limit resource consumption and emissions.</t>
-        </is>
-      </c>
-      <c r="W123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -11679,13 +11297,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr">
         <is>
           <t>Reducing deforestation and forest degradation conserves carbon pools in forest vegetation and soil by avoiding tree cover loss and disturbance. This involves controlling drivers of deforestation, improving forest governance, and supporting community forest management.</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Encourages sustainable land management practices, community engagement in conservation, and improved governance to reduce activities driving deforestation and degradation.</t>
+        </is>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 1, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -11727,17 +11353,6 @@
           <t>['Preserves biodiversity, enhances ecosystem services, improves air and water quality, and contributes to climate stabilization and sustainable development.']</t>
         </is>
       </c>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V124" t="inlineStr">
-        <is>
-          <t>Encourages sustainable land management practices, community engagement in conservation, and improved governance to reduce activities driving deforestation and degradation.</t>
-        </is>
-      </c>
-      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -11772,13 +11387,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr">
         <is>
           <t>Activities focused on converting land to forests, restoring degraded forests, and prioritizing ecological integrity. Afforestation targets historically non-forested land, while reforestation targets previously forested areas. Efforts include enhancing biodiversity, improving ecosystem services, and increasing carbon sequestration.</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Encourages sustainable land management, restoration of degraded ecosystems, and adoption of forest-friendly agricultural practices.</t>
+        </is>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -11820,17 +11443,6 @@
           <t>['Increased carbon sequestration, improved biodiversity, enhanced ecosystem resilience, better water regulation, soil stabilization, and support for local communities through sustainable resource use.']</t>
         </is>
       </c>
-      <c r="U125" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V125" t="inlineStr">
-        <is>
-          <t>Encourages sustainable land management, restoration of degraded ecosystems, and adoption of forest-friendly agricultural practices.</t>
-        </is>
-      </c>
-      <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -11865,13 +11477,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>['incentives_and_subsidies', 'programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr">
         <is>
           <t>Sustainable forest management of already managed forests to increase carbon stocks, improve wood quality, mitigate disturbances, and provide co-benefits like biodiversity conservation, water regulation, and soil protection. Includes longer rotations, reduced harvesting, mixed stands, and climate-smart forestry.</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Encourages forest owners and managers to adopt sustainable practices, prioritize biodiversity, and reduce harvesting impacts while maintaining productivity.</t>
+        </is>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -11913,17 +11533,6 @@
           <t>['Improved forest health and resilience, enhanced carbon sequestration, biodiversity conservation, and increased ecosystem services like water and soil regulation.']</t>
         </is>
       </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>['incentives_and_subsidies', 'programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V126" t="inlineStr">
-        <is>
-          <t>Encourages forest owners and managers to adopt sustainable practices, prioritize biodiversity, and reduce harvesting impacts while maintaining productivity.</t>
-        </is>
-      </c>
-      <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -11958,13 +11567,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr">
         <is>
           <t>Implementation of fire management practices, including prescribed burning and natural resource management, to reduce uncontrolled wildfires in forests and savannas. Focuses on safeguarding life, property, and resources while mitigating GHG emissions and maintaining carbon stocks.</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Encourages adoption of prescribed burning and sustainable fire management practices among communities and land managers to reduce uncontrolled wildfires and their associated GHG emissions.</t>
+        </is>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -12006,17 +11623,6 @@
           <t>['Reduced GHG emissions, improved biodiversity conservation, prevention of soil erosion, enhanced land productivity, and reduced risks to life and property from uncontrolled wildfires.']</t>
         </is>
       </c>
-      <c r="U127" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V127" t="inlineStr">
-        <is>
-          <t>Encourages adoption of prescribed burning and sustainable fire management practices among communities and land managers to reduce uncontrolled wildfires and their associated GHG emissions.</t>
-        </is>
-      </c>
-      <c r="W127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -12051,13 +11657,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J128" t="inlineStr">
         <is>
           <t>This action involves preventing the conversion of grasslands and savannas to croplands to avoid soil carbon loss and mitigate GHG emissions. It includes activities such as vegetation management, animal management, and fire management to enhance soil carbon sequestration and conserve biodiversity.</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Encourages sustainable land management practices, reduced cropland expansion, and protection of grasslands and savannas.</t>
+        </is>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -12099,17 +11713,6 @@
           <t>['Preserves ecosystem services, enhances biodiversity, supports climate resilience, and provides sustainable livelihoods for communities dependent on grasslands.']</t>
         </is>
       </c>
-      <c r="U128" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V128" t="inlineStr">
-        <is>
-          <t>Encourages sustainable land management practices, reduced cropland expansion, and protection of grasslands and savannas.</t>
-        </is>
-      </c>
-      <c r="W128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -12144,13 +11747,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>Prevent conversion and degradation of peatlands to avoid emissions from vegetation clearing, fires, and peat decomposition. Includes improving governance and management to preserve carbon-rich ecosystems critical for biodiversity and carbon storage.</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Encourages sustainable land management practices and prioritization of conservation over land conversion for agriculture, mining, or urban expansion.</t>
+        </is>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -12192,17 +11803,6 @@
           <t>['Reduced GHG emissions, enhanced biodiversity, improved water regulation, and decreased fire-related health hazards.']</t>
         </is>
       </c>
-      <c r="U129" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V129" t="inlineStr">
-        <is>
-          <t>Encourages sustainable land management practices and prioritization of conservation over land conversion for agriculture, mining, or urban expansion.</t>
-        </is>
-      </c>
-      <c r="W129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -12237,13 +11837,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J130" t="inlineStr">
         <is>
           <t>Peatland restoration involves rewetting and revegetating degraded peatlands to increase carbon accumulation in vegetation and soils, while avoiding ongoing CO2 emissions. This includes restoring hydrology, reducing fire risk, and maintaining ecosystem services like water regulation and flood prevention. It also addresses biodiversity conservation and paludiculture.</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Encourages sustainable land management practices, collaboration among stakeholders, and the prioritization of ecosystem restoration over competing land uses.</t>
+        </is>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 1}</t>
@@ -12285,17 +11893,6 @@
           <t>['Significant reductions in CO2 emissions, improved biodiversity, enhanced water regulation, reduced flooding risks, and increased resilience to climate change.']</t>
         </is>
       </c>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V130" t="inlineStr">
-        <is>
-          <t>Encourages sustainable land management practices, collaboration among stakeholders, and the prioritization of ecosystem restoration over competing land uses.</t>
-        </is>
-      </c>
-      <c r="W130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -12330,13 +11927,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'incentives_and_subsidies', 'programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J131" t="inlineStr">
         <is>
           <t>This action involves reducing the conversion of coastal wetlands such as mangroves, marshes, and seagrass ecosystems to avoid emissions from biomass and soil carbon loss. It also supports biodiversity conservation, fisheries production, soil stabilization, water quality regulation, flood prevention, and resilience against cyclones.</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Promotes sustainable land-use practices and prioritizes wetland preservation over aquaculture, agriculture, and urban development.</t>
+        </is>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -12378,17 +11983,6 @@
           <t>['Increased carbon sequestration, enhanced resilience to climate impacts, improved biodiversity, better water quality, and greater protection against flooding and storm surges.']</t>
         </is>
       </c>
-      <c r="U131" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'incentives_and_subsidies', 'programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V131" t="inlineStr">
-        <is>
-          <t>Promotes sustainable land-use practices and prioritizes wetland preservation over aquaculture, agriculture, and urban development.</t>
-        </is>
-      </c>
-      <c r="W131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -12423,13 +12017,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J132" t="inlineStr">
         <is>
           <t>Coastal wetland restoration involves restoring degraded or damaged coastal ecosystems, including mangroves, salt marshes, and seagrass beds, to sequester "blue carbon" in vegetation and soils. Restoration includes passive (removal of degradation drivers) and active (environmental manipulation) approaches to reinstate ecosystem functions and carbon sequestration potential.</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Encourages the prevention of wetland degradation, active participation of local communities in restoration efforts, and sustainable management of coastal ecosystems.</t>
+        </is>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -12471,17 +12073,6 @@
           <t>['Enhanced ecosystem resilience, improved carbon sequestration, protection against sea-level rise and storms, increased biodiversity, and strengthened coastal livelihoods and food security.']</t>
         </is>
       </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V132" t="inlineStr">
-        <is>
-          <t>Encourages the prevention of wetland degradation, active participation of local communities in restoration efforts, and sustainable management of coastal ecosystems.</t>
-        </is>
-      </c>
-      <c r="W132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -12516,13 +12107,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J133" t="inlineStr">
         <is>
           <t>Implementation of sustainable soil management practices in croplands and grasslands to enhance soil organic carbon. Practices include improved crop and nutrient management, reduced tillage, residue retention, water and rice management, biochar application, improved grass varieties, livestock stocking management, and fire management. These activities aim to increase soil organic matter, mitigate GHG emissions, and provide co-benefits for biodiversity, water provision, and food security.</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Encourages adoption of sustainable soil management practices to increase soil organic carbon, optimize water and nutrient use, and reduce emissions.</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -12564,17 +12163,6 @@
           <t>['Enhanced soil health, improved water retention, increased crop yields, greater biodiversity, reduced erosion, and resilience to climate change in agricultural and grassland ecosystems.']</t>
         </is>
       </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V133" t="inlineStr">
-        <is>
-          <t>Encourages adoption of sustainable soil management practices to increase soil organic carbon, optimize water and nutrient use, and reduce emissions.</t>
-        </is>
-      </c>
-      <c r="W133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -12609,13 +12197,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>['incentives_and_subsidies', 'programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J134" t="inlineStr">
         <is>
           <t>Biochar is produced by heating organic matter (e.g., forestry residues, straw, manure) in oxygen-limited environments. It has significant mitigation potential through carbon dioxide removal (CDR), reduced greenhouse gas emissions, and soil application benefits like improved fertility and reduced N2O emissions.</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Encourages adoption of sustainable practices, use of biochar in agriculture, and increased awareness of its long-term soil and climate benefits.</t>
+        </is>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -12657,17 +12253,6 @@
           <t>['Improved agricultural productivity, enhanced soil resilience to climate change, reduced pollution, and long-term carbon storage in soils, contributing to global climate goals.']</t>
         </is>
       </c>
-      <c r="U134" t="inlineStr">
-        <is>
-          <t>['incentives_and_subsidies', 'programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V134" t="inlineStr">
-        <is>
-          <t>Encourages adoption of sustainable practices, use of biochar in agriculture, and increased awareness of its long-term soil and climate benefits.</t>
-        </is>
-      </c>
-      <c r="W134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -12702,13 +12287,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J135" t="inlineStr">
         <is>
           <t>Agroforestry integrates trees and shrubs with crops and/or livestock to sequester carbon, enhance soil health, reduce soil erosion, improve water quality, and diversify livelihoods. It also offers co-benefits like mitigating regional climates and increasing land productivity while addressing risks like biodiversity and hydrology impacts.</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Encourages farmers to adopt sustainable land management practices by integrating trees, crops, and livestock to improve productivity, carbon sequestration, and resilience.</t>
+        </is>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 1}</t>
@@ -12750,17 +12343,6 @@
           <t>['Enhanced land productivity, improved livelihoods, increased carbon storage, better water quality, and resilience to climate change.']</t>
         </is>
       </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V135" t="inlineStr">
-        <is>
-          <t>Encourages farmers to adopt sustainable land management practices by integrating trees, crops, and livestock to improve productivity, carbon sequestration, and resilience.</t>
-        </is>
-      </c>
-      <c r="W135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -12795,13 +12377,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'incentives_and_subsidies', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J136" t="inlineStr">
         <is>
           <t>This action targets methane (CH4) emissions from enteric fermentation in livestock through direct interventions like feed additives, inhibitors, or vaccines, and indirect measures like improving production efficiency through better breeding and husbandry practices. It also includes early-life manipulation of the ruminal biome.</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Encourages adoption of advanced feeding practices, use of additives or vaccines, and selection of low-emission livestock breeds to reduce methane emissions while improving productivity.</t>
+        </is>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -12843,17 +12433,6 @@
           <t>['Reduction in global agricultural methane emissions, improved livestock productivity, and enhanced food security, particularly in regions with high agricultural dependence.']</t>
         </is>
       </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'incentives_and_subsidies', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V136" t="inlineStr">
-        <is>
-          <t>Encourages adoption of advanced feeding practices, use of additives or vaccines, and selection of low-emission livestock breeds to reduce methane emissions while improving productivity.</t>
-        </is>
-      </c>
-      <c r="W136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -12888,13 +12467,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J137" t="inlineStr">
         <is>
           <t>Implementation of improved water management practices (e.g., single and multiple drainage systems), residue management, better fertiliser application (e.g., slow-release fertilisers), and soil amendments (e.g., biochar) to reduce CH4 and N2O emissions while enhancing sustainability and system resilience.</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Encourages adoption of sustainable cultivation practices, such as reducing water waste, improving fertiliser use efficiency, and adopting innovative drainage and residue management techniques.</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -12936,17 +12523,6 @@
           <t>['Reduced greenhouse gas emissions, improved water use efficiency, enhanced drought resilience, increased farm income, and more sustainable agricultural practices contributing to food security.']</t>
         </is>
       </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>Encourages adoption of sustainable cultivation practices, such as reducing water waste, improving fertiliser use efficiency, and adopting innovative drainage and residue management techniques.</t>
-        </is>
-      </c>
-      <c r="W137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -12981,13 +12557,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr">
         <is>
           <t>Implementation of improved crop nutrient management practices to reduce N2O emissions from cropland soils. Practices include optimizing fertilizer application rates, timing, and types; using nitrification inhibitors and slow-release fertilizers; and integrating nutrient management techniques such as crop rotations, cover crops, and bio-fertilizer application.</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Encourages farmers to adopt precision fertilization, use organic and synthetic fertilizers efficiently, and employ sustainable agricultural practices for reduced emissions and enhanced productivity.</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -13029,17 +12613,6 @@
           <t>['Contributes to climate mitigation, improves food and nutrition security, enhances environmental sustainability, and supports long-term agricultural productivity.']</t>
         </is>
       </c>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V138" t="inlineStr">
-        <is>
-          <t>Encourages farmers to adopt precision fertilization, use organic and synthetic fertilizers efficiently, and employ sustainable agricultural practices for reduced emissions and enhanced productivity.</t>
-        </is>
-      </c>
-      <c r="W138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -13074,13 +12647,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J139" t="inlineStr">
         <is>
           <t>Manure management measures aim to mitigate CH4 and N2O emissions from manure storage and deposition through techniques such as anaerobic digestion, nitrification inhibitors, composting, improved storage and application practices, grazing practices, and livestock diet alteration. Co-benefits include improved nutrient recovery, fertiliser value, and biogas production.</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Encourages adoption of sustainable manure management practices, including reducing nitrogen excretion, improving application timing, and adopting biogas production methods.</t>
+        </is>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -13122,17 +12703,6 @@
           <t>['Reduces greenhouse gas emissions, improves local water and air quality, enhances soil health, supports food security, and provides renewable energy through biogas production.']</t>
         </is>
       </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V139" t="inlineStr">
-        <is>
-          <t>Encourages adoption of sustainable manure management practices, including reducing nitrogen excretion, improving application timing, and adopting biogas production methods.</t>
-        </is>
-      </c>
-      <c r="W139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -13167,13 +12737,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J140" t="inlineStr">
         <is>
           <t>Bioenergy involves producing energy from organic sources like biomass, organic waste, and harvest residues, displacing fossil fuels in heat, electricity, and fuel production. When combined with carbon capture and storage (BECCS), it stores biogenic carbon in geological or terrestrial reservoirs, achieving negative emissions. BECCS can also integrate with agriculture and forestry for co-benefits like land restoration and biogas production.</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Promotes the adoption of sustainable land-use practices, integration of biomass production with agriculture, and support for renewable energy adoption.</t>
+        </is>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 1, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 1}</t>
@@ -13215,17 +12793,6 @@
           <t>['Enhanced energy security, reduced GHG emissions, restored degraded lands, improved air and water quality, and biodiversity conservation.']</t>
         </is>
       </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>Promotes the adoption of sustainable land-use practices, integration of biomass production with agriculture, and support for renewable energy adoption.</t>
-        </is>
-      </c>
-      <c r="W140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -13260,13 +12827,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J141" t="inlineStr">
         <is>
           <t>Transitioning dietary patterns to promote individual health and well-being while minimizing environmental impacts. Focuses on reducing animal-based food consumption, particularly from ruminant animals, and increasing plant-based food consumption to reduce GHG emissions and preserve biodiversity.</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Encourages a shift in consumer behavior towards adopting plant-rich diets, reducing red meat consumption, and increasing awareness of the environmental and health benefits of sustainable diets.</t>
+        </is>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -13308,17 +12883,6 @@
           <t>['Improved public health outcomes, reduced environmental pressures (e.g., deforestation, biodiversity loss), and strengthened food security through sustainable practices.']</t>
         </is>
       </c>
-      <c r="U141" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'incentives_and_subsidies', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V141" t="inlineStr">
-        <is>
-          <t>Encourages a shift in consumer behavior towards adopting plant-rich diets, reducing red meat consumption, and increasing awareness of the environmental and health benefits of sustainable diets.</t>
-        </is>
-      </c>
-      <c r="W141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -13353,13 +12917,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>['taxes_and_fees', 'regulations_and_laws', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J142" t="inlineStr">
         <is>
           <t>Reduction of food loss and waste (FLW) through improved harvesting and post-harvesting technologies, mandatory reporting, reduction targets, consumer awareness campaigns, taxation, and marketing of imperfect food products. Includes measures across the entire food supply chain to minimize spoilage and waste.</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Promotes consumer behavior changes, such as avoiding food waste, opting for longer-lasting products, and choosing cosmetically imperfect products. Encourages businesses to reduce waste through reporting and adopting better practices.</t>
+        </is>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -13401,17 +12973,6 @@
           <t>['Enhances food security, reduces environmental stress on water and land resources, supports poverty alleviation, and contributes to achieving SDG 12 for sustainable consumption and production patterns.']</t>
         </is>
       </c>
-      <c r="U142" t="inlineStr">
-        <is>
-          <t>['taxes_and_fees', 'regulations_and_laws', 'programs_and_initiatives', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V142" t="inlineStr">
-        <is>
-          <t>Promotes consumer behavior changes, such as avoiding food waste, opting for longer-lasting products, and choosing cosmetically imperfect products. Encourages businesses to reduce waste through reporting and adopting better practices.</t>
-        </is>
-      </c>
-      <c r="W142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -13446,13 +13007,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J143" t="inlineStr">
         <is>
           <t>Promotes the use of sustainably harvested wood for material substitution (e.g., replacing concrete or steel) and increasing carbon storage in wood products. Includes strategies like increasing recycling, extending product lifetimes, and shifting to long-lived wood products.</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Encourages the adoption of wood-based materials in construction and other industries while promoting sustainable forest management.</t>
+        </is>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -13494,17 +13063,6 @@
           <t>['Reduces emissions from traditional material production, enhances carbon sequestration, supports sustainable forest industries, and provides economic opportunities in rural and forested areas.']</t>
         </is>
       </c>
-      <c r="U143" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V143" t="inlineStr">
-        <is>
-          <t>Encourages the adoption of wood-based materials in construction and other industries while promoting sustainable forest management.</t>
-        </is>
-      </c>
-      <c r="W143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -13539,13 +13097,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'regulations_and_laws', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr">
         <is>
           <t>Developing urban areas with medium to high densities of housing, jobs, and commerce; a high mix of land uses; connected streets; and high accessibility. This layout reduces vehicle miles traveled and supports low-carbon transportation and energy efficiency.</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Encourages reduced vehicle usage, increased use of public transportation, walking, and cycling, and adoption of smaller, energy-efficient dwelling units.</t>
+        </is>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -13587,17 +13153,6 @@
           <t>['Reduced GHG emissions, improved public health, better urban livability, reduced resource consumption, and preservation of land for agriculture and forestry.']</t>
         </is>
       </c>
-      <c r="U144" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'regulations_and_laws', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V144" t="inlineStr">
-        <is>
-          <t>Encourages reduced vehicle usage, increased use of public transportation, walking, and cycling, and adoption of smaller, energy-efficient dwelling units.</t>
-        </is>
-      </c>
-      <c r="W144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -13632,13 +13187,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J145" t="inlineStr">
         <is>
           <t>This action integrates spatial planning strategies based on the 5Ds of transit-oriented development (density, diversity, design, destination accessibility, and distance to transit). It aims to reduce vehicle miles traveled (VMT) and transport-related GHG emissions by increasing residential and job densities, improving street connectivity, and encouraging mixed land uses.</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Encourages reduced car ownership and usage, increased public transit, walking, and cycling, and supports a compact, energy-efficient urban lifestyle.</t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 1, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -13680,17 +13243,6 @@
           <t>['Reduces GHG emissions, improves air quality, enhances urban livability, and fosters more sustainable urban growth patterns.']</t>
         </is>
       </c>
-      <c r="U145" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V145" t="inlineStr">
-        <is>
-          <t>Encourages reduced car ownership and usage, increased public transit, walking, and cycling, and supports a compact, energy-efficient urban lifestyle.</t>
-        </is>
-      </c>
-      <c r="W145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -13725,13 +13277,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'regulations_and_laws', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr">
         <is>
           <t>Integrated spatial planning promotes compact urban form to reduce GHG emissions by increasing urban efficiency, supporting sustainable infrastructure such as district heating/cooling networks, and enhancing green areas. Co-design processes improve public acceptance and institutional capacity to support coordinated mitigation strategies.</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Encourages adoption of efficient urban designs, increased density, and eco-friendly living patterns through public engagement and stakeholder collaboration.</t>
+        </is>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 1, 'cost_of_living': 0, 'housing': 1, 'mobility': 1, 'stakeholder_engagement': 0}</t>
@@ -13773,17 +13333,6 @@
           <t>['Enhanced livability, improved public health, reduced energy use, increased resilience to climate impacts, and promotion of green economic growth.']</t>
         </is>
       </c>
-      <c r="U146" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'regulations_and_laws', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V146" t="inlineStr">
-        <is>
-          <t>Encourages adoption of efficient urban designs, increased density, and eco-friendly living patterns through public engagement and stakeholder collaboration.</t>
-        </is>
-      </c>
-      <c r="W146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -13818,13 +13367,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J147" t="inlineStr">
         <is>
           <t>This action involves replacing fossil fuel-based technologies with electrified alternatives, such as electric vehicles, heat pumps, and renewable energy systems, to decarbonize urban energy infrastructure. It focuses on integrating renewable energy, increasing demand-side flexibility, and promoting energy efficiency in urban systems to support decarbonization and reduce GHG emissions.</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Encourages the adoption of electrified technologies, demand-side energy management, and community engagement to reduce reliance on fossil fuels and transition to renewable energy.</t>
+        </is>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -13866,17 +13423,6 @@
           <t>['Enhances energy security, reduces urban air pollution, improves public health, and supports sustainable urban development through renewable energy and electrification.']</t>
         </is>
       </c>
-      <c r="U147" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives', 'regulations_and_laws', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V147" t="inlineStr">
-        <is>
-          <t>Encourages the adoption of electrified technologies, demand-side energy management, and community engagement to reduce reliance on fossil fuels and transition to renewable energy.</t>
-        </is>
-      </c>
-      <c r="W147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -13911,13 +13457,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'infrastructure_investments', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J148" t="inlineStr">
         <is>
           <t>Transition to net-zero embodied carbon in construction materials and supply chains by substituting emissions-intensive materials like steel and concrete with engineered timber systems. This includes mass timber technologies for mid-rise urban buildings, integrating sustainable forestry, recycling, and reuse.</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Encourages adoption of low-carbon building materials and design practices, and promotes sustainable consumption patterns in construction sectors.</t>
+        </is>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 0}</t>
@@ -13959,17 +13513,6 @@
           <t>['Reduced GHG emissions from construction, enhanced carbon storage in urban environments, sustainable urbanization, improved resource efficiency, and reduced pressure on natural ecosystems.']</t>
         </is>
       </c>
-      <c r="U148" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'infrastructure_investments', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V148" t="inlineStr">
-        <is>
-          <t>Encourages adoption of low-carbon building materials and design practices, and promotes sustainable consumption patterns in construction sectors.</t>
-        </is>
-      </c>
-      <c r="W148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -14004,13 +13547,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr">
         <is>
           <t>Implementation and management of urban tree planting to enhance carbon sequestration, reduce energy use, mitigate the urban heat island (UHI) effect, improve air quality, and provide co-benefits such as reduced stormwater runoff and increased public health and well-being.</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Encourages community engagement in tree planting and preservation, promoting urban sustainability and increased appreciation for green spaces.</t>
+        </is>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -14052,17 +13603,6 @@
           <t>['Enhanced urban livability, improved public health, reduced energy consumption, increased biodiversity, and greater resilience to climate change impacts.']</t>
         </is>
       </c>
-      <c r="U149" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'incentives_and_subsidies']</t>
-        </is>
-      </c>
-      <c r="V149" t="inlineStr">
-        <is>
-          <t>Encourages community engagement in tree planting and preservation, promoting urban sustainability and increased appreciation for green spaces.</t>
-        </is>
-      </c>
-      <c r="W149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -14097,13 +13637,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr">
         <is>
           <t>The implementation of green roofs, green walls, and greenways mitigates urban heat island effects, improves thermal comfort, reduces energy demand in buildings, manages stormwater, and promotes active transportation through connected green spaces, contributing to emissions reductions and urban livability.</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Encourages reduced energy consumption through improved building insulation and promotes active transportation via cycling and walking through integrated green infrastructure.</t>
+        </is>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -14145,17 +13693,6 @@
           <t>['Enhanced urban livability, reduced urban heat island effects, improved public health, better stormwater management, and increased biodiversity in urban areas.']</t>
         </is>
       </c>
-      <c r="U150" t="inlineStr">
-        <is>
-          <t>['infrastructure_investments', 'programs_and_initiatives']</t>
-        </is>
-      </c>
-      <c r="V150" t="inlineStr">
-        <is>
-          <t>Encourages reduced energy consumption through improved building insulation and promotes active transportation via cycling and walking through integrated green infrastructure.</t>
-        </is>
-      </c>
-      <c r="W150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -14190,13 +13727,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
+        </is>
+      </c>
       <c r="J151" t="inlineStr">
         <is>
           <t>This action focuses on leveraging spatial planning, urban form, and infrastructure to promote socio-behavioral changes that reduce reliance on private vehicles. Strategies include implementing 15/20-minute city programs, improving accessibility through walking, biking, and public transit, and reducing urban energy use.</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Encourages a shift to active travel modes like walking and biking, reduces reliance on private vehicles, and promotes the use of public transit.</t>
+        </is>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -14238,17 +13783,6 @@
           <t>['Reduces urban energy use, improves public health, enhances urban livability, and fosters community engagement through better connectivity and accessibility.']</t>
         </is>
       </c>
-      <c r="U151" t="inlineStr">
-        <is>
-          <t>['programs_and_initiatives', 'infrastructure_investments', 'regulations_and_laws']</t>
-        </is>
-      </c>
-      <c r="V151" t="inlineStr">
-        <is>
-          <t>Encourages a shift to active travel modes like walking and biking, reduces reliance on private vehicles, and promotes the use of public transit.</t>
-        </is>
-      </c>
-      <c r="W151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -14283,13 +13817,21 @@
           <t>['ghg_reduction']</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>['regulations_and_laws', 'programs_and_initiatives', 'infrastructure_investments']</t>
+        </is>
+      </c>
       <c r="J152" t="inlineStr">
         <is>
           <t>Implementation of waste hierarchy principles to reduce waste generation, improve source separation, and increase recycling and composting. Promotes decentralized waste management, home composting, and circular economy approaches to transform waste into energy or by-products while minimizing transport-related emissions.</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Encourages waste separation at source, adoption of recycling and composting behaviors, and increased public participation in waste management programs.</t>
+        </is>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>{'air_quality': 1, 'water_quality': 0, 'habitat': 0, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 1}</t>
@@ -14331,17 +13873,6 @@
           <t>['Improved urban livability, reduction in landfill emissions, enhanced resource efficiency, and economic growth through job creation in the waste management sector.']</t>
         </is>
       </c>
-      <c r="U152" t="inlineStr">
-        <is>
-          <t>['regulations_and_laws', 'programs_and_initiatives', 'infrastructure_investments']</t>
-        </is>
-      </c>
-      <c r="V152" t="inlineStr">
-        <is>
-          <t>Encourages waste separation at source, adoption of recycling and composting behaviors, and increased public participation in waste management programs.</t>
-        </is>
-      </c>
-      <c r="W152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scripts/script_outputs/combined.xlsx
+++ b/scripts/script_outputs/combined.xlsx
@@ -6750,17 +6750,17 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>['Policy support for land-use planning, public acceptance, and reallocation of transport budgets towards sustainable modes.']</t>
+          <t>['Policy support for land-use planning', 'public acceptance', 'reallocation of transport budgets towards sustainable modes']</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>['Reduction in per capita car use, increase in public transport ridership, improved walkability index.']</t>
+          <t>['Reduction in per capita car use', 'increase in public transport ridership', 'improved walkability index']</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>['Improved urban livability, better public health outcomes, reduced GHG emissions.']</t>
+          <t>['Improved urban livability', 'better public health outcomes', 'reduced GHG emissions']</t>
         </is>
       </c>
     </row>
@@ -6840,17 +6840,17 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>['Investment in safe walking and cycling infrastructure, public awareness campaigns, and supportive urban planning policies.']</t>
+          <t>['Investment in safe walking and cycling infrastructure', 'public awareness campaigns', 'supportive urban planning policies']</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>['Increase in kilometers of bicycle and walking networks, rise in active transport modal share, reduction in car usage for short trips.']</t>
+          <t>['Increase in kilometers of bicycle and walking networks', 'rise in active transport modal share', 'reduction in car usage for short trips']</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>['Improved public health, reduced urban congestion, lower transport-related GHG emissions, and enhanced quality of urban life.']</t>
+          <t>['Improved public health', 'reduced urban congestion', 'lower transport-related GHG emissions', 'enhanced quality of urban life']</t>
         </is>
       </c>
     </row>
@@ -6930,17 +6930,17 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>['Investments in modern and efficient transit systems, policies to disincentivize private car use, and public awareness campaigns to encourage public transit adoption.']</t>
+          <t>['Investments in modern and efficient transit systems', 'policies to disincentivize private car use', 'public awareness campaigns to encourage public transit adoption']</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>['Increase in public transit ridership, reduction in private vehicle kilometers traveled, and emissions reduction per passenger kilometer.']</t>
+          <t>['Increase in public transit ridership', 'reduction in private vehicle kilometers traveled', 'emissions reduction per passenger kilometer']</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>['Enhanced urban livability, reduced traffic congestion, improved public health, and significant reductions in transport-related greenhouse gas emissions.']</t>
+          <t>['Enhanced urban livability', 'reduced traffic congestion', 'improved public health', 'significant reductions in transport-related greenhouse gas emissions']</t>
         </is>
       </c>
     </row>
@@ -7020,17 +7020,17 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>['Technological innovation, adoption of circular economy practices, and behavioral shifts towards minimalism and efficiency.']</t>
+          <t>['Technological innovation', 'adoption of circular economy practices', 'behavioral shifts towards minimalism and efficiency']</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>['Reduction in material intensity per unit output, decrease in freight transport emissions, and increased adoption of circular economy practices.']</t>
+          <t>['Reduction in material intensity per unit output', 'decrease in freight transport emissions', 'increased adoption of circular economy practices']</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>['Improved resource efficiency, lower environmental footprint, and potential for reduced transport emissions.']</t>
+          <t>['Improved resource efficiency', 'lower environmental footprint', 'potential for reduced transport emissions']</t>
         </is>
       </c>
     </row>
@@ -7110,17 +7110,17 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>['Development of efficient shared mobility platforms, supportive urban policies, and technological advancements in ride-sharing systems.']</t>
+          <t>['Development of efficient shared mobility platforms', 'supportive urban policies', 'technological advancements in ride-sharing systems']</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>['Increase in shared mobility trips, reduction in private vehicle kilometers traveled, and decreased transport-related emissions.']</t>
+          <t>['Increase in shared mobility trips', 'reduction in private vehicle kilometers traveled', 'decreased transport-related emissions']</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>['Enhanced urban mobility, reduced traffic congestion, lower transport emissions, and increased system efficiency.']</t>
+          <t>['Enhanced urban mobility', 'reduced traffic congestion', 'lower transport emissions', 'increased system efficiency']</t>
         </is>
       </c>
     </row>
@@ -7200,17 +7200,17 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>['Widespread access to high-speed internet, supportive organizational policies, and employee willingness to adopt teleworking.']</t>
+          <t>['Widespread access to high-speed internet', 'supportive organizational policies', 'employee willingness to adopt teleworking']</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>['Reduction in commuter trips, increase in teleworking adoption rates, and decreased transport-related emissions.']</t>
+          <t>['Reduction in commuter trips', 'increase in teleworking adoption rates', 'decreased transport-related emissions']</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>['Reduced traffic congestion, improved air quality, enhanced work-life balance, and lower transport emissions.']</t>
+          <t>['Reduced traffic congestion', 'improved air quality', 'enhanced work-life balance', 'lower transport emissions']</t>
         </is>
       </c>
     </row>
@@ -7290,17 +7290,17 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>['Widespread adoption of ICT and IoT technologies, supportive urban planning, and investments in shared and digitalized mobility systems.']</t>
+          <t>['Widespread adoption of ICT and IoT technologies', 'supportive urban planning', 'investments in shared and digitalized mobility systems']</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>['Increase in shared and public transport use, reduction in private vehicle kilometers traveled, and decreased transport-related emissions.']</t>
+          <t>['Increase in shared and public transport use', 'reduction in private vehicle kilometers traveled', 'decreased transport-related emissions']</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>['Enhanced urban livability, reduced congestion, improved air quality, and significant advancements in transport efficiency.']</t>
+          <t>['Enhanced urban livability', 'reduced congestion', 'improved air quality', 'significant advancements in transport efficiency']</t>
         </is>
       </c>
     </row>
@@ -7380,17 +7380,17 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>['Access to advanced logistics tools and software, collaboration between supply chain stakeholders, and integration of eco-driving training']</t>
+          <t>['Access to advanced logistics tools and software', 'collaboration between supply chain stakeholders', 'integration of eco-driving training']</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>['Reduced freight distances, increased vehicle carrying capacity, improved fuel efficiency, and reduced operating costs']</t>
+          <t>['Reduced freight distances', 'increased vehicle carrying capacity', 'improved fuel efficiency', 'reduced operating costs']</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>['Reduced operating costs, improved corporate image, enhanced transport infrastructure utilisation, and potential air quality improvement']</t>
+          <t>['Reduced operating costs', 'improved corporate image', 'enhanced transport infrastructure utilisation', 'potential air quality improvement']</t>
         </is>
       </c>
     </row>
@@ -7470,17 +7470,17 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>['Expansion of e-commerce platforms, investments in last-mile delivery logistics, and consumer trust in online shopping.']</t>
+          <t>['Expansion of e-commerce platforms', 'investments in last-mile delivery logistics', 'consumer trust in online shopping']</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>['Reduction in vehicle kilometers traveled (VMT) for shopping, increase in online shopping adoption rates, and emissions reductions in freight logistics.']</t>
+          <t>['Reduction in vehicle kilometers traveled (VMT) for shopping', 'increase in online shopping adoption rates', 'emissions reductions in freight logistics']</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>['Improved urban mobility, reduced shopping-related travel emissions, and enhanced convenience for consumers.']</t>
+          <t>['Improved urban mobility', 'reduced shopping-related travel emissions', 'enhanced convenience for consumers']</t>
         </is>
       </c>
     </row>
@@ -7560,17 +7560,17 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>['Development and deployment of autonomous vehicle technologies, supportive regulatory frameworks, and public acceptance of automated systems.']</t>
+          <t>['Development and deployment of autonomous vehicle technologies', 'supportive regulatory frameworks', 'public acceptance of automated systems']</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>['Reduction in congestion, improved fuel efficiency, decreased transport-related emissions per vehicle kilometer, and increased accessibility for marginalized groups.']</t>
+          <t>['Reduction in congestion', 'improved fuel efficiency', 'decreased transport-related emissions per vehicle kilometer', 'increased accessibility for marginalized groups']</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>['Enhanced road safety, reduced traffic congestion, increased accessibility for underserved populations, and optimization of transport systems for environmental and societal benefit.']</t>
+          <t>['Enhanced road safety', 'reduced traffic congestion', 'increased accessibility for underserved populations', 'optimization of transport systems for environmental and societal benefit']</t>
         </is>
       </c>
     </row>
@@ -7650,17 +7650,17 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>['Development of low-cost and sustainable production technologies, supportive policy measures (e.g., fuel standards, blending mandates), and investment in distribution and storage infrastructure.']</t>
+          <t>['Development of low-cost and sustainable production technologies', 'supportive policy measures (e.g., fuel standards, blending mandates)', 'investment in distribution and storage infrastructure']</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>['Reduction in GHG emissions from fuel lifecycle, percentage of vehicle fleet using alternative fuels, and infrastructure deployment metrics.']</t>
+          <t>['Reduction in GHG emissions from fuel lifecycle', 'percentage of vehicle fleet using alternative fuels', 'infrastructure deployment metrics']</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, improved air quality, energy diversification, and increased resilience in transportation systems.']</t>
+          <t>['Reduced GHG emissions', 'improved air quality', 'energy diversification', 'increased resilience in transportation systems']</t>
         </is>
       </c>
     </row>
@@ -7740,17 +7740,17 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>['Dependence on advancements in battery technologies, development of charging infrastructure, policies for subsidies and incentives, and integration with renewable energy sources for electricity generation.']</t>
+          <t>['Dependence on advancements in battery technologies', 'development of charging infrastructure', 'policies for subsidies and incentives', 'integration with renewable energy sources for electricity generation']</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>['Percentage of electric vehicles in the vehicle fleet, reduction in GHG emissions per kilometer traveled, and availability of charging infrastructure.']</t>
+          <t>['Percentage of electric vehicles in the vehicle fleet', 'reduction in GHG emissions per kilometer traveled', 'availability of charging infrastructure']</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, improved urban air quality, decreased reliance on fossil fuels, and greater energy security.']</t>
+          <t>['Reduced GHG emissions', 'improved urban air quality', 'decreased reliance on fossil fuels', 'greater energy security']</t>
         </is>
       </c>
     </row>
@@ -7830,17 +7830,17 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>['Hydrogen production infrastructure, availability of low-carbon hydrogen, cost reductions in fuel cell systems, and durable policies to support adoption.']</t>
+          <t>['Hydrogen production infrastructure', 'availability of low-carbon hydrogen', 'cost reductions in fuel cell systems', 'durable policies to support adoption']</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>['Share of fuel cell vehicles in the vehicle fleet, reduction in GHG emissions per kilometer, deployment of hydrogen refueling stations, cost parity with diesel vehicles.']</t>
+          <t>['Share of fuel cell vehicles in the vehicle fleet', 'reduction in GHG emissions per kilometer', 'deployment of hydrogen refueling stations', 'cost parity with diesel vehicles']</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, improved air quality, energy diversification, and advancement of clean technologies for transportation.']</t>
+          <t>['Reduced GHG emissions', 'improved air quality', 'energy diversification', 'advancement of clean technologies for transportation']</t>
         </is>
       </c>
     </row>
@@ -7920,17 +7920,17 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>['Availability and development of advanced lightweight materials, efficient recycling processes, and industry-scale implementation.']</t>
+          <t>['Availability and development of advanced lightweight materials', 'efficient recycling processes', 'industry-scale implementation']</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>['Reduction in vehicle mass, improvement in fuel efficiency (km/l), lifecycle GHG emissions avoided, and share of lightweighted vehicles in the fleet.']</t>
+          <t>['Reduction in vehicle mass', 'improvement in fuel efficiency (km/l)', 'lifecycle GHG emissions avoided', 'share of lightweighted vehicles in the fleet']</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, enhanced fuel efficiency, improved vehicle performance, and contribution to a circular economy through advanced recycling.']</t>
+          <t>['Reduced GHG emissions', 'enhanced fuel efficiency', 'improved vehicle performance', 'contribution to a circular economy through advanced recycling']</t>
         </is>
       </c>
     </row>
@@ -8010,17 +8010,17 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>['Development and deployment of advanced vehicle technologies, regulatory frameworks, and consumer acceptance.']</t>
+          <t>['Development and deployment of advanced vehicle technologies', 'regulatory frameworks', 'consumer acceptance']</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>['Improvements in fuel economy (km/l), reduction in GHG emissions per km, share of energy-efficient vehicles in fleets, and fuel cost savings.']</t>
+          <t>['Improvements in fuel economy (km/l)', 'reduction in GHG emissions per km', 'share of energy-efficient vehicles in fleets', 'fuel cost savings']</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, enhanced fuel efficiency, lower operating costs, and improved air quality.']</t>
+          <t>['Reduced GHG emissions', 'enhanced fuel efficiency', 'lower operating costs', 'improved air quality']</t>
         </is>
       </c>
     </row>
@@ -8100,17 +8100,17 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>['Driver education, effective training programs, policy support, and incentive mechanisms to encourage adoption of eco-driving practices.']</t>
+          <t>['Driver education', 'effective training programs', 'policy support', 'incentive mechanisms', 'encourage adoption of eco-driving practices']</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>['Percentage reduction in fuel consumption, GHG emissions per vehicle, number of drivers trained in eco-driving, and adherence to eco-driving practices among trained drivers.']</t>
+          <t>['Percentage reduction in fuel consumption', 'GHG emissions per vehicle', 'number of drivers trained in eco-driving', 'adherence to eco-driving practices among trained drivers']</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, enhanced fuel efficiency, improved road safety, and lower transport costs.']</t>
+          <t>['Reduced GHG emissions', 'enhanced fuel efficiency', 'improved road safety', 'lower transport costs']</t>
         </is>
       </c>
     </row>
@@ -8190,17 +8190,17 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>['Development and adoption of advanced aircraft technology, global air traffic management optimization, and industry investments in research and development.']</t>
+          <t>['Development and adoption of advanced aircraft technology', 'global air traffic management optimization', 'industry investments in research and development']</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>['Percentage reduction in fuel consumption per flight, improvement in navigation efficiency, and adoption rate of advanced aircraft designs.']</t>
+          <t>['Percentage reduction in fuel consumption per flight', 'improvement in navigation efficiency', 'adoption rate of advanced aircraft designs']</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, enhanced operational efficiency, and strengthened energy security in aviation.']</t>
+          <t>['Reduced GHG emissions', 'enhanced operational efficiency', 'strengthened energy security in aviation']</t>
         </is>
       </c>
     </row>
@@ -8280,17 +8280,17 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>['Availability of low-carbon energy, advancements in fuel production technologies, cost reductions, policy support, and infrastructure for production and distribution.']</t>
+          <t>['Availability of low-carbon energy', 'advancements in fuel production technologies', 'cost reductions', 'policy support', 'infrastructure for production and distribution']</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>['Adoption rates of SAFs, lifecycle emissions reductions, and advancements in fuel production technologies.']</t>
+          <t>['Adoption rates of SAFs', 'lifecycle emissions reductions', 'advancements in fuel production technologies']</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>['Significant reductions in aviation emissions, improved energy security, and progress toward net-zero aviation operations.']</t>
+          <t>['Significant reductions in aviation emissions', 'improved energy security', 'progress toward net-zero aviation operations']</t>
         </is>
       </c>
     </row>
@@ -8370,17 +8370,17 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>['Requires significant investments in HSR infrastructure, policy support to limit competing air travel options, and integration of rail networks with existing transportation systems.']</t>
+          <t>['Requires significant investments in HSR infrastructure', 'policy support to limit competing air travel options', 'integration of rail networks with existing transportation systems']</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>['Reduction in domestic and regional air travel demand, increase in HSR ridership, and measurable reductions in transportation sector GHG emissions.']</t>
+          <t>['Reduction in domestic and regional air travel demand', 'increase in HSR ridership', 'measurable reductions in transportation sector GHG emissions']</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>['Reduces aviation emissions, improves regional connectivity, decreases transportation-related air pollution, and enhances public transportation networks.']</t>
+          <t>['Reduces aviation emissions', 'improves regional connectivity', 'decreases transportation-related air pollution', 'enhances public transportation networks']</t>
         </is>
       </c>
     </row>
@@ -8460,17 +8460,17 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>['Availability of low-carbon fuels and energy, infrastructure investments, retrofitting capabilities for existing ships, policy and regulatory support, and advances in fuel storage and safety technologies.']</t>
+          <t>['Availability of low-carbon fuels and energy', 'infrastructure investments', 'retrofitting capabilities for existing ships', 'policy and regulatory support', 'advances in fuel storage and safety technologies']</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>['Adoption rate of alternative fuels, emissions reductions achieved (tank-to-wake and well-to-wake), and advancements in bunkering and storage infrastructure.']</t>
+          <t>['Adoption rate of alternative fuels', 'emissions reductions achieved (tank-to-wake and well-to-wake)', 'advancements in bunkering and storage infrastructure']</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>['Significant reductions in maritime emissions, improved air quality, progress toward global decarbonization goals, and reduced reliance on fossil fuels in the shipping industry.']</t>
+          <t>['Significant reductions in maritime emissions', 'improved air quality', 'progress toward global decarbonization goals', 'reduced reliance on fossil fuels in the shipping industry']</t>
         </is>
       </c>
     </row>
@@ -8550,17 +8550,17 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>['Availability of low-carbon electricity, advancements in battery technology, infrastructure for charging and maintenance, and supportive regulatory frameworks for the maritime industry.']</t>
+          <t>['Availability of low-carbon electricity', 'advancements in battery technology', 'infrastructure for charging and maintenance', 'supportive regulatory frameworks for the maritime industry']</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>['Reduction in lifecycle emissions of vessels, number of electric and hybrid-electric ships in operation, and improvements in port infrastructure to support electric propulsion systems.']</t>
+          <t>['Reduction in lifecycle emissions of vessels', 'number of electric and hybrid-electric ships in operation', 'improvements in port infrastructure to support electric propulsion systems']</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>['Significant reduction in maritime sector emissions, improved air quality in coastal and port regions, decreased reliance on fossil fuels, and promotion of innovation in clean transportation technologies.']</t>
+          <t>['Significant reduction in maritime sector emissions', 'Improved air quality in coastal and port regions', 'Decreased reliance on fossil fuels', 'Promotion of innovation in clean transportation technologies']</t>
         </is>
       </c>
     </row>
@@ -8640,17 +8640,17 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>['Availability of low-carbon fuels, advancements in propulsion and hull design technologies, investments in port infrastructure, and regulatory support for energy efficiency and emissions reductions.']</t>
+          <t>['Availability of low-carbon fuels', 'advancements in propulsion and hull design technologies', 'investments in port infrastructure', 'regulatory support for energy efficiency and emissions reductions']</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>['Reduction in shipping emissions, adoption rate of energy-efficient technologies and operational measures, number of retrofitted vessels, and efficiency improvements in port operations.']</t>
+          <t>['Reduction in shipping emissions', 'adoption rate of energy-efficient technologies', 'operational measures', 'number of retrofitted vessels', 'efficiency improvements in port operations']</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>['Reduction in maritime emissions, improved air and water quality, increased energy security, and enhanced innovation in sustainable shipping technologies.']</t>
+          <t>['Reduction in maritime emissions', 'improved air and water quality', 'increased energy security', 'enhanced innovation in sustainable shipping technologies']</t>
         </is>
       </c>
     </row>
@@ -8730,17 +8730,17 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>['Availability of advanced technologies, supportive regulatory frameworks, investment in research and development, and alignment with global standards for emissions reduction and energy efficiency.']</t>
+          <t>['Availability of advanced technologies', 'supportive regulatory frameworks', 'investment in research and development', 'alignment with global standards for emissions reduction and energy efficiency']</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>['Reduction in industrial GHG emissions, adoption rates of heat and energy recovery technologies, energy intensity improvements in key industries, and recycling rates.']</t>
+          <t>['Reduction in industrial GHG emissions', 'adoption rates of heat and energy recovery technologies', 'energy intensity improvements in key industries', 'recycling rates']</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>['Significant reductions in industrial emissions, improved resource efficiency, enhanced energy security, and increased sustainability in manufacturing and construction sectors.']</t>
+          <t>['Significant reductions in industrial emissions', 'improved resource efficiency', 'enhanced energy security', 'increased sustainability in manufacturing and construction sectors']</t>
         </is>
       </c>
     </row>
@@ -8820,17 +8820,17 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>['Availability of advanced fuel delivery systems, supportive policy frameworks, investment in R&amp;D for alternative reductants, and industry-wide adoption of optimized process controls and technologies.']</t>
+          <t>['Availability of advanced fuel delivery systems', 'supportive policy frameworks', 'investment in R&amp;D for alternative reductants', 'industry-wide adoption of optimized process controls and technologies']</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>['Reduction in GHG emissions from heating in steel production, energy intensity improvements, increased adoption rates of pulverized coal injection and alternative fuels, and reduced production of hazardous wastes.']</t>
+          <t>['Reduction in GHG emissions from heating in steel production', 'energy intensity improvements', 'increased adoption rates of pulverized coal injection and alternative fuels', 'reduced production of hazardous wastes']</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>['Significant reductions in emissions and energy use in steel manufacturing, improved air quality, enhanced energy security, and more sustainable industrial practices.']</t>
+          <t>['Significant reductions in emissions and energy use in steel manufacturing', 'improved air quality', 'enhanced energy security', 'more sustainable industrial practices']</t>
         </is>
       </c>
     </row>
@@ -8910,17 +8910,17 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>['Availability of advanced furnace designs, supportive policies and incentives, skilled workforce for installation and maintenance, and industry-wide adoption of energy-efficient technologies.']</t>
+          <t>['Availability of advanced furnace designs', 'supportive policies and incentives', 'skilled workforce for installation and maintenance', 'industry-wide adoption of energy-efficient technologies']</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>['Reduction in energy intensity, GHG emissions, and hazardous waste production; increased adoption of advanced furnaces and process controls.']</t>
+          <t>['Reduction in energy intensity', 'GHG emissions', 'hazardous waste production', 'increased adoption of advanced furnaces', 'process controls']</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>['Significant improvements in industrial energy efficiency, reduced emissions, cost savings for manufacturers, and enhanced air quality.']</t>
+          <t>['Significant improvements in industrial energy efficiency', 'reduced emissions', 'cost savings for manufacturers', 'enhanced air quality']</t>
         </is>
       </c>
     </row>
@@ -9000,17 +9000,17 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>['Availability of advanced heat recovery and pump technologies, skilled workforce for installation and maintenance, and policy support for adoption of waste heat recovery systems.']</t>
+          <t>['Availability of advanced heat recovery and pump technologies', 'skilled workforce for installation and maintenance', 'policy support for adoption of waste heat recovery systems']</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>['Increase in waste heat recovery rate, reduction in energy intensity, and percentage of heat reused through high-efficiency systems.']</t>
+          <t>['Increase in waste heat recovery rate', 'reduction in energy intensity', 'percentage of heat reused through high-efficiency systems']</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>['Significant reductions in industrial energy consumption and GHG emissions, enhanced energy security, cost savings for manufacturers, and reduced environmental waste.']</t>
+          <t>['Significant reductions in industrial energy consumption and GHG emissions', 'enhanced energy security', 'cost savings for manufacturers', 'reduced environmental waste']</t>
         </is>
       </c>
     </row>
@@ -9090,17 +9090,17 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>['Development and deployment of advanced process integration technologies, skilled workforce training, and supportive policies to incentivize adoption.']</t>
+          <t>['Development and deployment of advanced process integration technologies', 'skilled workforce training', 'supportive policies to incentivize adoption']</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>['Reduction in energy consumption per unit of steel, increase in process coupling efficiency, and reduction in GHG emissions per ton of steel produced.']</t>
+          <t>['Reduction in energy consumption per unit of steel', 'increase in process coupling efficiency', 'reduction in GHG emissions per ton of steel produced']</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>['Improved energy efficiency, reduced emissions, cost savings for manufacturers, and enhanced competitiveness of the steel industry in global markets.']</t>
+          <t>['Improved energy efficiency', 'reduced emissions', 'cost savings for manufacturers', 'enhanced competitiveness of the steel industry in global markets']</t>
         </is>
       </c>
     </row>
@@ -9180,17 +9180,17 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>['Development of advanced comminution and ore sorting technologies, availability of renewable energy sources for power generation, and policy support to incentivize adoption.']</t>
+          <t>['Development of advanced comminution and ore sorting technologies', 'availability of renewable energy sources for power generation', 'policy support to incentivize adoption']</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>['Reduction in energy consumption per ton of ore processed, improvement in ore recovery ratio, and reduction in GHG emissions from mining operations.']</t>
+          <t>['Reduction in energy consumption per ton of ore processed', 'improvement in ore recovery ratio', 'reduction in GHG emissions from mining operations']</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>['Improved energy efficiency in mining, reduced operational costs, decreased environmental footprint of mining activities, and enhanced resource utilization.']</t>
+          <t>['Improved energy efficiency in mining', 'reduced operational costs', 'decreased environmental footprint of mining activities', 'enhanced resource utilization']</t>
         </is>
       </c>
     </row>
@@ -9270,17 +9270,17 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>['Availability of advanced drying/dewatering technologies, skilled workforce for implementation, and supportive policies or incentives to offset initial costs.']</t>
+          <t>['Availability of advanced drying/dewatering technologies', 'skilled workforce for implementation', 'supportive policies or incentives to offset initial costs']</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>['Reduction in energy consumption per unit of output, percentage improvement in drying efficiency, and reduction in GHG emissions from manufacturing processes.']</t>
+          <t>['Reduction in energy consumption per unit of output', 'percentage improvement in drying efficiency', 'reduction in GHG emissions from manufacturing processes']</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>['Increased energy efficiency, reduced operational costs, lower emissions, and enhanced sustainability in industrial processes.']</t>
+          <t>['Increased energy efficiency', 'reduced operational costs', 'lower emissions', 'enhanced sustainability in industrial processes']</t>
         </is>
       </c>
     </row>
@@ -9360,17 +9360,17 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>['Availability of recycling infrastructure, advanced technologies for material separation and recovery, and supportive policies for incentivizing recycling practices.']</t>
+          <t>['Availability of recycling infrastructure', 'advanced technologies for material separation and recovery', 'supportive policies for incentivizing recycling practices']</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>['Recycling rates by material type, reduction in energy consumption for material production, and decrease in landfill waste volumes.']</t>
+          <t>['Recycling rates by material type', 'reduction in energy consumption for material production', 'decrease in landfill waste volumes']</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>['Reduces reliance on virgin material extraction, lowers industrial energy demand, mitigates GHG emissions, and supports sustainable production practices.']</t>
+          <t>['Reduces reliance on virgin material extraction', 'lowers industrial energy demand', 'mitigates GHG emissions', 'supports sustainable production practices']</t>
         </is>
       </c>
     </row>
@@ -9450,17 +9450,17 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>['Availability of advanced technologies like sensors and machine learning systems, adequate digital infrastructure, and supportive policies for energy efficiency adoption.']</t>
+          <t>['Availability of advanced technologies like sensors and machine learning systems', 'adequate digital infrastructure', 'supportive policies for energy efficiency adoption']</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>['Reduction in energy use, cost savings per production cycle, and percentage improvement in process efficiency.']</t>
+          <t>['Reduction in energy use', 'cost savings per production cycle', 'percentage improvement in process efficiency']</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>['Enhanced energy efficiency, reduced operational costs, improved industrial competitiveness, and support for decarbonization goals.']</t>
+          <t>['Enhanced energy efficiency', 'reduced operational costs', 'improved industrial competitiveness', 'support for decarbonization goals']</t>
         </is>
       </c>
     </row>
@@ -9540,17 +9540,17 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>['Availability of renewable fuel infrastructure, technology development for alternative fuel production, and supportive policies.']</t>
+          <t>['Availability of renewable fuel infrastructure', 'technology development for alternative fuel production', 'supportive policies']</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>['Reduction in CO2 emissions, increased adoption rate of renewable fuels, and reduction in the carbon intensity of industrial processes.']</t>
+          <t>['Reduction in CO2 emissions', 'increased adoption rate of renewable fuels', 'reduction in the carbon intensity of industrial processes']</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>['Reduced dependence on fossil fuels, improved energy security, and mitigation of air pollution, contributing to global emission reduction targets.']</t>
+          <t>['Reduced dependence on fossil fuels', 'improved energy security', 'mitigation of air pollution', 'contributing to global emission reduction targets']</t>
         </is>
       </c>
     </row>
@@ -9630,17 +9630,17 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>['Availability of low-carbon electricity, development of suitable anode materials, and infrastructure for large-scale electrification in steel production.']</t>
+          <t>['Availability of low-carbon electricity', 'development of suitable anode materials', 'infrastructure for large-scale electrification in steel production']</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>['Reduction in emissions per ton of steel produced, increase in the share of electrified processes, and energy savings in production stages.']</t>
+          <t>['Reduction in emissions per ton of steel produced', 'increase in the share of electrified processes', 'energy savings in production stages']</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>['Reduced reliance on fossil fuels, improved air quality, and enhanced global competitiveness of steel manufacturers.']</t>
+          <t>['Reduced reliance on fossil fuels', 'improved air quality', 'enhanced global competitiveness of steel manufacturers']</t>
         </is>
       </c>
     </row>
@@ -9720,17 +9720,17 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>['Availability of advanced heat recovery technologies, skilled workforce for installation and operation, and supportive policies and funding incentives.']</t>
+          <t>['Availability of advanced heat recovery technologies', 'skilled workforce for installation and operation', 'supportive policies and funding incentives']</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>['Reduction in energy consumption per ton of product, increase in waste energy recovery rates, and decrease in GHG emissions intensity in industrial processes.']</t>
+          <t>['Reduction in energy consumption per ton of product', 'increase in waste energy recovery rates', 'decrease in GHG emissions intensity in industrial processes']</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>['Enhances energy efficiency, reduces emissions, lowers operational costs, and improves competitiveness of the industrial sector in global markets.']</t>
+          <t>['Enhances energy efficiency', 'reduces emissions', 'lowers operational costs', 'improves competitiveness of the industrial sector in global markets']</t>
         </is>
       </c>
     </row>
@@ -9810,17 +9810,17 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>['Development of advanced process technologies, regulatory support for adoption, workforce training, and sufficient financial incentives or subsidies to offset high initial costs.']</t>
+          <t>['Development of advanced process technologies', 'regulatory support for adoption', 'workforce training', 'sufficient financial incentives or subsidies to offset high initial costs']</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>['Reduction in energy use per unit of production, lower emissions per ton of material produced, increased adoption rate of advanced technologies, and improved process efficiency metrics.']</t>
+          <t>['Reduction in energy use per unit of production', 'lower emissions per ton of material produced', 'increased adoption rate of advanced technologies', 'improved process efficiency metrics']</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>['Enhanced energy efficiency, significant emissions reductions, cost savings for industries, increased competitiveness in global markets, and improved environmental sustainability.']</t>
+          <t>['Enhanced energy efficiency', 'significant emissions reductions', 'cost savings for industries', 'increased competitiveness in global markets', 'improved environmental sustainability']</t>
         </is>
       </c>
     </row>
@@ -9900,17 +9900,17 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>['Access to biomass resources, skilled workforce for CHP system operation, and supportive policies to incentivize adoption of CHP systems.']</t>
+          <t>['Access to biomass resources', 'skilled workforce for CHP system operation', 'supportive policies to incentivize adoption of CHP systems']</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>['Reduction in energy intensity per ton of paper, decrease in direct and indirect CO2 emissions, and increase in on-site electricity production through CHP systems.']</t>
+          <t>['Reduction in energy intensity per ton of paper', 'decrease in direct and indirect CO2 emissions', 'increase in on-site electricity production through CHP systems']</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>['Improved energy efficiency, reduced emissions, enhanced competitiveness of the pulp and paper industry, and long-term cost savings for manufacturers.']</t>
+          <t>['Improved energy efficiency', 'reduced emissions', 'enhanced competitiveness of the pulp and paper industry', 'long-term cost savings for manufacturers']</t>
         </is>
       </c>
     </row>
@@ -9990,17 +9990,17 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>['Requires advancements in CCS and CCU technologies, availability of low-GHG electricity, and supportive policies to incentivize industrial decarbonization.']</t>
+          <t>['Requires advancements in CCS and CCU technologies', 'availability of low-GHG electricity', 'supportive policies to incentivize industrial decarbonization']</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>['Reduction in GHG emissions from industrial processes, increase in the use of low-carbon feedstocks, and the number of CCS/CCU projects implemented.']</t>
+          <t>['Reduction in GHG emissions from industrial processes', 'increase in the use of low-carbon feedstocks', 'the number of CCS/CCU projects implemented']</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>['Enhanced industrial sustainability, reduced dependence on fossil fuels, advancement of circular economy principles, and mitigation of climate change impacts.']</t>
+          <t>['Enhanced industrial sustainability', 'reduced dependence on fossil fuels', 'advancement of circular economy principles', 'mitigation of climate change impacts']</t>
         </is>
       </c>
     </row>
@@ -10080,17 +10080,17 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>['Availability of clean energy for hydrogen production, development of CCU technologies, and policies to support adoption.']</t>
+          <t>['Availability of clean energy for hydrogen production', 'development of CCU technologies', 'policies to support adoption']</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>['Quantity of CO2 captured and reused, reduction in emissions per ton of product, and market penetration of CCU-derived products.']</t>
+          <t>['Quantity of CO2 captured and reused', 'reduction in emissions per ton of product', 'market penetration of CCU-derived products']</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>['Reduction in GHG emissions, enhanced energy security, and development of sustainable industries.']</t>
+          <t>['Reduction in GHG emissions', 'enhanced energy security', 'development of sustainable industries']</t>
         </is>
       </c>
     </row>
@@ -10170,17 +10170,17 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>['Requires the development of CO2 transport and storage infrastructure, supportive policy frameworks, sufficient clean energy for capture processes, and incentives for adoption.']</t>
+          <t>['Requires the development of CO2 transport and storage infrastructure', 'supportive policy frameworks', 'sufficient clean energy for capture processes', 'incentives for adoption']</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>['Amount of CO2 captured and stored annually, percentage reduction in industrial emissions, and operational capacity of CCS projects globally.']</t>
+          <t>['Amount of CO2 captured and stored annually', 'percentage reduction in industrial emissions', 'operational capacity of CCS projects globally']</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>['Significant reductions in GHG emissions, mitigation of climate change effects, and increased energy security through sustainable industrial practices.']</t>
+          <t>['Significant reductions in GHG emissions', 'mitigation of climate change effects', 'increased energy security through sustainable industrial practices']</t>
         </is>
       </c>
     </row>
@@ -10260,17 +10260,17 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>['Availability of advanced materials, supportive policies for circular economy, stakeholder collaboration across supply chains, and investment in R&amp;D for lightweight materials and high-efficiency design methods.']</t>
+          <t>['Availability of advanced materials', 'supportive policies for circular economy', 'stakeholder collaboration across supply chains', 'investment in R&amp;D for lightweight materials', 'high-efficiency design methods']</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>['Reduction in material usage per product, increase in product lifespan, percentage of materials recovered and reused, and reduction in GHG emissions from production processes.']</t>
+          <t>['Reduction in material usage per product', 'increase in product lifespan', 'percentage of materials recovered and reused', 'reduction in GHG emissions from production processes']</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>['Reduced environmental footprint, lower production costs, improved resource efficiency, and enhanced sustainability of industrial processes.']</t>
+          <t>['Reduced environmental footprint', 'lower production costs', 'improved resource efficiency', 'enhanced sustainability of industrial processes']</t>
         </is>
       </c>
     </row>
@@ -10350,17 +10350,17 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>['Availability of advanced manufacturing technologies, workforce training, supportive regulations, and access to materials for near-net shape casting.']</t>
+          <t>['Availability of advanced manufacturing technologies', 'workforce training', 'supportive regulations', 'access to materials for near-net shape casting']</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>['Reduction in material waste, increase in production yield, and reduction in GHG emissions per unit of material produced.']</t>
+          <t>['Reduction in material waste', 'increase in production yield', 'reduction in GHG emissions per unit of material produced']</t>
         </is>
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>['Significant reduction in material and energy use, enhanced production efficiency, reduced emissions, and improved sustainability across industrial supply chains.']</t>
+          <t>['Significant reduction in material and energy use', 'enhanced production efficiency', 'reduced emissions', 'improved sustainability across industrial supply chains']</t>
         </is>
       </c>
     </row>
@@ -10440,17 +10440,17 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>['Collaboration across supply chains, advances in recycling and remanufacturing technologies, and supportive policy frameworks to incentivize adoption.']</t>
+          <t>['Collaboration across supply chains', 'advances in recycling and remanufacturing technologies', 'supportive policy frameworks to incentivize adoption']</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>['Percentage of materials recovered and reused, reduction in production waste, and decrease in GHG emissions per unit of product lifecycle.']</t>
+          <t>['Percentage of materials recovered and reused', 'reduction in production waste', 'decrease in GHG emissions per unit of product lifecycle']</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>['Reduction in raw material demand, improved environmental sustainability, decreased emissions, and enhanced industrial efficiency.']</t>
+          <t>['Reduction in raw material demand', 'improved environmental sustainability', 'decreased emissions', 'enhanced industrial efficiency']</t>
         </is>
       </c>
     </row>
@@ -10530,17 +10530,17 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>['Effective coordination between industries, governments, and communities; supportive policies and regulations; development of recycling infrastructure; and data sharing platforms for material and energy flows.']</t>
+          <t>['Effective coordination between industries, governments, and communities', 'supportive policies and regulations', 'development of recycling infrastructure', 'data sharing platforms for material and energy flows']</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>['Reduction in virgin material use, GHG emissions avoided through CE practices, increase in recycling rates, number of industrial symbiosis networks implemented, and resource recovery metrics.']</t>
+          <t>['Reduction in virgin material use', 'GHG emissions avoided through CE practices', 'increase in recycling rates', 'number of industrial symbiosis networks implemented', 'resource recovery metrics']</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>['Significant reductions in resource extraction, energy use, and emissions; enhanced regional development through eco-industrial parks; and broader adoption of sustainable practices across industries and urban areas.']</t>
+          <t>['Significant reductions in resource extraction, energy use, and emissions', 'enhanced regional development through eco-industrial parks', 'broader adoption of sustainable practices across industries and urban areas']</t>
         </is>
       </c>
     </row>
@@ -10620,17 +10620,17 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>['Development and availability of alternative feedstocks, regulatory support for material substitution, and investment in research and development for innovative concrete applications.']</t>
+          <t>['Development and availability of alternative feedstocks', 'regulatory support for material substitution', 'investment in research and development for innovative concrete applications']</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>['Reduction in clinker-to-cement ratio, lower CO2 emissions per tonne of cement, and increased adoption of alternative materials in cement production.']</t>
+          <t>['Reduction in clinker-to-cement ratio', 'lower CO2 emissions per tonne of cement', 'increased adoption of alternative materials in cement production']</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, enhanced resource efficiency, lower energy consumption in cement production, and improved environmental quality in cement manufacturing regions.']</t>
+          <t>['Reduced GHG emissions', 'enhanced resource efficiency', 'lower energy consumption in cement production', 'improved environmental quality in cement manufacturing regions']</t>
         </is>
       </c>
     </row>
@@ -10710,17 +10710,17 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>['Availability of infrastructure for waste collection and recycling, public awareness campaigns, and supportive policy frameworks.']</t>
+          <t>['Availability of infrastructure for waste collection and recycling', 'public awareness campaigns', 'supportive policy frameworks']</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>['Reduction in food waste percentage, increased recycling rates, and reduced greenhouse gas emissions from waste management.']</t>
+          <t>['Reduction in food waste percentage', 'increased recycling rates', 'reduced greenhouse gas emissions from waste management']</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>['Reduced environmental burden, enhanced resource efficiency, improved urban livability, and cost savings in waste management systems.']</t>
+          <t>['Reduced environmental burden', 'enhanced resource efficiency', 'improved urban livability', 'cost savings in waste management systems']</t>
         </is>
       </c>
     </row>
@@ -10800,17 +10800,17 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>['Requires clear guidelines, consumer education campaigns, and industry compliance with precise dosing recommendations.']</t>
+          <t>['Requires clear guidelines', 'consumer education campaigns', 'industry compliance with precise dosing recommendations']</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>['Reduction in material waste, increased adherence to dosing guidelines, and measurable decreases in associated emissions.']</t>
+          <t>['Reduction in material waste', 'increased adherence to dosing guidelines', 'measurable decreases in associated emissions']</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>['Reduced industrial emissions, lower resource consumption, cost savings for consumers and industries, and improved efficiency across the supply chain.']</t>
+          <t>['Reduced industrial emissions', 'lower resource consumption', 'cost savings for consumers and industries', 'improved efficiency across the supply chain']</t>
         </is>
       </c>
     </row>
@@ -10890,17 +10890,17 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>['Development of platforms and systems to facilitate product sharing, stakeholder collaboration, and supportive policies to incentivize shared usage models.']</t>
+          <t>['Development of platforms and systems to facilitate product sharing', 'stakeholder collaboration', 'supportive policies to incentivize shared usage models']</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>['Number of shared product-service systems implemented, reduction in material demand per capita, and decrease in GHG emissions from product manufacturing.']</t>
+          <t>['Number of shared product-service systems implemented', 'reduction in material demand per capita', 'decrease in GHG emissions from product manufacturing']</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>['Reduction in resource use and emissions, cost savings for consumers, increased accessibility to products, and fostering a circular economy through more efficient use of materials.']</t>
+          <t>['Reduction in resource use and emissions', 'cost savings for consumers', 'increased accessibility to products', 'fostering a circular economy through more efficient use of materials']</t>
         </is>
       </c>
     </row>
@@ -10980,17 +10980,17 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>['Requires collaboration across material supply chains, advancements in product design, and supportive policy frameworks to incentivize circular economy practices.']</t>
+          <t>['Requires collaboration across material supply chains', 'advancements in product design', 'supportive policy frameworks to incentivize circular economy practices']</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>['Reduction in material use per product, increase in product lifespan, rate of reuse and repair, and reduction in GHG emissions from material production and waste.']</t>
+          <t>['Reduction in material use per product', 'increase in product lifespan', 'rate of reuse and repair', 'reduction in GHG emissions from material production and waste']</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>['Significant emissions reductions, resource conservation, cost savings for consumers, and strengthened circular economy practices.']</t>
+          <t>['Significant emissions reductions', 'resource conservation', 'cost savings for consumers', 'strengthened circular economy practices']</t>
         </is>
       </c>
     </row>
@@ -11070,17 +11070,17 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>['Development of advanced maintenance techniques, effective policies to promote longer building lifespans, and education for construction professionals on durable practices.']</t>
+          <t>['Development of advanced maintenance techniques', 'effective policies to promote longer building lifespans', 'education for construction professionals on durable practices']</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>['Increase in the average lifespan of buildings and infrastructure, reduction in cement demand per capita, and overall CO2 emissions reductions in cement production.']</t>
+          <t>['Increase in the average lifespan of buildings and infrastructure', 'reduction in cement demand per capita', 'overall CO2 emissions reductions in cement production']</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>['Reduction in demand for new concrete and cement production, reduced emissions, enhanced resource efficiency, and increased affordability and sustainability of infrastructure.']</t>
+          <t>['Reduction in demand for new concrete and cement production', 'reduced emissions', 'enhanced resource efficiency', 'increased affordability and sustainability of infrastructure']</t>
         </is>
       </c>
     </row>
@@ -11160,17 +11160,17 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>['Public awareness campaigns, supportive policies, and integration of sustainability into business and governmental frameworks.']</t>
+          <t>['Public awareness campaigns', 'supportive policies', 'integration of sustainability into business and governmental frameworks']</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>['Reduction in material and energy intensity per capita, decrease in waste generation rates, and improvement in recycling and reuse statistics.']</t>
+          <t>['Reduction in material and energy intensity per capita', 'decrease in waste generation rates', 'improvement in recycling and reuse statistics']</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>['Enhances societal well-being by reducing overconsumption, lowering environmental impacts, and fostering long-term sustainability in resource use and industrial processes.']</t>
+          <t>['Enhances societal well-being', 'reducing overconsumption', 'lowering environmental impacts', 'fostering long-term sustainability in resource use', 'industrial processes']</t>
         </is>
       </c>
     </row>
@@ -11250,17 +11250,17 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>['Implementation of policies and programs promoting sustainable consumption, availability of alternatives to high-emission activities, and societal support for behavioral and lifestyle changes.']</t>
+          <t>['Implementation of policies and programs promoting sustainable consumption', 'availability of alternatives to high-emission activities', 'societal support for behavioral and lifestyle changes']</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>['Reduction in demand for high-emission products and services, decreased industrial emissions linked to product use, and increased adoption of sustainable consumption practices.']</t>
+          <t>['Reduction in demand for high-emission products and services', 'decreased industrial emissions linked to product use', 'increased adoption of sustainable consumption practices']</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>['Reduction in global GHG emissions, improved resource efficiency, enhanced sustainability in consumption patterns, and reduced strain on environmental resources.']</t>
+          <t>['Reduction in global GHG emissions', 'improved resource efficiency', 'enhanced sustainability in consumption patterns', 'reduced strain on environmental resources']</t>
         </is>
       </c>
     </row>
@@ -11340,17 +11340,17 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>['Requires improved governance, clear land tenure policies, funding for protected areas, and community participation in forest conservation efforts.']</t>
+          <t>['Requires improved governance', 'clear land tenure policies', 'funding for protected areas', 'community participation in forest conservation efforts']</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>['Reduction in deforestation rates, increased forest cover, and the amount of GHG emissions avoided per year.']</t>
+          <t>['Reduction in deforestation rates', 'increased forest cover', 'the amount of GHG emissions avoided per year']</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>['Preserves biodiversity, enhances ecosystem services, improves air and water quality, and contributes to climate stabilization and sustainable development.']</t>
+          <t>['Preserves biodiversity', 'enhances ecosystem services', 'improves air and water quality', 'contributes to climate stabilization', 'sustainable development']</t>
         </is>
       </c>
     </row>
@@ -11430,17 +11430,17 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>['Requires funding for land restoration, access to suitable species for planting, local community engagement, and monitoring systems for ecosystem integrity and carbon sequestration.']</t>
+          <t>['Requires funding for land restoration', 'access to suitable species for planting', 'local community engagement', 'monitoring systems for ecosystem integrity and carbon sequestration']</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>['Area of land reforested or afforested, carbon sequestration rates, improvement in biodiversity indices, and ecosystem service metrics such as water regulation and soil quality.']</t>
+          <t>['Area of land reforested or afforested', 'carbon sequestration rates', 'improvement in biodiversity indices', 'ecosystem service metrics such as water regulation and soil quality']</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>['Increased carbon sequestration, improved biodiversity, enhanced ecosystem resilience, better water regulation, soil stabilization, and support for local communities through sustainable resource use.']</t>
+          <t>['Increased carbon sequestration', 'improved biodiversity', 'enhanced ecosystem resilience', 'better water regulation', 'soil stabilization', 'support for local communities through sustainable resource use']</t>
         </is>
       </c>
     </row>
@@ -11520,17 +11520,17 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>['Requires expertise in sustainable forestry, investment in nurseries with adapted species, supportive policies, and incentives to overcome economic barriers and ensure accessibility for local stakeholders.']</t>
+          <t>['Requires expertise in sustainable forestry', 'investment in nurseries with adapted species', 'supportive policies', 'incentives to overcome economic barriers', 'ensure accessibility for local stakeholders']</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>['Increase in forest carbon stocks, reduction in GHG emissions, improvements in biodiversity indicators, and reduction in soil erosion and water-related issues.']</t>
+          <t>['Increase in forest carbon stocks', 'reduction in GHG emissions', 'improvements in biodiversity indicators', 'reduction in soil erosion and water-related issues']</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>['Improved forest health and resilience, enhanced carbon sequestration, biodiversity conservation, and increased ecosystem services like water and soil regulation.']</t>
+          <t>['Improved forest health and resilience', 'enhanced carbon sequestration', 'biodiversity conservation', 'increased ecosystem services like water and soil regulation']</t>
         </is>
       </c>
     </row>
@@ -11610,17 +11610,17 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>['Effective governance frameworks, access to research and technology for fire management, community engagement, and alignment with regional legal and policy frameworks.']</t>
+          <t>['Effective governance frameworks', 'access to research and technology for fire management', 'community engagement', 'alignment with regional legal and policy frameworks']</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>['Reduction in frequency and intensity of uncontrolled wildfires, area managed with prescribed burns, reduction in GHG emissions from fires, and improvement in biodiversity and soil health metrics.']</t>
+          <t>['Reduction in frequency and intensity of uncontrolled wildfires', 'Area managed with prescribed burns', 'Reduction in GHG emissions from fires', 'Improvement in biodiversity and soil health metrics']</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, improved biodiversity conservation, prevention of soil erosion, enhanced land productivity, and reduced risks to life and property from uncontrolled wildfires.']</t>
+          <t>['Reduced GHG emissions', 'improved biodiversity conservation', 'prevention of soil erosion', 'enhanced land productivity', 'reduced risks to life and property from uncontrolled wildfires']</t>
         </is>
       </c>
     </row>
@@ -11700,17 +11700,17 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>['Strong policy frameworks, financial incentives for conservation, and collaboration between governments, local communities, and landowners to implement sustainable practices.']</t>
+          <t>['Strong policy frameworks', 'financial incentives for conservation', 'collaboration between governments', 'local communities', 'landowners to implement sustainable practices']</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>['Reduction in conversion rates of grasslands, increase in soil organic carbon levels, and measurable reduction in GHG emissions from targeted areas.']</t>
+          <t>['Reduction in conversion rates of grasslands', 'increase in soil organic carbon levels', 'measurable reduction in GHG emissions from targeted areas']</t>
         </is>
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>['Preserves ecosystem services, enhances biodiversity, supports climate resilience, and provides sustainable livelihoods for communities dependent on grasslands.']</t>
+          <t>['Preserves ecosystem services', 'enhances biodiversity', 'supports climate resilience', 'provides sustainable livelihoods for communities dependent on grasslands']</t>
         </is>
       </c>
     </row>
@@ -11790,17 +11790,17 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>['Requires strong governance, financial support, international cooperation, and policies to control land conversion drivers such as agriculture, mining, and urban development.']</t>
+          <t>['Requires strong governance', 'financial support', 'international cooperation', 'policies to control land conversion drivers', 'such as agriculture', 'mining', 'urban development']</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>['Reduction in peatland conversion rates, avoided emissions per hectare, and improvements in biodiversity and water quality metrics.']</t>
+          <t>['Reduction in peatland conversion rates', 'avoided emissions per hectare', 'improvements in biodiversity and water quality metrics']</t>
         </is>
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, enhanced biodiversity, improved water regulation, and decreased fire-related health hazards.']</t>
+          <t>['Reduced GHG emissions', 'enhanced biodiversity', 'improved water regulation', 'decreased fire-related health hazards']</t>
         </is>
       </c>
     </row>
@@ -11880,17 +11880,17 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>['Availability of funding, collaboration among local and national stakeholders, scientific research on optimal restoration practices, and policies to incentivize restoration efforts.']</t>
+          <t>['Availability of funding', 'collaboration among local and national stakeholders', 'scientific research on optimal restoration practices', 'policies to incentivize restoration efforts']</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>['Availability of funding, collaboration among local and national stakeholders, scientific research on optimal restoration practices, and policies to incentivize restoration efforts.']</t>
+          <t>['Availability of funding', 'collaboration among local and national stakeholders', 'scientific research on optimal restoration practices', 'policies to incentivize restoration efforts']</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>['Significant reductions in CO2 emissions, improved biodiversity, enhanced water regulation, reduced flooding risks, and increased resilience to climate change.']</t>
+          <t>['Significant reductions in CO2 emissions', 'improved biodiversity', 'enhanced water regulation', 'reduced flooding risks', 'increased resilience to climate change']</t>
         </is>
       </c>
     </row>
@@ -11970,17 +11970,17 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>['Effective integration of coastal climate mitigation policies, marine spatial planning, and economic incentives to prioritize wetland conservation.']</t>
+          <t>['Effective integration of coastal climate mitigation policies', 'marine spatial planning', 'economic incentives to prioritize wetland conservation']</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>['Area of coastal wetlands preserved, GHG emissions avoided from biomass and soil carbon loss, and improvements in biodiversity metrics and ecosystem resilience.']</t>
+          <t>['Area of coastal wetlands preserved', 'GHG emissions avoided from biomass and soil carbon loss', 'improvements in biodiversity metrics', 'ecosystem resilience']</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>['Increased carbon sequestration, enhanced resilience to climate impacts, improved biodiversity, better water quality, and greater protection against flooding and storm surges.']</t>
+          <t>['Increased carbon sequestration', 'enhanced resilience to climate impacts', 'improved biodiversity', 'better water quality', 'greater protection against flooding and storm surges']</t>
         </is>
       </c>
     </row>
@@ -12060,17 +12060,17 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>['Requires long-term commitments, supportive policies, funding, monitoring frameworks, and technical capacity to address drivers of degradation and ensure restoration success.']</t>
+          <t>['Requires long-term commitments', 'supportive policies', 'funding', 'monitoring frameworks', 'technical capacity', 'to address drivers of degradation', 'ensure restoration success']</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>['Area of wetlands restored, carbon sequestration rates, biodiversity recovery metrics, reduction in storm damage costs, and water quality improvements.']</t>
+          <t>['Area of wetlands restored', 'carbon sequestration rates', 'biodiversity recovery metrics', 'reduction in storm damage costs', 'water quality improvements']</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>['Enhanced ecosystem resilience, improved carbon sequestration, protection against sea-level rise and storms, increased biodiversity, and strengthened coastal livelihoods and food security.']</t>
+          <t>['Enhanced ecosystem resilience', 'improved carbon sequestration', 'protection against sea-level rise and storms', 'increased biodiversity', 'strengthened coastal livelihoods', 'food security']</t>
         </is>
       </c>
     </row>
@@ -12150,17 +12150,17 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>['Success depends on the availability of resources for monitoring and verification, regional adaptation of practices, and addressing barriers such as soil saturation and permanence issues.']</t>
+          <t>['Success depends on the availability of resources for monitoring and verification', 'regional adaptation of practices', 'addressing barriers such as soil saturation and permanence issues']</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>['Increase in soil organic carbon, reduction in GHG emissions, improvement in agricultural productivity, and biodiversity enhancements.']</t>
+          <t>['Increase in soil organic carbon', 'reduction in GHG emissions', 'improvement in agricultural productivity', 'biodiversity enhancements']</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>['Enhanced soil health, improved water retention, increased crop yields, greater biodiversity, reduced erosion, and resilience to climate change in agricultural and grassland ecosystems.']</t>
+          <t>['Enhanced soil health', 'improved water retention', 'increased crop yields', 'greater biodiversity', 'reduced erosion', 'resilience to climate change in agricultural and grassland ecosystems']</t>
         </is>
       </c>
     </row>
@@ -12240,17 +12240,17 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>['Availability of sustainably sourced biomass, standardization of production methods, monitoring systems, and incentives for scaling up biochar production and application.']</t>
+          <t>['Availability of sustainably sourced biomass', 'standardization of production methods', 'monitoring systems', 'incentives for scaling up biochar production and application']</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>['Carbon sequestration rates, reduction in soil N2O emissions, crop yield improvements, and displacement of fossil fuel use through pyrolysis gases.']</t>
+          <t>['Carbon sequestration rates', 'reduction in soil N2O emissions', 'crop yield improvements', 'displacement of fossil fuel use through pyrolysis gases']</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>['Improved agricultural productivity, enhanced soil resilience to climate change, reduced pollution, and long-term carbon storage in soils, contributing to global climate goals.']</t>
+          <t>['Improved agricultural productivity', 'enhanced soil resilience to climate change', 'reduced pollution', 'long-term carbon storage in soils', 'contributing to global climate goals']</t>
         </is>
       </c>
     </row>
@@ -12330,17 +12330,17 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>['Requires access to appropriate germplasm, supportive policies, extension systems, credit access, and reforms in land tenure systems. Adoption depends on aligning agroforestry practices to biophysical and socio-economic contexts.']</t>
+          <t>['Requires access to appropriate germplasm', 'supportive policies', 'extension systems', 'credit access', 'reforms in land tenure systems', 'Adoption depends on aligning agroforestry practices to biophysical and socio-economic contexts']</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>['Carbon sequestration rates (above and below ground), improved soil health metrics, increase in farmer income, reduction in soil erosion, and adoption rates of agroforestry systems.']</t>
+          <t>['Carbon sequestration rates (above and below ground)', 'improved soil health metrics', 'increase in farmer income', 'reduction in soil erosion', 'adoption rates of agroforestry systems']</t>
         </is>
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>['Enhanced land productivity, improved livelihoods, increased carbon storage, better water quality, and resilience to climate change.']</t>
+          <t>['Enhanced land productivity', 'improved livelihoods', 'increased carbon storage', 'better water quality', 'resilience to climate change']</t>
         </is>
       </c>
     </row>
@@ -12420,17 +12420,17 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>['Development and regulatory approval of feed additives, vaccines, and inhibitors; regional adaptation of mitigation strategies; and overcoming barriers like costs, infrastructure, and public acceptance.']</t>
+          <t>['Development and regulatory approval of feed additives, vaccines, and inhibitors', 'regional adaptation of mitigation strategies', 'overcoming barriers like costs, infrastructure, and public acceptance']</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>['Reduction in CH4 emissions per animal, adoption rates of improved feeding practices, and increase in production efficiency per unit of livestock product.']</t>
+          <t>['Reduction in CH4 emissions per animal', 'adoption rates of improved feeding practices', 'increase in production efficiency per unit of livestock product']</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>['Reduction in global agricultural methane emissions, improved livestock productivity, and enhanced food security, particularly in regions with high agricultural dependence.']</t>
+          <t>['Reduction in global agricultural methane emissions', 'improved livestock productivity', 'enhanced food security', 'particularly in regions with high agricultural dependence']</t>
         </is>
       </c>
     </row>
@@ -12510,17 +12510,17 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>['Adequate irrigation infrastructure, training for farmers on advanced techniques, access to slow-release fertilisers and biochar, and coordinated water management practices among neighboring farmers and regions.']</t>
+          <t>['Adequate irrigation infrastructure', 'training for farmers on advanced techniques', 'access to slow-release fertilisers and biochar', 'coordinated water management practices among neighboring farmers and regions']</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>['Reduction in CH4 and N2O emissions per hectare, increased water use efficiency, yield stability during droughts, and adoption rate of improved rice cultivation techniques.']</t>
+          <t>['Reduction in CH4 and N2O emissions per hectare', 'increased water use efficiency', 'yield stability during droughts', 'adoption rate of improved rice cultivation techniques']</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>['Reduced greenhouse gas emissions, improved water use efficiency, enhanced drought resilience, increased farm income, and more sustainable agricultural practices contributing to food security.']</t>
+          <t>['Reduced greenhouse gas emissions', 'improved water use efficiency', 'enhanced drought resilience', 'increased farm income', 'more sustainable agricultural practices', 'contributing to food security']</t>
         </is>
       </c>
     </row>
@@ -12600,17 +12600,17 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>['Availability of training and technical support for farmers, development of regional nutrient management roadmaps, and access to affordable fertilizers and inhibitors.']</t>
+          <t>['Availability of training and technical support for farmers', 'development of regional nutrient management roadmaps', 'access to affordable fertilizers and inhibitors']</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>['Reduction in N2O emissions, improvement in crop yields, increase in soil carbon sequestration, and reduction in fertilizer use per hectare.']</t>
+          <t>['Reduction in N2O emissions', 'improvement in crop yields', 'increase in soil carbon sequestration', 'reduction in fertilizer use per hectare']</t>
         </is>
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>['Contributes to climate mitigation, improves food and nutrition security, enhances environmental sustainability, and supports long-term agricultural productivity.']</t>
+          <t>['Contributes to climate mitigation', 'improves food and nutrition security', 'enhances environmental sustainability', 'supports long-term agricultural productivity']</t>
         </is>
       </c>
     </row>
@@ -12690,17 +12690,17 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>['Development of cost-effective anaerobic digestion systems, supportive policies for nitrification inhibitors, region-specific training programs, and accessible financing for farmers.']</t>
+          <t>['Development of cost-effective anaerobic digestion systems', 'supportive policies for nitrification inhibitors', 'region-specific training programs', 'accessible financing for farmers']</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>['Reduction in CH4 and N2O emissions from manure storage, increased adoption of anaerobic digestion systems, improved nitrogen use efficiency, and enhanced biogas production.']</t>
+          <t>['Reduction in CH4 and N2O emissions from manure storage', 'increased adoption of anaerobic digestion systems', 'improved nitrogen use efficiency', 'enhanced biogas production']</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>['Reduces greenhouse gas emissions, improves local water and air quality, enhances soil health, supports food security, and provides renewable energy through biogas production.']</t>
+          <t>['Reduces greenhouse gas emissions', 'improves local water and air quality', 'enhances soil health', 'supports food security', 'provides renewable energy through biogas production']</t>
         </is>
       </c>
     </row>
@@ -12780,17 +12780,17 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>['Requires sustainable land management, advanced bioenergy technology development, infrastructure for carbon capture and storage, and global governance for trade and supply chains.']</t>
+          <t>['Requires sustainable land management', 'advanced bioenergy technology development', 'infrastructure for carbon capture and storage', 'global governance for trade and supply chains']</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>['Amount of carbon removed through BECCS (in GtCO2 per year), total energy produced from bioenergy, land restored for biomass production, and GHG emissions reduction from displaced fossil fuel use.']</t>
+          <t>['Amount of carbon removed through BECCS (in GtCO2 per year)', 'total energy produced from bioenergy', 'land restored for biomass production', 'GHG emissions reduction from displaced fossil fuel use']</t>
         </is>
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>['Enhanced energy security, reduced GHG emissions, restored degraded lands, improved air and water quality, and biodiversity conservation.']</t>
+          <t>['Enhanced energy security', 'reduced GHG emissions', 'restored degraded lands', 'improved air and water quality', 'biodiversity conservation']</t>
         </is>
       </c>
     </row>
@@ -12870,17 +12870,17 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>['Implementation of integrated food-system policies, financial incentives for sustainable agriculture, awareness campaigns, and the development of local food systems to support dietary transitions.']</t>
+          <t>['Implementation of integrated food-system policies', 'financial incentives for sustainable agriculture', 'awareness campaigns', 'the development of local food systems to support dietary transitions']</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>['Reduction in GHG emissions from food production, reduction in land use for livestock, increase in plant-based food consumption, and improvement in public health metrics related to diet-related diseases.']</t>
+          <t>['Reduction in GHG emissions from food production', 'reduction in land use for livestock', 'increase in plant-based food consumption', 'improvement in public health metrics related to diet-related diseases']</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>['Improved public health outcomes, reduced environmental pressures (e.g., deforestation, biodiversity loss), and strengthened food security through sustainable practices.']</t>
+          <t>['Improved public health outcomes', 'reduced environmental pressures (e.g., deforestation, biodiversity loss)', 'strengthened food security through sustainable practices']</t>
         </is>
       </c>
     </row>
@@ -12960,17 +12960,17 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>['Adequate infrastructure for food storage and transportation, policy frameworks for waste reduction, financial incentives, and widespread consumer education to change behaviors.']</t>
+          <t>['Adequate infrastructure for food storage and transportation', 'policy frameworks for waste reduction', 'financial incentives', 'widespread consumer education to change behaviors']</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>['Reduction in food waste percentages at consumer and business levels, decrease in land used for agricultural production, and measurable GHG emission reductions across the food supply chain.']</t>
+          <t>['Reduction in food waste percentages at consumer and business levels', 'decrease in land used for agricultural production', 'measurable GHG emission reductions across the food supply chain']</t>
         </is>
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>['Enhances food security, reduces environmental stress on water and land resources, supports poverty alleviation, and contributes to achieving SDG 12 for sustainable consumption and production patterns.']</t>
+          <t>['Enhances food security', 'reduces environmental stress on water and land resources', 'supports poverty alleviation', 'contributes to achieving SDG 12 for sustainable consumption and production patterns']</t>
         </is>
       </c>
     </row>
@@ -13050,17 +13050,17 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>['Requires sustainable forest management practices, advanced wood processing technologies, market demand for wood substitutes, and global cooperation to prevent resource exploitation.']</t>
+          <t>['Requires sustainable forest management practices', 'advanced wood processing technologies', 'market demand for wood substitutes', 'global cooperation to prevent resource exploitation']</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>['Increased use of wood products in construction, reduction in GHG emissions from material substitution, and increase in recycled wood product utilization rates.']</t>
+          <t>['Increased use of wood products in construction', 'reduction in GHG emissions from material substitution', 'increase in recycled wood product utilization rates']</t>
         </is>
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>['Reduces emissions from traditional material production, enhances carbon sequestration, supports sustainable forest industries, and provides economic opportunities in rural and forested areas.']</t>
+          <t>['Reduces emissions from traditional material production', 'enhances carbon sequestration', 'supports sustainable forest industries', 'provides economic opportunities in rural and forested areas']</t>
         </is>
       </c>
     </row>
@@ -13140,17 +13140,17 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>['Requires integrated spatial planning, infrastructure development, zoning regulations, and public transport investment.']</t>
+          <t>['Requires integrated spatial planning', 'infrastructure development', 'zoning regulations', 'public transport investment']</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>['Reduction in vehicle miles traveled, increase in public transport usage, percentage of urban areas with mixed-use development, and lower per capita energy use in urban areas.']</t>
+          <t>['Reduction in vehicle miles traveled', 'increase in public transport usage', 'percentage of urban areas with mixed-use development', 'lower per capita energy use in urban areas']</t>
         </is>
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions, improved public health, better urban livability, reduced resource consumption, and preservation of land for agriculture and forestry.']</t>
+          <t>['Reduced GHG emissions', 'improved public health', 'better urban livability', 'reduced resource consumption', 'preservation of land for agriculture and forestry']</t>
         </is>
       </c>
     </row>
@@ -13230,17 +13230,17 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>['Requires effective urban planning, policy support for mixed land use, investment in public transit infrastructure, and cooperation across municipal agencies.']</t>
+          <t>['Requires effective urban planning', 'policy support for mixed land use', 'investment in public transit infrastructure', 'cooperation across municipal agencies']</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
         <is>
-          <t>['Reduction in VMT, increase in public transit ridership, decrease in transport-related GHG emissions, and improved accessibility to jobs and housing.']</t>
+          <t>['Reduction in VMT', 'increase in public transit ridership', 'decrease in transport-related GHG emissions', 'improved accessibility to jobs and housing']</t>
         </is>
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>['Reduces GHG emissions, improves air quality, enhances urban livability, and fosters more sustainable urban growth patterns.']</t>
+          <t>['Reduces GHG emissions', 'improves air quality', 'enhances urban livability', 'fosters more sustainable urban growth patterns']</t>
         </is>
       </c>
     </row>
@@ -13320,17 +13320,17 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>['High institutional capacity for cross-sector collaboration, advanced GIS tools for spatial planning, and stakeholder engagement for co-design processes.']</t>
+          <t>['High institutional capacity for cross-sector collaboration', 'advanced GIS tools for spatial planning', 'stakeholder engagement for co-design processes']</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>['Reduction in GHG emissions per capita, adoption rates of district heating/cooling systems, and proportion of urban population with access to green areas.']</t>
+          <t>['Reduction in GHG emissions per capita', 'adoption rates of district heating/cooling systems', 'proportion of urban population with access to green areas']</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>['Enhanced livability, improved public health, reduced energy use, increased resilience to climate impacts, and promotion of green economic growth.']</t>
+          <t>['Enhanced livability', 'improved public health', 'reduced energy use', 'increased resilience to climate impacts', 'promotion of green economic growth']</t>
         </is>
       </c>
     </row>
@@ -13410,17 +13410,17 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>['Requires grid upgrades, supportive policies, stakeholder cooperation, financial incentives, and public awareness campaigns, access to renewable energy and advanced storage technologies is critical.']</t>
+          <t>['Requires grid upgrades', 'supportive policies', 'stakeholder cooperation', 'financial incentives', 'public awareness campaigns', 'access to renewable energy', 'advanced storage technologies is critical']</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>['Reduction in GHG emissions per kWh, increase in renewable energy penetration, adoption rates of EVs and heat pumps, and improved urban air quality.']</t>
+          <t>['Reduction in GHG emissions per kWh', 'increase in renewable energy penetration', 'adoption rates of EVs and heat pumps', 'improved urban air quality']</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>['Enhances energy security, reduces urban air pollution, improves public health, and supports sustainable urban development through renewable energy and electrification.']</t>
+          <t>['Enhances energy security', 'reduces urban air pollution', 'improves public health', 'supports sustainable urban development through renewable energy and electrification']</t>
         </is>
       </c>
     </row>
@@ -13500,17 +13500,17 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>['Sustainable forestry management, international carbon accounting standards, development of mass timber technologies, robust forest and urban land governance policies, and incentivized afforestation practices.']</t>
+          <t>['Sustainable forestry management', 'international carbon accounting standards', 'development of mass timber technologies', 'robust forest and urban land governance policies', 'incentivized afforestation practices']</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>['Reduction in embodied carbon in construction, number of mid-rise urban buildings using engineered timber, carbon sequestration capacity of urban timber infrastructure, and improvement in sustainable forestry practices.']</t>
+          <t>['Reduction in embodied carbon in construction', 'number of mid-rise urban buildings using engineered timber', 'carbon sequestration capacity of urban timber infrastructure', 'improvement in sustainable forestry practices']</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>['Reduced GHG emissions from construction, enhanced carbon storage in urban environments, sustainable urbanization, improved resource efficiency, and reduced pressure on natural ecosystems.']</t>
+          <t>['Reduced GHG emissions from construction', 'enhanced carbon storage in urban environments', 'sustainable urbanization', 'improved resource efficiency', 'reduced pressure on natural ecosystems']</t>
         </is>
       </c>
     </row>
@@ -13590,17 +13590,17 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>['Availability of land for planting, community participation, funding for maintenance, and policies supporting urban greening initiatives']</t>
+          <t>['Availability of land for planting', 'community participation', 'funding for maintenance', 'policies supporting urban greening initiatives']</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>['Increase in urban tree cover percentage, reduction in urban heat island effect, amount of carbon sequestered, reduction in building energy use, and improvement in air quality metrics.']</t>
+          <t>['Increase in urban tree cover percentage', 'reduction in urban heat island effect', 'amount of carbon sequestered', 'reduction in building energy use', 'improvement in air quality metrics']</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>['Enhanced urban livability, improved public health, reduced energy consumption, increased biodiversity, and greater resilience to climate change impacts.']</t>
+          <t>['Enhanced urban livability', 'improved public health', 'reduced energy consumption', 'increased biodiversity', 'greater resilience to climate change impacts']</t>
         </is>
       </c>
     </row>
@@ -13680,17 +13680,17 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>['Requires local government coordination, community engagement, urban planning integration, and adequate funding for infrastructure development and maintenance.']</t>
+          <t>['Requires local government coordination', 'community engagement', 'urban planning integration', 'adequate funding for infrastructure development and maintenance']</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>['Reduction in building energy consumption, increase in urban green coverage, stormwater retention rates, increased active transportation use (cycling/walking), and improved thermal comfort.']</t>
+          <t>['Reduction in building energy consumption', 'increase in urban green coverage', 'stormwater retention rates', 'increased active transportation use (cycling/walking)', 'improved thermal comfort']</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>['Enhanced urban livability, reduced urban heat island effects, improved public health, better stormwater management, and increased biodiversity in urban areas.']</t>
+          <t>['Enhanced urban livability', 'reduced urban heat island effects', 'improved public health', 'better stormwater management', 'increased biodiversity in urban areas']</t>
         </is>
       </c>
     </row>
@@ -13770,17 +13770,17 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>['Requires integrated urban planning, investment in active transport infrastructure, collaboration between urban and transportation planners, and community engagement.']</t>
+          <t>['Requires integrated urban planning', 'investment in active transport infrastructure', 'collaboration between urban and transportation planners', 'community engagement']</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>['Reduction in vehicle miles traveled (VMT), increase in walking and biking trips, reduction in urban GHG emissions, and improved accessibility to essential services.']</t>
+          <t>['Reduction in vehicle miles traveled (VMT)', 'increase in walking and biking trips', 'reduction in urban GHG emissions', 'improved accessibility to essential services']</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>['Reduces urban energy use, improves public health, enhances urban livability, and fosters community engagement through better connectivity and accessibility.']</t>
+          <t>['Reduces urban energy use', 'improves public health', 'enhances urban livability', 'fosters community engagement through better connectivity and accessibility']</t>
         </is>
       </c>
     </row>
@@ -13860,17 +13860,17 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>['Requires institutional capacity, governance, cross-sectoral coordination, and public awareness campaigns, needs infrastructure for decentralized waste treatment and policies to promote circular economy practices.']</t>
+          <t>['Requires institutional capacity', 'governance', 'cross-sectoral coordination', 'public awareness campaigns', 'needs infrastructure for decentralized waste treatment', 'policies to promote circular economy practices']</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>['Reduction in waste generation per capita, increase in recycling and composting rates, reduction in CH4 emissions from waste, and employment opportunities created in waste management.']</t>
+          <t>['Reduction in waste generation per capita', 'increase in recycling and composting rates', 'reduction in CH4 emissions from waste', 'employment opportunities created in waste management']</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>['Improved urban livability, reduction in landfill emissions, enhanced resource efficiency, and economic growth through job creation in the waste management sector.']</t>
+          <t>['Improved urban livability', 'reduction in landfill emissions', 'enhanced resource efficiency', 'economic growth through job creation in the waste management sector']</t>
         </is>
       </c>
     </row>

--- a/scripts/script_outputs/combined.xlsx
+++ b/scripts/script_outputs/combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T152"/>
+  <dimension ref="A1:T176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13874,6 +13874,2071 @@
         </is>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ipcc_0081</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Coastal Accommodation</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Structural adaptation</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>['floods', 'sea-level-rise']</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>['road_infrastructure', 'geo-hydrological_disasters']</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Raising dwellings and key infrastructure such as coastal roads above ground level to reduce flooding impacts in small islands, with government subsidies supporting elevated houses in flood-prone areas.</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 0, 'habitat': 1, 'cost_of_living': -1, 'housing': 1, 'mobility': 0, 'stakeholder_engagement': 1}</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Provides flood mitigation and safety for vulnerable coastal populations, though local opposition has limited implementation in some areas.</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>['Government subsidies', 'Community support', 'Availability of construction materials']</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>['Percentage of houses elevated', 'Reduction in flood-related damages', 'Number of roads raised']</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>['Improved flood resilience', 'Reduced damage to infrastructure', 'Safer living conditions for communities in flood-prone areas']</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ipcc_0082</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Coastal Infrastructure</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Physical coastal management infrastructure</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>['floods', 'sea-level-rise', 'storms']</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>['road_infrastructure', 'port_infrastructure', 'geo-hydrological_disasters']</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Construction and maintenance of physical structures like seawalls, dykes, revetments, breakwaters, and tidal barriers to protect against flooding, erosion, and other coastal hazards.</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 1, 'habitat': -1, 'cost_of_living': -1, 'housing': 1, 'mobility': 0, 'stakeholder_engagement': 0}</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Hard-engineered structures may be inaccessible to poorer communities, necessitating inclusive planning to ensure equitable protection and benefits.</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>&gt;10 years</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>['Sufficient funding', 'Appropriate engineering expertise', 'Regular maintenance']</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>['Reduction in flooding incidents', 'Stability and durability of infrastructure', 'Community resilience improvement']</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>['Increased protection of coastal areas', 'Reduced economic losses from hazards', 'Potential ecological disruptions and increased erosion elsewhere']</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ipcc_0083</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Strategic coastal retreat</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Relocation and Planned Retreat</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>['sea-level-rise', 'floods', 'storms', 'landslides']</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>['geo-hydrological_disasters', 'public_health']</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Planned relocation and retreat of people, assets, and activities from coastal hazard zones to reduce exposure and risks caused by sea-level rise and associated coastal hazards.</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 2, 'cost_of_living': -1, 'housing': 1, 'mobility': 1, 'stakeholder_engagement': 1}</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Strategic retreat ensures inclusion of vulnerable populations, respecting cultural ties, and addressing place-attachment and livelihoods.</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>&gt;10 years</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>['Suitable and affordable land', 'Adequate financing', 'Effective governance and planning', 'Community engagement']</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>['Number of communities relocated', 'Reduction in exposure to hazards', 'Restoration of ecosystem services in retreat zones']</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>['Reduced hazard exposure', 'Increased safety and resilience', 'Potential loss of cultural ties and socioeconomic impacts for resettled communities if not equitably planned']</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ipcc_0084</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Restore/create natural areas</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Nature-Based Solutions</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>['sea-level-rise', 'floods', 'storms', 'droughts']</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>['biodiversity', 'water_resources', 'geo-hydrological_disasters']</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Restoration and conservation of marine and coastal habitats, such as mangroves, vegetated dunes, seagrasses, coral reefs, and kelp forests, to protect coastal communities, support biodiversity, sequester carbon, and mitigate climate change. Efforts include creating marine protected areas, active restoration of coral reefs, ridge-to-reef management, restoring
+dunes, planting salinity-tolerant trees, increasing forest cover, detect and manage forest pests. </t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>{'air_quality': 1, 'water_quality': 2, 'habitat': 2, 'cost_of_living': 1, 'housing': 1, 'mobility': 0, 'stakeholder_engagement': 1}</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Promotes inclusion by protecting ecosystems that support vulnerable coastal communities and enhances livelihoods through sustainable fisheries and recreation opportunities.</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>['Community engagement', 'Funding for restoration projects', 'Integration of local knowledge', 'Sustainable management of marine resources']</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>['Area of habitats restored', 'Reduction in coastal flooding incidents', 'Improvement in biodiversity indices', 'Carbon sequestration capacity']</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>['Reduced coastal vulnerability', 'Enhanced ecosystem resilience', 'Improved fishery productivity', 'Increased carbon storage', 'Improved public health and recreation opportunities']</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ipcc_0085</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Reduce ecosystem stress</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Pollution Management and Ecosystem-Based Adaptation</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>['droughts', 'floods', 'sea-level-rise', 'wildfires', 'storms']</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>['biodiversity', 'water_resources', 'geo-hydrological_disasters']</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Reduce pollution, eutrophication, and anthropogenic pressures on natural systems, including marine and terrestrial ecosystems. Efforts include managing runoff, protecting sensitive habitats like the Great Barrier Reef, addressing non-climate drivers, promoting sustainable fisheries harvest, and increasing connectivity between natural areas to enhance ecosystem resilience.</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>{'air_quality': 1, 'water_quality': 2, 'habitat': 2, 'cost_of_living': 0, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 1}</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Supports vulnerable communities reliant on ecosystems for livelihoods by improving ecosystem services, promoting sustainable fisheries, and ensuring access to connected habitats that can mitigate climate-related hazards.</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>['Enforcement of pollution regulations', 'Funding for ecosystem restoration', 'Monitoring fish stocks and habitat connectivity', 'Community engagement', 'Strategic habitat restoration planning']</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>['Reduction in pollutant levels', 'Improvement in water quality indices', 'Increase in biodiversity resilience scores', 'Reduction in frequency of ecosystem stress events', 'Increase in sustainable fishery yields', 'Increase in habitat connectivity']</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>['Enhanced ecosystem resilience', 'Reduced anthropogenic stress on sensitive habitats', 'Improved water and air quality', 'Strengthened biodiversity protection', 'Improved marine resource management', 'Increased habitat availability for species migration']</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ipcc_0086</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ecosystem-based adaptation</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Ecosystem-based adaptation (EbA)</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>['storms', 'sea-level-rise', 'heatwaves', 'floods']</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>['biodiversity', 'geo-hydrological_disasters', 'water_resources', 'public_health']</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Restoring and sustainably managing marine, coastal, urban, riverine, and wetland ecosystems to protect against climate hazards such as storm surges, floods, and heatwaves. Efforts include agroecology, coastal and marine vegetation and reefs, vegetation corridors,  mangrove habitat restoration, urban green space to reduce temperatures. These actions improve biodiversity, store carbon, enhance water quality, and provide socio-economic and cultural co-benefits.</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>{'air_quality': 1, 'water_quality': 2, 'habitat': 2, 'cost_of_living': 0, 'housing': 1, 'mobility': 1, 'stakeholder_engagement': 1}</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Supports vulnerable communities by enhancing climate resilience, promoting equitable access to ecosystem services, and creating livelihood opportunities, especially for marginalized and underserved populations.</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>['Community engagement', 'Regulatory support', 'Financial investment', 'Urban planning', 'Climate-resilient vegetation', 'Biodiversity assessments', 'Catchment management', 'Upstream planning', 'Sustainable funding']</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>['Reduction in storm surge damage', 'Carbon sequestration rates', 'Increased biodiversity', 'Temperature reduction in urban areas', 'Improved water quality', 'Access to green spaces by underserved communities', 'Reduction in flood events', 'Enhanced ecosystem health']</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>['Improved coastal resilience', 'Enhanced biodiversity', 'Support for local livelihoods', 'Improved urban livability', 'Enhanced public health', 'Reduction in urban heat island effect', 'Flood risk reduction', 'Improved water quality', 'Enhanced ecosystem services']</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ipcc_0087</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Infrastructure retrofitting</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Infrastructural Adaptation</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>['floods', 'droughts', 'heatwaves']</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>['road_infrastructure', 'public_health', 'energy_security']</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Strengthening and upgrading existing infrastructure, including roads, housing, and energy systems, to improve resilience against climate risks such as floods, droughts, and heatwaves. Efforts include Air conditioning, using thermosiphons for permafrost degradation, increasing rooftop albedo (for reflectivity) and shading</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>{'air_quality': 1, 'water_quality': 1, 'habitat': 0, 'cost_of_living': -1, 'housing': 1, 'mobility': 1, 'stakeholder_engagement': 1}</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Improves resilience for vulnerable communities, especially in low-income regions, by reducing risks from extreme climate events.</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>['Policy alignment', 'Funding availability', 'Engineering and construction expertise']</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>['Reduced infrastructure failure during hazards', 'Increased capacity for housing and energy systems']</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>['Enhanced urban resilience', 'Safer housing', 'Reduced economic losses due to climate impacts']</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ipcc_0088</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Building codes</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Climate-Resilient Urban Planning</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>['floods', 'landslides']</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>['road_infrastructure', 'geo-hydrological_disasters']</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>The development and implementation of building codes and architectural design regulations aimed at integrating climate adaptation parameters. These codes are focused on reducing risks from climate-induced hazards like floods and landslides. They also support climate-resilient urban development by guiding land use, construction practices, and infrastructure standards. The initiative fosters strategic long-term urban planning to coordinate public and private investments in adaptation, including the creation of safe zones and the transformation of precarious settlements. It ensures that new infrastructure is resilient to climate risks and that urban spaces are safe and sustainable for current and future populations.</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>{'air_quality': 2, 'water_quality': 0, 'habitat': 1, 'cost_of_living': 1, 'housing': 2, 'mobility': 1, 'stakeholder_engagement': 1}</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Promotes inclusive urban planning by addressing risks in informal and precarious settlements and integrating eco-parks and eco-gardens for vulnerable populations.</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>['Integration with local climate risk assessments', 'Strategic collaboration between urban planners and municipal authorities']</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>['Reduction in urban flood incidents', 'Increased availability of safe housing in risk areas', 'Implementation rate of eco-parks and eco-gardens in vulnerable areas']</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>['Improved public health', 'Increased urban livability', 'Reduced disaster-related costs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ipcc_0089</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Spatially redirect development</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Regulatory and governance actions</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>['floods', 'heatwaves', 'sea-level-rise']</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>['water_resources', 'food_security', 'geo-hydrological_disasters']</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Use zoning and land-use planning to regulate coastal development by implementing spatial development strategies that consider environmental vulnerabilities, protect ecosystems, and mitigate risks from flooding, heatwaves, and sea-level rise. This includes ensuring that development is directed away from high-risk areas, integrating climate adaptation considerations into urban planning, and promoting sustainable practices to close adaptation gaps while addressing urban inequality.</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>{'air_quality': 1, 'water_quality': 1, 'habitat': 2, 'cost_of_living': -1, 'housing': 1, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Addresses inequality in urban populations by targeting the poorest quintiles and ensuring equitable adaptation deployment.</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>['Effective governance frameworks', 'Community engagement', 'Financial investments', 'Technical expertise']</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>['Reduction in adaptation gap', 'Decrease in urban vulnerability disparities', 'Improved resilience of coastal areas']</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>['Reduced urban inequality', 'Enhanced urban livability', 'Increased resilience to climate hazards']</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ipcc_0090</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Financial adaptation strategy</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>['droughts', 'floods', 'storms']</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>['food_security', 'water_resources', 'energy_security']</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>nsurance provides financial risk management tools tailored to climate-induced challenges. This includes traditional agricultural insurance to protect farmers from weather-related losses and innovative index-based insurance solutions. Index-based insurance leverages measurable weather indices, such as rainfall or temperature, to trigger payouts automatically when thresholds are reached, bypassing the need for loss verification. These tools help stabilize incomes, encourage investment in climate-resilient practices, and reduce the economic vulnerability of stakeholders in agriculture, aquaculture, and energy sectors. Furthermore, bundled insurance products with additional services like fertilizer or seed access enhance overall resilience, particularly in underserved and rural communities. By mitigating risks associated with droughts, floods, and storms, insurance supports sustainable development and adaptation goals</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 0, 'cost_of_living': -1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Supports small-scale farmers, marginalized communities, and those in vulnerable areas by improving access to financial resilience tools and mitigating climate-related risks</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>&lt;5 years</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>['Availability of climate data', 'Regulatory frameworks', 'Collaboration among financial institutions and governments']</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>['Increase in number of insurance beneficiaries', 'Reduction in economic losses from extreme events', 'Adoption of index-based insurance products']</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>['Enhanced financial resilience', 'Decreased vulnerability to climate-induced hazards', 'Strengthened adaptive capacity in food and water systems']</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ipcc_0091</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diversification of livelihoods </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Livelihood Adaptation</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>['storms', 'sea-level-rise']</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>['food_security', 'biodiversity']</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Diversifying income-generating activities within fisheries and mariculture sectors to mitigate the economic impacts of climate change. This includes shifting target species, adapting harvest tactics, and transitioning to mariculture and ecotourism. Technology and infrastructure upgrades improve marine harvest efficiency and promote sustainable resource management. These adaptations aim to stabilize fisheries, enhance sustainability, and protect livelihoods under shifting marine species distributions and climate variability.</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 2, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Promotes equitable opportunities for vulnerable fishing communities by supporting transitions to alternative employment sectors like ecotourism and mariculture.</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>&lt;5 years</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>['Investment in education', 'infrastructure', 'technology to support the transition to diversified livelihoods']</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>['Increase in income diversity', 'employment rates in alternative sectors', 'reduction in overexploitation of marine species']</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>['Improved livelihood stability', 'economic resilience', 'enhanced resource sustainability']</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ipcc_0092</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Social safety nets</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Social Protection and Risk Reduction</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>['droughts', 'heatwaves', 'floods', 'storms']</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>['food_security', 'public_health']</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Social safety nets encompass adaptive social protection mechanisms to reduce food insecurity and malnutrition, especially for vulnerable populations. These include cash transfers, school feeding programs, public work initiatives, unemployment compensation, land reforms, credit and insurance schemes. Integrated approaches combine climate risk assessments with disaster risk reduction, education, and social equity to enhance resilience to climate stresses.</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 2, 'housing': 1, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Enhances the social status and rights of marginalized groups, protects vulnerable populations, reduces inequalities, and promotes education and gender equity.</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>['Integration of climate and disaster risk into social protection', 'education programs', 'coordination with sustainable livelihoods and financial inclusion initiatives']</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>['Reduction in malnutrition rates', 'Increase in education access for vulnerable groups', 'Participation in social protection programs']</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>['Improved public health', 'Reduced poverty and inequality', 'Strengthened resilience and social empowerment']</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ipcc_0093</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Availability of health infrastructure</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Infrastructure Adaptation</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>['droughts', 'floods', 'sea-level-rise', 'diseases']</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>['public_health', 'water_resources']</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Ensuring access to safe drinking water infrastructure, protecting health services, and improving sanitation systems to mitigate climate impacts. This includes developing adaptive measures for water security against droughts, floods, and sea-level rise. Strengthening infrastructure resilience ensures equitable access to health services, reduces contamination risks, and addresses the impacts of climate-induced hazards.</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 2, 'habitat': 1, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Enhances access to critical health and water resources for vulnerable and underserved communities, mitigating inequities caused by climate impacts.</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>['Adequate funding', 'technological investments in health and water infrastructure', 'effective governance and cross-sector coordination']</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>['Reduction in waterborne diseases', 'improved access to potable water', 'number of resilient health facilities developed']</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>['Improved public health', 'enhanced water security', 'resilience against climate-induced hazards']</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ipcc_0094</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Access to health care</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Health Systems Strengthening</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>['heatwaves', 'floods', 'droughts']</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>['public_health', 'water_resources']</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Enhancing access to health care services, including health and nutrition services, clean water, sanitation, and culturally appropriate mental health resources. Expanding telemedicine capabilities enables efficient health service delivery, particularly for remote and underserved populations. Strengthening basic public health systems and disaster preparedness can rapidly reduce vulnerability to climate-related health risks.</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>{'air_quality': 1, 'water_quality': 2, 'habitat': 0, 'cost_of_living': 1, 'housing': 1, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Promotes equitable access to health care for marginalized and vulnerable groups, including homeless populations, remote communities, and those affected by housing inequities.</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>['Investment in telemedicine technologies', 'Strengthened governance of public health systems', 'Capacity building for health workers', 'Infrastructure upgrades for health facilities']</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>['Reduction in climate-related mortality', 'Increased access to telemedicine', 'Number of culturally tailored health programs implemented', 'Improved water and sanitation access metrics']</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>['Improved public health', 'Reduced health inequities', 'Enhanced disaster preparedness', 'Stronger health system resilience']</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ipcc_0095</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Disaster early warning</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Risk Reduction and Preparedness</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>['heatwaves', 'droughts', 'storms']</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>['public_health', 'biodiversity', 'geo-hydrological_disasters']</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Establishing and maintaining early warning systems for disasters, including marine heatwaves, pest outbreaks, and heatwaves. These systems involve timely information dissemination to individuals, communities, and emergency services, enabling proactive measures to mitigate risks. Heat Action Plans (HAPs) are part of these systems and include detailed strategies like urban planning with nature-based solutions (e.g., green-blue spaces, cool materials), public awareness campaigns, and targeted measures for vulnerable groups (e.g., elderly, children, outdoor workers). Critical actions also include evaluation of system effectiveness post-disaster, lessons sharing, and improvements for better preparedness in future events.</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>{'air_quality': 2, 'water_quality': 1, 'habitat': 2, 'cost_of_living': 0, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Focuses on addressing vulnerabilities among low-income groups, elderly, pregnant women, children, and outdoor workers by incorporating targeted communication, access to cool areas, and specific health interventions. Promotes equity by engaging marginalized communities in planning and ensuring access to necessary resources.</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>&lt;5 years</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>['Coordination among emergency services and health agencies', 'Investment in urban planning and nature-based solutions', 'Community education and public awareness campaigns', 'Technological infrastructure for early warning systems']</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>['Reduction in heatwave-related mortality rates', 'Timeliness of warnings', 'Public awareness levels', 'Community adoption of protective measures']</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>['Improved public health and safety', 'Enhanced community resilience to disasters', 'Reduced economic losses from heat-related productivity impacts', 'Broader ecosystem benefits through urban nature-based solutions']</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ipcc_0096</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Farm/fishery improvements</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Integrated Farm and Fishery Adaptation</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>['droughts', 'heatwaves', 'floods', 'wildfires', 'storms']</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>['food_security', 'biodiversity', 'water_resources']</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Implementing a range of strategies to adapt farms and fisheries to climate impacts. This includes changing fishing gear or vessel power, adopting new crop varieties or adjusting planting schedules, improving irrigation schemes, integrating crop and livestock systems, relocating livestock with improved pasture management, and adopting agroecological and agroforestry systems. Technological innovations like smart farming and financial measures such as subsidies support these adaptations.</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>{'air_quality': 1, 'water_quality': 2, 'habitat': 2, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Ensures access to resources for marginalized farmers and fishers, promotes diverse livelihood options, and builds resilience in underserved communities.</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>['Policy support for climate-resilient agriculture and fisheries', 'Access to finance and subsidies', 'Training for adopting new practices', 'Improved market infrastructure']</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>['Increase in agricultural and fishery productivity', 'Adoption rate of integrated systems', 'Reduction in climate-related yield losses']</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>['Improved food security', 'Enhanced ecosystem health', 'Increased resilience of agricultural and fishery systems']</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ipcc_0097</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Food storage/distribution improvements</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Infrastructure Improvement</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>['droughts', 'floods', 'storms', 'heatwaves']</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>['food_security', 'road_infrastructure']</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Enhancing food storage and distribution systems by improving transportation infrastructure, optimizing trade networks, and shortening supply chains to ensure local food availability and resilience to climate impacts. This action also includes increasing the capacity of local food storage facilities to reduce post-harvest losses, addressing inefficiencies in logistics, and bolstering infrastructure for perishable goods. It aims to improve food security and reduce vulnerability to extreme events, disruptions, and cascading impacts, especially during pandemics and other crises.</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': 1, 'housing': 0, 'mobility': 2, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Supports equitable access to food for marginalized and vulnerable populations by prioritizing local food production and improving distribution systems that reach underserved areas.</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>['Investment in infrastructure', 'Policy incentives for local food production', 'Collaboration with logistics and trade sectors', 'Technology for supply chain optimization']</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>['Reduction in post-harvest losses', 'Increased local food availability', 'Improved transportation efficiency for food distribution', 'Shortened supply chains']</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>['Improved food security', 'Resilience to climate-induced disruptions', 'Reduced greenhouse gas emissions from supply chains', 'Enhanced local economic growth']</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ipcc_0098</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Behaviour change in diets and food waste</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Food System Transformation</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>['droughts', 'heatwaves', 'floods', 'wildfires']</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>['food_security', 'biodiversity']</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Reducing food loss and waste through improved food production, distribution, and consumption practices. Actions include enhancing agricultural techniques, adopting water-saving technologies, implementing low-cost storage solutions, and promoting plant-based diets. Policymakers can encourage these behaviors with appropriate pricing policies, sustainable agriculture initiatives, and support for disadvantaged groups. The action emphasizes shifting to healthier diets, reducing overconsumption, and supporting local food systems to mitigate greenhouse gas emissions and ensure food security under climate change.</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>{'air_quality': 1, 'water_quality': 2, 'habitat': 2, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Promotes access to affordable, healthy food for vulnerable communities, empowering women, youth, and socially disadvantaged groups. Encourages equitable participation in sustainable agricultural practices and local food networks.</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>['Education and training for farmers', 'Access to sustainable agricultural inputs', 'Policy support for sustainable practices', 'Technological infrastructure for storage and processing']</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>['Reduction in food loss and waste percentages', 'Increase in adoption of plant-based diets', 'Improved food security indicators', 'Reduction in GHG emissions from food systems']</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>['Improved food security', 'Enhanced health outcomes', 'Reduced greenhouse gas emissions', 'Strengthened local food systems', 'Greater resilience to climate variability']</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ipcc_0099</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Water capture/storage</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Infrastructure-Based Adaptation</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>['droughts', 'floods', 'storms']</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>['water_resources', 'food_security', 'energy_security', 'geo-hydrological_disasters']</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Implementing water capture and storage solutions such as farm ponds, revival of water bodies, rain gardens, bioswales, retention ponds, and water storage tanks. These measures aim to mitigate climate-induced impacts by improving water management, reducing stormwater runoff, enhancing water quality, and supporting agriculture and energy production under changing climate scenarios. Multi-purpose water reservoirs and dams provide additional benefits by addressing water shortages and managing risks associated with natural hazards.</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 2, 'habitat': 2, 'cost_of_living': 1, 'housing': 0, 'mobility': 1, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Ensures access to water for underserved communities, supports sustainable livelihoods in water-scarce regions, and promotes equitable resource distribution through inclusive decision-making processes.</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>['Investment in green infrastructure', 'community engagement', 'policy support for water resource management']</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>['Reduction in stormwater runoff', 'increase in water storage capacity', 'improvement in water quality', 'stability in agricultural yields']</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>['Improved water availability', 'enhanced climate resilience', 'sustainable agriculture and energy production', 'reduced risk of flooding and drought']</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ipcc_0100</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Efficient water use/demand</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Integrated Water Management</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>['droughts', 'heatwaves']</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>['water_resources', 'food_security']</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Implementing advanced irrigation techniques such as precision and drip irrigation to enhance water use efficiency in agriculture. Managed Aquifer Recharge (MAR) is applied to replenish groundwater supplies using stormwater, treated wastewater, or other sources. These actions are complemented by cooperative policies across multiple sectors to ensure sustainable water resource management, equitable access, and regional collaboration. Additionally, promoting changes in water consumption patterns, such as reducing waste and improving efficiency in urban and agricultural water use, supports resilience against water scarcity and enhances adaptive capacity in vulnerable regions. These efforts collectively aim to address the growing demand for freshwater in the face of climate change and ensure long-term sustainability.</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 2, 'habitat': 1, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Supports vulnerable farming and urban communities by ensuring equitable access to water resources, promoting sustainable consumption patterns, and addressing persistent water stress in underserved areas.</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>['Infrastructure for water reuse and MAR', 'Regulatory frameworks for water management', 'Education and training on irrigation techniques', 'Regional and cross-sector policy coordination']</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>['Reduction in agricultural water usage', 'Increase in groundwater recharge rates', 'Improved crop yields', 'Adoption of sustainable water consumption patterns', 'Regional collaboration metrics']</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>['Enhanced water resource sustainability', 'Improved food security', 'Increased resilience against water scarcity', 'Strengthened regional and cross-sector collaboration']</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ipcc_0101</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Efficient water supply/distribution</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Sustainable Resource Management</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>['droughts', 'floods', 'storms']</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>['water_resources']</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Implementing sustainable water supply systems by constructing irrigation infrastructure, promoting inter-basin water transfers, utilizing nature-based solutions (NBS) such as rain gardens, bioswales, and wetlands, and integrating advanced techniques like water reuse and water upgrading. Water reuse involves treating and recycling wastewater for non-potable or potable purposes, while water upgrading focuses on improving the quality of available water for diverse uses. These approaches enhance stormwater infiltration, improve urban water management, increase drought resilience, and support groundwater recharge. They provide energy-efficient and economical water solutions while maintaining sustainable urban development.</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 2, 'habitat': 2, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 1}</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Promotes equitable access to water resources, particularly in underserved urban areas, by integrating natural and engineered water management systems to benefit all communities, including low-income groups.</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>['Adequate funding for infrastructure development', 'Community engagement for NBS implementation', 'Integration of urban planning with water management']</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>['Reduction in water scarcity incidents', 'Increase in groundwater recharge rates', 'Enhanced urban water infiltration capacity']</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>['Improved water security', 'Enhanced urban livability', 'Increased resilience to climate-related water risks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ipcc_0102</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Seasonal/temporary mobility</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Livelihood Adaptation</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>['sea-level-rise', 'storms', 'droughts']</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>['food_security', 'biodiversity']</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Facilitating mobility of fishing fleets and workers to adapt to shifting marine species distributions caused by climate change. This includes enabling seasonal or temporary migration to align with the availability of resources, improving infrastructure and technology to support mobility, and fostering flexible governance to manage transboundary resources sustainably. These actions aim to maintain livelihoods and reduce economic impacts of climate variability.</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 2, 'cost_of_living': 1, 'housing': 0, 'mobility': 2, 'stakeholder_engagement': 1}</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Ensures equitable access to resources for vulnerable communities, including small-scale fishers and those dependent on seasonal income, by promoting inclusive governance structures and reducing barriers to mobility.</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>['Infrastructure and technology investments', 'Transboundary agreements', 'Capacity-building initiatives to support mobility']</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>['Reduction in resource overexploitation', 'Increase in seasonal employment opportunities', 'Enhanced management of transboundary fisheries']</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>['Improved economic resilience', 'Stabilized food security', 'Sustainable management of marine biodiversity']</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ipcc_0103</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Cooperative governance</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Governance and Policy Adaptation</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>['sea-level-rise', 'storms']</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>['water_resources', 'biodiversity']</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Enhancing cooperative governance through transboundary fishing agreements and inclusive ocean governance. This involves participatory approaches, structured decision-making tools, and decentralized frameworks that couple top-down management with community-driven initiatives. Additional strategies include collective water management systems to optimize resource use under climate-induced variability, indigenous water-sharing systems rooted in traditional practices to ensure sustainable and equitable resource allocation, and enforcing the land rights of Indigenous populations to protect biodiversity and cultural heritage. Adaptive co-management in Arctic fisheries integrates local and scientific knowledge to address climate impacts on marine resources. The international compact on migration fosters orderly and safe migration as an adaptive response to climate risks, and policies for adaptive governance promote ecosystem-based solutions, legal frameworks, and institutional adaptations to enhance resilience to climate change. These combined measures address geopolitical complexities, ensure equitable resource distribution, and strengthen resilience to climate-induced hazards.</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 2, 'cost_of_living': 1, 'housing': 0, 'mobility': 0, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Promotes inclusivity by incorporating Indigenous knowledge systems, ensuring representation of marginalized communities in decision-making processes, and creating equitable access to marine resources for vulnerable populations. Recognizes the importance of Indigenous land rights and traditional governance systems to enhance community resilience and equitable resource management.</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>['Establishment of transboundary agreements', 'Investment in marine observation technologies', 'Capacity building for local communities', 'Recognition of Indigenous land and water rights', 'Implementation of adaptive co-management frameworks']</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>['Number of transboundary agreements signed', 'Increase in fish stock sustainability', 'Stakeholder satisfaction with governance processes', 'Improved water-sharing outcomes in Indigenous communities', 'Integration of adaptive co-management in fisheries governance']</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>['Enhanced marine resource sustainability', 'Improved international relations', 'Strengthened community resilience and equity', 'Protection of Indigenous cultural and environmental heritage', 'Increased resilience of water resources to climate impacts']</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ipcc_0104</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Permanent migration</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>['adaptation']</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Social and Economic Resilience</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>['floods', 'landslides', 'sea-level-rise']</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>['geo-hydrological_disasters', 'public_health', 'water_resources']</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>['climate_resilience']</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Resettlement of communities from flood-prone areas and rural–urban migration as a strategy to mitigate vulnerabilities caused by climate change. This includes addressing urbanization challenges, such as unplanned development, water insecurity, and socioeconomic disparities, while providing equitable opportunities for migrants in urban centers. Measures include enhancing urban planning, water resource management, and social support systems for displaced populations.</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>{'air_quality': 0, 'water_quality': 1, 'habitat': 1, 'cost_of_living': -1, 'housing': -1, 'mobility': 1, 'stakeholder_engagement': 2}</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Promotes inclusion by addressing the vulnerabilities of marginalized populations and ensuring equitable access to resources, opportunities, and support systems for displaced communities.</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>5-10 years</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>['Development of urban infrastructure', 'Equitable resource allocation', 'Strong governance frameworks', 'Capacity building for displaced populations']</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>['Reduction in displacement-related mortality', 'Increase in access to water and housing', 'Improvement in migrant livelihoods and employment rates']</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>['Reduced vulnerabilities to climate-induced hazards', 'Enhanced resilience of urban populations', 'Improved socioeconomic stability for migrants and host communities']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
